--- a/Data_Raw/Manually_Collected_Data.xlsx
+++ b/Data_Raw/Manually_Collected_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamesh\GIT\Benefish_Data_Collection\Data_Raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work_Related_Projects\SPC\Benefish_Data_Collection\Data_Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA73669B-93BD-45CF-AACA-BB98D36C86E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4576841-F270-4ED6-90A7-B438D0EC396C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="913" activeTab="6" xr2:uid="{DADAB8C2-813A-4B64-AE11-C65CAFCECFBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="913" activeTab="6" xr2:uid="{DADAB8C2-813A-4B64-AE11-C65CAFCECFBF}"/>
   </bookViews>
   <sheets>
     <sheet name="American_Samoa" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="257">
   <si>
     <t>Live fish</t>
   </si>
@@ -836,6 +836,220 @@
   </si>
   <si>
     <t>9-4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2018 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FFFFFEFD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2019 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FFFFFEFD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2020 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FFFFFEFD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <t>Informal sector fishing for cash sales</t>
+  </si>
+  <si>
+    <t>Seaweed growers</t>
+  </si>
+  <si>
+    <t>Informal sector fishing for subsistence</t>
+  </si>
+  <si>
+    <t>Formal sector fishing</t>
+  </si>
+  <si>
+    <t>Total fishing contribution</t>
+  </si>
+  <si>
+    <t>Kiribati GDP at market prices</t>
+  </si>
+  <si>
+    <t>Fishing contribution to GDP (A$ thousands)</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gross value  of production </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFFFEFD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(A$)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Value added </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFFFEFD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(A$)</t>
+    </r>
+  </si>
+  <si>
+    <t>----</t>
+  </si>
+  <si>
+    <t>9-6</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Total fishery exports</t>
+  </si>
+  <si>
+    <t>Total direct exports</t>
+  </si>
+  <si>
+    <t>Fishery exports as % of all direct exports</t>
+  </si>
+  <si>
+    <t>Fishery exports of Kiribati (thousands of A$)</t>
+  </si>
+  <si>
+    <t>9-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strata </t>
+  </si>
+  <si>
+    <t>South Tarawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line Is. &amp; Phoenix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban/Rural </t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rural </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sex </t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age group </t>
+  </si>
+  <si>
+    <t>5–14 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15–17 years </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18–59 years </t>
+  </si>
+  <si>
+    <t xml:space="preserve">60+ years </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disability status </t>
+  </si>
+  <si>
+    <t>With disability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Without disability </t>
+  </si>
+  <si>
+    <t>Handline</t>
+  </si>
+  <si>
+    <t>Trolling</t>
+  </si>
+  <si>
+    <t>Night spear</t>
+  </si>
+  <si>
+    <t>Day spear</t>
+  </si>
+  <si>
+    <t>Gleaning</t>
+  </si>
+  <si>
+    <t>Trap</t>
+  </si>
+  <si>
+    <t>Div</t>
+  </si>
+  <si>
+    <t>Scuba</t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>The number of people aged 5 and above participating in various types of fishing</t>
+  </si>
+  <si>
+    <t>9-8</t>
   </si>
 </sst>
 </file>
@@ -1495,7 +1709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1908,110 +2122,8 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
@@ -2026,6 +2138,111 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2037,6 +2254,54 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2833,7 +3098,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="146" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="7">
@@ -2853,7 +3118,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="155"/>
+      <c r="A15" s="147"/>
       <c r="B15" s="7">
         <v>2007</v>
       </c>
@@ -2871,7 +3136,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="155"/>
+      <c r="A16" s="147"/>
       <c r="B16" s="7">
         <v>2014</v>
       </c>
@@ -2889,7 +3154,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="156"/>
+      <c r="A17" s="148"/>
       <c r="B17" s="7">
         <v>2021</v>
       </c>
@@ -2907,7 +3172,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="157" t="s">
+      <c r="A18" s="149" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="20">
@@ -2927,7 +3192,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="158"/>
+      <c r="A19" s="150"/>
       <c r="B19" s="20">
         <v>2007</v>
       </c>
@@ -2945,7 +3210,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="158"/>
+      <c r="A20" s="150"/>
       <c r="B20" s="20">
         <v>2014</v>
       </c>
@@ -2963,7 +3228,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="159"/>
+      <c r="A21" s="151"/>
       <c r="B21" s="20">
         <v>2021</v>
       </c>
@@ -2981,7 +3246,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="144" t="s">
+      <c r="A22" s="152" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="7">
@@ -3001,7 +3266,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="145"/>
+      <c r="A23" s="153"/>
       <c r="B23" s="7">
         <v>2007</v>
       </c>
@@ -3019,7 +3284,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="145"/>
+      <c r="A24" s="153"/>
       <c r="B24" s="7">
         <v>2014</v>
       </c>
@@ -3037,7 +3302,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="146"/>
+      <c r="A25" s="154"/>
       <c r="B25" s="7">
         <v>2021</v>
       </c>
@@ -3055,7 +3320,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="157" t="s">
+      <c r="A26" s="149" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="20">
@@ -3075,7 +3340,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="158"/>
+      <c r="A27" s="150"/>
       <c r="B27" s="20">
         <v>2007</v>
       </c>
@@ -3093,7 +3358,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="158"/>
+      <c r="A28" s="150"/>
       <c r="B28" s="20">
         <v>2014</v>
       </c>
@@ -3111,7 +3376,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="159"/>
+      <c r="A29" s="151"/>
       <c r="B29" s="20">
         <v>2021</v>
       </c>
@@ -3129,7 +3394,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="144" t="s">
+      <c r="A30" s="152" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="7">
@@ -3149,7 +3414,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="145"/>
+      <c r="A31" s="153"/>
       <c r="B31" s="7">
         <v>2007</v>
       </c>
@@ -3167,7 +3432,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="145"/>
+      <c r="A32" s="153"/>
       <c r="B32" s="7">
         <v>2014</v>
       </c>
@@ -3185,7 +3450,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="146"/>
+      <c r="A33" s="154"/>
       <c r="B33" s="7">
         <v>2021</v>
       </c>
@@ -3203,7 +3468,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="147" t="s">
+      <c r="A34" s="159" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="20">
@@ -3223,7 +3488,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="148"/>
+      <c r="A35" s="160"/>
       <c r="B35" s="20">
         <v>2007</v>
       </c>
@@ -3241,7 +3506,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="148"/>
+      <c r="A36" s="160"/>
       <c r="B36" s="20">
         <v>2014</v>
       </c>
@@ -3259,7 +3524,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="149"/>
+      <c r="A37" s="161"/>
       <c r="B37" s="24">
         <v>2021</v>
       </c>
@@ -3506,13 +3771,13 @@
       <c r="H50" s="31"/>
     </row>
     <row r="51" spans="1:10" ht="24" x14ac:dyDescent="0.25">
-      <c r="A51" s="150" t="s">
+      <c r="A51" s="162" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="152" t="s">
+      <c r="C51" s="164" t="s">
         <v>45</v>
       </c>
       <c r="D51" s="47" t="s">
@@ -3528,11 +3793,11 @@
       <c r="H51" s="31"/>
     </row>
     <row r="52" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="151"/>
+      <c r="A52" s="163"/>
       <c r="B52" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="153"/>
+      <c r="C52" s="165"/>
       <c r="D52" s="48" t="s">
         <v>47</v>
       </c>
@@ -4221,19 +4486,19 @@
       <c r="A81" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B81" s="140">
+      <c r="B81" s="155">
         <v>0.248</v>
       </c>
-      <c r="C81" s="140">
+      <c r="C81" s="155">
         <v>0.08</v>
       </c>
-      <c r="D81" s="140">
+      <c r="D81" s="155">
         <v>0.152</v>
       </c>
-      <c r="E81" s="140">
+      <c r="E81" s="155">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F81" s="142">
+      <c r="F81" s="157">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G81" s="30" t="s">
@@ -4247,11 +4512,11 @@
       <c r="A82" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B82" s="141"/>
-      <c r="C82" s="141"/>
-      <c r="D82" s="141"/>
-      <c r="E82" s="141"/>
-      <c r="F82" s="143"/>
+      <c r="B82" s="156"/>
+      <c r="C82" s="156"/>
+      <c r="D82" s="156"/>
+      <c r="E82" s="156"/>
+      <c r="F82" s="158"/>
       <c r="G82" s="30" t="s">
         <v>70</v>
       </c>
@@ -4326,11 +4591,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="D81:D82"/>
     <mergeCell ref="E81:E82"/>
     <mergeCell ref="F81:F82"/>
     <mergeCell ref="A30:A33"/>
@@ -4339,6 +4599,11 @@
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="B81:B82"/>
     <mergeCell ref="C81:C82"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="D81:D82"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4471,7 +4736,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="36" x14ac:dyDescent="0.25">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="169" t="s">
         <v>156</v>
       </c>
       <c r="B5" s="46" t="s">
@@ -4488,7 +4753,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="164"/>
+      <c r="A6" s="170"/>
       <c r="B6" s="135" t="s">
         <v>158</v>
       </c>
@@ -4589,10 +4854,10 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="165" t="s">
+      <c r="A13" s="171" t="s">
         <v>172</v>
       </c>
-      <c r="B13" s="166"/>
+      <c r="B13" s="172"/>
       <c r="C13" s="75" t="s">
         <v>173</v>
       </c>
@@ -4607,7 +4872,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="167" t="s">
+      <c r="A14" s="173" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="7">
@@ -4627,7 +4892,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="168"/>
+      <c r="A15" s="174"/>
       <c r="B15" s="7">
         <v>2007</v>
       </c>
@@ -4645,7 +4910,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="168"/>
+      <c r="A16" s="174"/>
       <c r="B16" s="7">
         <v>2014</v>
       </c>
@@ -4663,7 +4928,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="169"/>
+      <c r="A17" s="175"/>
       <c r="B17" s="69">
         <v>2021</v>
       </c>
@@ -4681,7 +4946,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="161" t="s">
+      <c r="A18" s="167" t="s">
         <v>175</v>
       </c>
       <c r="B18" s="20">
@@ -4701,7 +4966,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="148"/>
+      <c r="A19" s="160"/>
       <c r="B19" s="20">
         <v>2007</v>
       </c>
@@ -4719,7 +4984,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="148"/>
+      <c r="A20" s="160"/>
       <c r="B20" s="20">
         <v>2014</v>
       </c>
@@ -4737,7 +5002,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="162"/>
+      <c r="A21" s="168"/>
       <c r="B21" s="20">
         <v>2021</v>
       </c>
@@ -4755,7 +5020,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="144" t="s">
+      <c r="A22" s="152" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="7">
@@ -4775,7 +5040,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="145"/>
+      <c r="A23" s="153"/>
       <c r="B23" s="7">
         <v>2007</v>
       </c>
@@ -4793,7 +5058,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="145"/>
+      <c r="A24" s="153"/>
       <c r="B24" s="7">
         <v>2014</v>
       </c>
@@ -4811,7 +5076,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="160"/>
+      <c r="A25" s="166"/>
       <c r="B25" s="69">
         <v>2021</v>
       </c>
@@ -4829,7 +5094,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="161" t="s">
+      <c r="A26" s="167" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="20">
@@ -4849,7 +5114,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="148"/>
+      <c r="A27" s="160"/>
       <c r="B27" s="20">
         <v>2007</v>
       </c>
@@ -4867,7 +5132,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="148"/>
+      <c r="A28" s="160"/>
       <c r="B28" s="20">
         <v>2014</v>
       </c>
@@ -4885,7 +5150,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="148"/>
+      <c r="A29" s="160"/>
       <c r="B29" s="20">
         <v>2021</v>
       </c>
@@ -4903,7 +5168,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="145" t="s">
+      <c r="A30" s="153" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="7">
@@ -4923,7 +5188,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="145"/>
+      <c r="A31" s="153"/>
       <c r="B31" s="7">
         <v>2007</v>
       </c>
@@ -4941,7 +5206,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="145"/>
+      <c r="A32" s="153"/>
       <c r="B32" s="7">
         <v>2014</v>
       </c>
@@ -4959,7 +5224,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="160"/>
+      <c r="A33" s="166"/>
       <c r="B33" s="69">
         <v>2021</v>
       </c>
@@ -4977,7 +5242,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="161" t="s">
+      <c r="A34" s="167" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="20">
@@ -4997,7 +5262,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="148"/>
+      <c r="A35" s="160"/>
       <c r="B35" s="20">
         <v>2007</v>
       </c>
@@ -5015,7 +5280,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="148"/>
+      <c r="A36" s="160"/>
       <c r="B36" s="20">
         <v>2014</v>
       </c>
@@ -5033,7 +5298,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="162"/>
+      <c r="A37" s="168"/>
       <c r="B37" s="20">
         <v>2021</v>
       </c>
@@ -5713,7 +5978,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="144" t="s">
+      <c r="A26" s="152" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="69">
@@ -5733,7 +5998,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="145"/>
+      <c r="A27" s="153"/>
       <c r="B27" s="69">
         <v>2007</v>
       </c>
@@ -5751,7 +6016,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="145"/>
+      <c r="A28" s="153"/>
       <c r="B28" s="69">
         <v>2014</v>
       </c>
@@ -5769,7 +6034,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="160"/>
+      <c r="A29" s="166"/>
       <c r="B29" s="69">
         <v>2021</v>
       </c>
@@ -5787,7 +6052,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="161" t="s">
+      <c r="A30" s="167" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="20">
@@ -5807,7 +6072,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="148"/>
+      <c r="A31" s="160"/>
       <c r="B31" s="20">
         <v>2007</v>
       </c>
@@ -5825,7 +6090,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="148"/>
+      <c r="A32" s="160"/>
       <c r="B32" s="20">
         <v>2014</v>
       </c>
@@ -5843,7 +6108,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="162"/>
+      <c r="A33" s="168"/>
       <c r="B33" s="20">
         <v>2021</v>
       </c>
@@ -5861,7 +6126,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="144" t="s">
+      <c r="A34" s="152" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="69">
@@ -5881,7 +6146,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="145"/>
+      <c r="A35" s="153"/>
       <c r="B35" s="69">
         <v>2007</v>
       </c>
@@ -5899,7 +6164,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="145"/>
+      <c r="A36" s="153"/>
       <c r="B36" s="69">
         <v>2014</v>
       </c>
@@ -5917,7 +6182,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="160"/>
+      <c r="A37" s="166"/>
       <c r="B37" s="69">
         <v>2021</v>
       </c>
@@ -5935,7 +6200,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="161" t="s">
+      <c r="A38" s="167" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="20">
@@ -5955,7 +6220,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="148"/>
+      <c r="A39" s="160"/>
       <c r="B39" s="20">
         <v>2007</v>
       </c>
@@ -5973,7 +6238,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="148"/>
+      <c r="A40" s="160"/>
       <c r="B40" s="20">
         <v>2014</v>
       </c>
@@ -5991,7 +6256,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="149"/>
+      <c r="A41" s="161"/>
       <c r="B41" s="24">
         <v>2021</v>
       </c>
@@ -6009,7 +6274,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="174" t="s">
+      <c r="A42" s="177" t="s">
         <v>20</v>
       </c>
       <c r="B42" s="69">
@@ -6029,7 +6294,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="145"/>
+      <c r="A43" s="153"/>
       <c r="B43" s="69">
         <v>2007</v>
       </c>
@@ -6047,7 +6312,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="145"/>
+      <c r="A44" s="153"/>
       <c r="B44" s="69">
         <v>2014</v>
       </c>
@@ -6065,7 +6330,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="160"/>
+      <c r="A45" s="166"/>
       <c r="B45" s="69">
         <v>2021</v>
       </c>
@@ -6083,7 +6348,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="161" t="s">
+      <c r="A46" s="167" t="s">
         <v>22</v>
       </c>
       <c r="B46" s="20">
@@ -6103,7 +6368,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="148"/>
+      <c r="A47" s="160"/>
       <c r="B47" s="20">
         <v>2007</v>
       </c>
@@ -6121,7 +6386,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="148"/>
+      <c r="A48" s="160"/>
       <c r="B48" s="20">
         <v>2014</v>
       </c>
@@ -6139,7 +6404,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="149"/>
+      <c r="A49" s="161"/>
       <c r="B49" s="24">
         <v>2021</v>
       </c>
@@ -6415,7 +6680,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="170" t="s">
+      <c r="A65" s="178" t="s">
         <v>139</v>
       </c>
       <c r="B65" s="104" t="s">
@@ -6444,7 +6709,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="171"/>
+      <c r="A66" s="179"/>
       <c r="B66" s="104" t="s">
         <v>141</v>
       </c>
@@ -6471,7 +6736,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="172" t="s">
+      <c r="A67" s="176" t="s">
         <v>142</v>
       </c>
       <c r="B67" s="107" t="s">
@@ -6500,7 +6765,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="169"/>
+      <c r="A68" s="175"/>
       <c r="B68" s="107" t="s">
         <v>141</v>
       </c>
@@ -6527,7 +6792,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="170" t="s">
+      <c r="A69" s="178" t="s">
         <v>143</v>
       </c>
       <c r="B69" s="104" t="s">
@@ -6556,7 +6821,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="171"/>
+      <c r="A70" s="179"/>
       <c r="B70" s="104" t="s">
         <v>141</v>
       </c>
@@ -6583,7 +6848,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="172" t="s">
+      <c r="A71" s="176" t="s">
         <v>144</v>
       </c>
       <c r="B71" s="101" t="s">
@@ -6612,7 +6877,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="169"/>
+      <c r="A72" s="175"/>
       <c r="B72" s="107" t="s">
         <v>141</v>
       </c>
@@ -6639,7 +6904,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="170" t="s">
+      <c r="A73" s="178" t="s">
         <v>145</v>
       </c>
       <c r="B73" s="104" t="s">
@@ -6668,7 +6933,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="171"/>
+      <c r="A74" s="179"/>
       <c r="B74" s="104" t="s">
         <v>141</v>
       </c>
@@ -6695,7 +6960,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="172" t="s">
+      <c r="A75" s="176" t="s">
         <v>146</v>
       </c>
       <c r="B75" s="101" t="s">
@@ -6724,7 +6989,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="169"/>
+      <c r="A76" s="175"/>
       <c r="B76" s="107" t="s">
         <v>141</v>
       </c>
@@ -6751,7 +7016,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="170" t="s">
+      <c r="A77" s="178" t="s">
         <v>147</v>
       </c>
       <c r="B77" s="104" t="s">
@@ -6780,7 +7045,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="171"/>
+      <c r="A78" s="179"/>
       <c r="B78" s="104" t="s">
         <v>141</v>
       </c>
@@ -6807,7 +7072,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="172" t="s">
+      <c r="A79" s="176" t="s">
         <v>148</v>
       </c>
       <c r="B79" s="101" t="s">
@@ -6836,7 +7101,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="169"/>
+      <c r="A80" s="175"/>
       <c r="B80" s="107" t="s">
         <v>141</v>
       </c>
@@ -6863,7 +7128,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="170" t="s">
+      <c r="A81" s="178" t="s">
         <v>149</v>
       </c>
       <c r="B81" s="104" t="s">
@@ -6892,7 +7157,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="173"/>
+      <c r="A82" s="180"/>
       <c r="B82" s="128" t="s">
         <v>141</v>
       </c>
@@ -6920,6 +7185,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A82"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -6930,11 +7200,6 @@
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A81:A82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6954,10 +7219,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568532B4-8586-4B07-A82E-C3B89C9AD92E}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:F48"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="L75" sqref="L75:M94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7002,13 +7267,13 @@
       <c r="E2" s="9">
         <v>4768</v>
       </c>
-      <c r="F2" s="175">
+      <c r="F2" s="141">
         <v>2686</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="176" t="s">
+      <c r="H2" s="142" t="s">
         <v>190</v>
       </c>
     </row>
@@ -7034,7 +7299,7 @@
       <c r="G3" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="176" t="s">
+      <c r="H3" s="142" t="s">
         <v>190</v>
       </c>
     </row>
@@ -7060,7 +7325,7 @@
       <c r="G4" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="H4" s="176" t="s">
+      <c r="H4" s="142" t="s">
         <v>190</v>
       </c>
     </row>
@@ -7086,7 +7351,7 @@
       <c r="G5" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="H5" s="176" t="s">
+      <c r="H5" s="142" t="s">
         <v>190</v>
       </c>
     </row>
@@ -7137,7 +7402,7 @@
       <c r="G8" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="H8" s="176" t="s">
+      <c r="H8" s="142" t="s">
         <v>192</v>
       </c>
     </row>
@@ -7163,7 +7428,7 @@
       <c r="G9" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="H9" s="176" t="s">
+      <c r="H9" s="142" t="s">
         <v>192</v>
       </c>
     </row>
@@ -7189,7 +7454,7 @@
       <c r="G10" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="H10" s="176" t="s">
+      <c r="H10" s="142" t="s">
         <v>192</v>
       </c>
     </row>
@@ -7215,7 +7480,7 @@
       <c r="G11" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="H11" s="176" t="s">
+      <c r="H11" s="142" t="s">
         <v>192</v>
       </c>
     </row>
@@ -7250,7 +7515,7 @@
       <c r="D14" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E14" s="176" t="s">
+      <c r="E14" s="142" t="s">
         <v>196</v>
       </c>
     </row>
@@ -7267,7 +7532,7 @@
       <c r="D15" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E15" s="176" t="s">
+      <c r="E15" s="142" t="s">
         <v>196</v>
       </c>
     </row>
@@ -7284,7 +7549,7 @@
       <c r="D16" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E16" s="176" t="s">
+      <c r="E16" s="142" t="s">
         <v>196</v>
       </c>
     </row>
@@ -7301,7 +7566,7 @@
       <c r="D17" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E17" s="176" t="s">
+      <c r="E17" s="142" t="s">
         <v>196</v>
       </c>
     </row>
@@ -7318,7 +7583,7 @@
       <c r="D18" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E18" s="176" t="s">
+      <c r="E18" s="142" t="s">
         <v>196</v>
       </c>
     </row>
@@ -7335,7 +7600,7 @@
       <c r="D19" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E19" s="176" t="s">
+      <c r="E19" s="142" t="s">
         <v>196</v>
       </c>
     </row>
@@ -7352,22 +7617,22 @@
       <c r="D20" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E20" s="176" t="s">
+      <c r="E20" s="142" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="163" t="s">
+      <c r="A22" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="180" t="s">
+      <c r="B22" s="181" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="D22" s="182" t="s">
+      <c r="D22" s="183" t="s">
         <v>199</v>
       </c>
       <c r="E22" s="11" t="s">
@@ -7378,16 +7643,16 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="164"/>
-      <c r="B23" s="181"/>
+      <c r="A23" s="170"/>
+      <c r="B23" s="182"/>
       <c r="C23" s="135" t="s">
         <v>198</v>
       </c>
-      <c r="D23" s="183"/>
+      <c r="D23" s="184"/>
       <c r="E23" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="176" t="s">
+      <c r="F23" s="142" t="s">
         <v>204</v>
       </c>
     </row>
@@ -7407,7 +7672,7 @@
       <c r="E24" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="176" t="s">
+      <c r="F24" s="142" t="s">
         <v>204</v>
       </c>
     </row>
@@ -7427,12 +7692,12 @@
       <c r="E25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="176" t="s">
+      <c r="F25" s="142" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="177"/>
+      <c r="A26" s="143"/>
       <c r="B26" s="7">
         <v>2014</v>
       </c>
@@ -7445,12 +7710,12 @@
       <c r="E26" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="176" t="s">
+      <c r="F26" s="142" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="178"/>
+      <c r="A27" s="144"/>
       <c r="B27" s="69">
         <v>2021</v>
       </c>
@@ -7463,12 +7728,12 @@
       <c r="E27" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="176" t="s">
+      <c r="F27" s="142" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="161" t="s">
+      <c r="A28" s="167" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="20">
@@ -7483,12 +7748,12 @@
       <c r="E28" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="176" t="s">
+      <c r="F28" s="142" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="148"/>
+      <c r="A29" s="160"/>
       <c r="B29" s="20">
         <v>2007</v>
       </c>
@@ -7501,12 +7766,12 @@
       <c r="E29" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="176" t="s">
+      <c r="F29" s="142" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="148"/>
+      <c r="A30" s="160"/>
       <c r="B30" s="20">
         <v>2014</v>
       </c>
@@ -7519,12 +7784,12 @@
       <c r="E30" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="176" t="s">
+      <c r="F30" s="142" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="162"/>
+      <c r="A31" s="168"/>
       <c r="B31" s="20">
         <v>2021</v>
       </c>
@@ -7537,12 +7802,12 @@
       <c r="E31" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="176" t="s">
+      <c r="F31" s="142" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="144" t="s">
+      <c r="A32" s="152" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="7">
@@ -7557,12 +7822,12 @@
       <c r="E32" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="176" t="s">
+      <c r="F32" s="142" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="145"/>
+      <c r="A33" s="153"/>
       <c r="B33" s="7">
         <v>2007</v>
       </c>
@@ -7575,12 +7840,12 @@
       <c r="E33" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="176" t="s">
+      <c r="F33" s="142" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="145"/>
+      <c r="A34" s="153"/>
       <c r="B34" s="7">
         <v>2014</v>
       </c>
@@ -7593,12 +7858,12 @@
       <c r="E34" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="176" t="s">
+      <c r="F34" s="142" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="160"/>
+      <c r="A35" s="166"/>
       <c r="B35" s="69">
         <v>2021</v>
       </c>
@@ -7611,12 +7876,12 @@
       <c r="E35" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="176" t="s">
+      <c r="F35" s="142" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="161" t="s">
+      <c r="A36" s="167" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="20">
@@ -7631,12 +7896,12 @@
       <c r="E36" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="176" t="s">
+      <c r="F36" s="142" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="148"/>
+      <c r="A37" s="160"/>
       <c r="B37" s="20">
         <v>2007</v>
       </c>
@@ -7649,12 +7914,12 @@
       <c r="E37" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="176" t="s">
+      <c r="F37" s="142" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="148"/>
+      <c r="A38" s="160"/>
       <c r="B38" s="20">
         <v>2014</v>
       </c>
@@ -7667,12 +7932,12 @@
       <c r="E38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="176" t="s">
+      <c r="F38" s="142" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="162"/>
+      <c r="A39" s="168"/>
       <c r="B39" s="20">
         <v>2021</v>
       </c>
@@ -7685,12 +7950,12 @@
       <c r="E39" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="176" t="s">
+      <c r="F39" s="142" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="144" t="s">
+      <c r="A40" s="152" t="s">
         <v>20</v>
       </c>
       <c r="B40" s="7">
@@ -7705,12 +7970,12 @@
       <c r="E40" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="176" t="s">
+      <c r="F40" s="142" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="145"/>
+      <c r="A41" s="153"/>
       <c r="B41" s="7">
         <v>2007</v>
       </c>
@@ -7723,12 +7988,12 @@
       <c r="E41" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="176" t="s">
+      <c r="F41" s="142" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="145"/>
+      <c r="A42" s="153"/>
       <c r="B42" s="7">
         <v>2014</v>
       </c>
@@ -7741,12 +8006,12 @@
       <c r="E42" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="176" t="s">
+      <c r="F42" s="142" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="145"/>
+      <c r="A43" s="153"/>
       <c r="B43" s="7">
         <v>2016</v>
       </c>
@@ -7759,12 +8024,12 @@
       <c r="E43" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="176" t="s">
+      <c r="F43" s="142" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="160"/>
+      <c r="A44" s="166"/>
       <c r="B44" s="69">
         <v>2021</v>
       </c>
@@ -7777,12 +8042,12 @@
       <c r="E44" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="176" t="s">
+      <c r="F44" s="142" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="161" t="s">
+      <c r="A45" s="167" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="20">
@@ -7797,16 +8062,16 @@
       <c r="E45" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="176" t="s">
+      <c r="F45" s="142" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="148"/>
+      <c r="A46" s="160"/>
       <c r="B46" s="20">
         <v>2007</v>
       </c>
-      <c r="C46" s="179" t="s">
+      <c r="C46" s="145" t="s">
         <v>202</v>
       </c>
       <c r="D46" s="21">
@@ -7815,16 +8080,16 @@
       <c r="E46" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="176" t="s">
+      <c r="F46" s="142" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="148"/>
+      <c r="A47" s="160"/>
       <c r="B47" s="20">
         <v>2014</v>
       </c>
-      <c r="C47" s="179" t="s">
+      <c r="C47" s="145" t="s">
         <v>203</v>
       </c>
       <c r="D47" s="21">
@@ -7833,12 +8098,12 @@
       <c r="E47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="176" t="s">
+      <c r="F47" s="142" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="149"/>
+      <c r="A48" s="161"/>
       <c r="B48" s="24">
         <v>2021</v>
       </c>
@@ -7851,8 +8116,1271 @@
       <c r="E48" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="176" t="s">
+      <c r="F48" s="142" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" s="119">
+        <v>5678</v>
+      </c>
+      <c r="C51" s="119">
+        <v>6183</v>
+      </c>
+      <c r="D51" s="119">
+        <v>5924</v>
+      </c>
+      <c r="E51" s="84">
+        <v>6403</v>
+      </c>
+      <c r="F51" s="120">
+        <v>5959</v>
+      </c>
+      <c r="G51" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H51" s="142" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="B52" s="185">
+        <v>75</v>
+      </c>
+      <c r="C52" s="86">
+        <v>75</v>
+      </c>
+      <c r="D52" s="86">
+        <v>75</v>
+      </c>
+      <c r="E52" s="86">
+        <v>75</v>
+      </c>
+      <c r="F52" s="137">
+        <v>75</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H52" s="142" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B53" s="119">
+        <v>9464</v>
+      </c>
+      <c r="C53" s="119">
+        <v>10305</v>
+      </c>
+      <c r="D53" s="119">
+        <v>9874</v>
+      </c>
+      <c r="E53" s="119">
+        <v>10672</v>
+      </c>
+      <c r="F53" s="120">
+        <v>9932</v>
+      </c>
+      <c r="G53" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H53" s="142" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="B54" s="119">
+        <v>4973</v>
+      </c>
+      <c r="C54" s="119">
+        <v>10229</v>
+      </c>
+      <c r="D54" s="119">
+        <v>9306</v>
+      </c>
+      <c r="E54" s="84">
+        <v>6223</v>
+      </c>
+      <c r="F54" s="120">
+        <v>8226</v>
+      </c>
+      <c r="G54" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H54" s="142" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="B55" s="8">
+        <v>22207</v>
+      </c>
+      <c r="C55" s="119">
+        <v>26792</v>
+      </c>
+      <c r="D55" s="119">
+        <v>25179</v>
+      </c>
+      <c r="E55" s="119">
+        <v>23373</v>
+      </c>
+      <c r="F55" s="68">
+        <v>24192</v>
+      </c>
+      <c r="G55" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H55" s="142" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56" s="121">
+        <v>245532</v>
+      </c>
+      <c r="C56" s="8">
+        <v>262640</v>
+      </c>
+      <c r="D56" s="8">
+        <v>252344</v>
+      </c>
+      <c r="E56" s="119">
+        <v>258139</v>
+      </c>
+      <c r="F56" s="68">
+        <v>302793</v>
+      </c>
+      <c r="G56" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H56" s="142" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="186">
+        <v>0.09</v>
+      </c>
+      <c r="C57" s="186">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D57" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="E57" s="187">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F57" s="139">
+        <v>0.08</v>
+      </c>
+      <c r="G57" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H57" s="142" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:8" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="8">
+        <v>31000000</v>
+      </c>
+      <c r="C60" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="D60" s="19">
+        <v>20150000</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="142" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="8">
+        <v>30000000</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="D61" s="19">
+        <v>27000000</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="142" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="8">
+        <v>131789</v>
+      </c>
+      <c r="C62" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="D62" s="19">
+        <v>26358</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="142" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="7">
+        <v>0</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" s="12">
+        <v>0</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" s="142" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="8">
+        <v>10000</v>
+      </c>
+      <c r="C64" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="D64" s="19">
+        <v>7200</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F64" s="142" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="B65" s="80">
+        <v>61141789</v>
+      </c>
+      <c r="C65" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="D65" s="50">
+        <v>47183558</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" s="142" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
+      <c r="B67" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C67" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E67" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F67" s="5">
+        <v>2021</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B68" s="119">
+        <v>4395</v>
+      </c>
+      <c r="C68" s="119">
+        <v>4704</v>
+      </c>
+      <c r="D68" s="119">
+        <v>9882</v>
+      </c>
+      <c r="E68" s="119">
+        <v>6633</v>
+      </c>
+      <c r="F68" s="68">
+        <v>3537</v>
+      </c>
+      <c r="G68" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="H68" s="142" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="B69" s="114">
+        <v>96</v>
+      </c>
+      <c r="C69" s="114">
+        <v>0</v>
+      </c>
+      <c r="D69" s="114">
+        <v>0</v>
+      </c>
+      <c r="E69" s="114">
+        <v>0</v>
+      </c>
+      <c r="F69" s="188">
+        <v>0</v>
+      </c>
+      <c r="G69" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="H69" s="142" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B70" s="119">
+        <v>4491</v>
+      </c>
+      <c r="C70" s="119">
+        <v>4704</v>
+      </c>
+      <c r="D70" s="119">
+        <v>9882</v>
+      </c>
+      <c r="E70" s="119">
+        <v>6633</v>
+      </c>
+      <c r="F70" s="68">
+        <v>3537</v>
+      </c>
+      <c r="G70" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="H70" s="142" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="B71" s="119">
+        <v>15935</v>
+      </c>
+      <c r="C71" s="119">
+        <v>8915</v>
+      </c>
+      <c r="D71" s="119">
+        <v>12901</v>
+      </c>
+      <c r="E71" s="119">
+        <v>11359</v>
+      </c>
+      <c r="F71" s="68">
+        <v>11512</v>
+      </c>
+      <c r="G71" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="H71" s="142" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="B72" s="186">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="C72" s="186">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="D72" s="186">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="E72" s="186">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="F72" s="189">
+        <v>0.307</v>
+      </c>
+      <c r="G72" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="H72" s="142" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:13" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="102"/>
+      <c r="B74" s="190" t="s">
+        <v>254</v>
+      </c>
+      <c r="C74" s="191" t="s">
+        <v>246</v>
+      </c>
+      <c r="D74" s="191" t="s">
+        <v>247</v>
+      </c>
+      <c r="E74" s="191" t="s">
+        <v>248</v>
+      </c>
+      <c r="F74" s="191" t="s">
+        <v>249</v>
+      </c>
+      <c r="G74" s="191" t="s">
+        <v>250</v>
+      </c>
+      <c r="H74" s="190" t="s">
+        <v>251</v>
+      </c>
+      <c r="I74" s="190" t="s">
+        <v>252</v>
+      </c>
+      <c r="J74" s="191" t="s">
+        <v>253</v>
+      </c>
+      <c r="K74" s="192" t="s">
+        <v>76</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="140" t="s">
+        <v>226</v>
+      </c>
+      <c r="B75" s="193"/>
+      <c r="C75" s="193"/>
+      <c r="D75" s="193"/>
+      <c r="E75" s="193"/>
+      <c r="F75" s="193"/>
+      <c r="G75" s="193"/>
+      <c r="H75" s="193"/>
+      <c r="I75" s="193"/>
+      <c r="J75" s="193"/>
+      <c r="K75" s="194"/>
+      <c r="L75" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="M75" s="142" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="B76" s="195">
+        <v>1226</v>
+      </c>
+      <c r="C76" s="114">
+        <v>451</v>
+      </c>
+      <c r="D76" s="114">
+        <v>195</v>
+      </c>
+      <c r="E76" s="114">
+        <v>130</v>
+      </c>
+      <c r="F76" s="114">
+        <v>77</v>
+      </c>
+      <c r="G76" s="114">
+        <v>332</v>
+      </c>
+      <c r="H76" s="114">
+        <v>22</v>
+      </c>
+      <c r="I76" s="114">
+        <v>37</v>
+      </c>
+      <c r="J76" s="114">
+        <v>0</v>
+      </c>
+      <c r="K76" s="188">
+        <v>514</v>
+      </c>
+      <c r="L76" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="M76" s="142" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B77" s="195">
+        <v>1399</v>
+      </c>
+      <c r="C77" s="114">
+        <v>463</v>
+      </c>
+      <c r="D77" s="114">
+        <v>150</v>
+      </c>
+      <c r="E77" s="114">
+        <v>65</v>
+      </c>
+      <c r="F77" s="114">
+        <v>102</v>
+      </c>
+      <c r="G77" s="114">
+        <v>580</v>
+      </c>
+      <c r="H77" s="114">
+        <v>0</v>
+      </c>
+      <c r="I77" s="114">
+        <v>63</v>
+      </c>
+      <c r="J77" s="114">
+        <v>17</v>
+      </c>
+      <c r="K77" s="188">
+        <v>321</v>
+      </c>
+      <c r="L77" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="M77" s="142" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="B78" s="114">
+        <v>879</v>
+      </c>
+      <c r="C78" s="114">
+        <v>170</v>
+      </c>
+      <c r="D78" s="114">
+        <v>92</v>
+      </c>
+      <c r="E78" s="114">
+        <v>10</v>
+      </c>
+      <c r="F78" s="114">
+        <v>127</v>
+      </c>
+      <c r="G78" s="114">
+        <v>366</v>
+      </c>
+      <c r="H78" s="114">
+        <v>6</v>
+      </c>
+      <c r="I78" s="114">
+        <v>19</v>
+      </c>
+      <c r="J78" s="114">
+        <v>13</v>
+      </c>
+      <c r="K78" s="188">
+        <v>289</v>
+      </c>
+      <c r="L78" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="M78" s="142" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="B79" s="195">
+        <v>1366</v>
+      </c>
+      <c r="C79" s="114">
+        <v>202</v>
+      </c>
+      <c r="D79" s="114">
+        <v>169</v>
+      </c>
+      <c r="E79" s="114">
+        <v>73</v>
+      </c>
+      <c r="F79" s="114">
+        <v>119</v>
+      </c>
+      <c r="G79" s="114">
+        <v>478</v>
+      </c>
+      <c r="H79" s="114">
+        <v>80</v>
+      </c>
+      <c r="I79" s="114">
+        <v>64</v>
+      </c>
+      <c r="J79" s="114">
+        <v>7</v>
+      </c>
+      <c r="K79" s="188">
+        <v>370</v>
+      </c>
+      <c r="L79" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="M79" s="142" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="B80" s="117">
+        <v>519</v>
+      </c>
+      <c r="C80" s="117">
+        <v>88</v>
+      </c>
+      <c r="D80" s="117">
+        <v>18</v>
+      </c>
+      <c r="E80" s="117">
+        <v>5</v>
+      </c>
+      <c r="F80" s="117">
+        <v>13</v>
+      </c>
+      <c r="G80" s="69">
+        <v>11</v>
+      </c>
+      <c r="H80" s="117">
+        <v>0</v>
+      </c>
+      <c r="I80" s="117">
+        <v>0</v>
+      </c>
+      <c r="J80" s="117">
+        <v>9</v>
+      </c>
+      <c r="K80" s="63">
+        <v>39</v>
+      </c>
+      <c r="L80" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="M80" s="142" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="140" t="s">
+        <v>232</v>
+      </c>
+      <c r="B81" s="193"/>
+      <c r="C81" s="193"/>
+      <c r="D81" s="193"/>
+      <c r="E81" s="193"/>
+      <c r="F81" s="193"/>
+      <c r="G81" s="193"/>
+      <c r="H81" s="193"/>
+      <c r="I81" s="193"/>
+      <c r="J81" s="193"/>
+      <c r="K81" s="194"/>
+      <c r="L81" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="M81" s="142" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="B82" s="195">
+        <v>1226</v>
+      </c>
+      <c r="C82" s="114">
+        <v>451</v>
+      </c>
+      <c r="D82" s="114">
+        <v>195</v>
+      </c>
+      <c r="E82" s="114">
+        <v>130</v>
+      </c>
+      <c r="F82" s="114">
+        <v>77</v>
+      </c>
+      <c r="G82" s="114">
+        <v>332</v>
+      </c>
+      <c r="H82" s="114">
+        <v>22</v>
+      </c>
+      <c r="I82" s="114">
+        <v>37</v>
+      </c>
+      <c r="J82" s="114">
+        <v>0</v>
+      </c>
+      <c r="K82" s="188">
+        <v>514</v>
+      </c>
+      <c r="L82" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="M82" s="142" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="B83" s="196">
+        <v>4162</v>
+      </c>
+      <c r="C83" s="117">
+        <v>923</v>
+      </c>
+      <c r="D83" s="117">
+        <v>429</v>
+      </c>
+      <c r="E83" s="117">
+        <v>154</v>
+      </c>
+      <c r="F83" s="117">
+        <v>361</v>
+      </c>
+      <c r="G83" s="196">
+        <v>1435</v>
+      </c>
+      <c r="H83" s="117">
+        <v>87</v>
+      </c>
+      <c r="I83" s="117">
+        <v>145</v>
+      </c>
+      <c r="J83" s="117">
+        <v>46</v>
+      </c>
+      <c r="K83" s="197">
+        <v>1019</v>
+      </c>
+      <c r="L83" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="M83" s="142" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="140" t="s">
+        <v>235</v>
+      </c>
+      <c r="B84" s="193"/>
+      <c r="C84" s="193"/>
+      <c r="D84" s="193"/>
+      <c r="E84" s="193"/>
+      <c r="F84" s="193"/>
+      <c r="G84" s="193"/>
+      <c r="H84" s="193"/>
+      <c r="I84" s="193"/>
+      <c r="J84" s="193"/>
+      <c r="K84" s="194"/>
+      <c r="L84" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="M84" s="142" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="B85" s="121">
+        <v>5254</v>
+      </c>
+      <c r="C85" s="8">
+        <v>1353</v>
+      </c>
+      <c r="D85" s="114">
+        <v>610</v>
+      </c>
+      <c r="E85" s="114">
+        <v>284</v>
+      </c>
+      <c r="F85" s="114">
+        <v>438</v>
+      </c>
+      <c r="G85" s="114">
+        <v>673</v>
+      </c>
+      <c r="H85" s="114">
+        <v>109</v>
+      </c>
+      <c r="I85" s="114">
+        <v>182</v>
+      </c>
+      <c r="J85" s="114">
+        <v>46</v>
+      </c>
+      <c r="K85" s="198">
+        <v>1277</v>
+      </c>
+      <c r="L85" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="M85" s="142" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="B86" s="117">
+        <v>135</v>
+      </c>
+      <c r="C86" s="117">
+        <v>21</v>
+      </c>
+      <c r="D86" s="117">
+        <v>14</v>
+      </c>
+      <c r="E86" s="117">
+        <v>0</v>
+      </c>
+      <c r="F86" s="117">
+        <v>0</v>
+      </c>
+      <c r="G86" s="196">
+        <v>1094</v>
+      </c>
+      <c r="H86" s="117">
+        <v>0</v>
+      </c>
+      <c r="I86" s="117">
+        <v>0</v>
+      </c>
+      <c r="J86" s="117">
+        <v>0</v>
+      </c>
+      <c r="K86" s="199">
+        <v>256</v>
+      </c>
+      <c r="L86" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="M86" s="142" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="140" t="s">
+        <v>238</v>
+      </c>
+      <c r="B87" s="193"/>
+      <c r="C87" s="193"/>
+      <c r="D87" s="193"/>
+      <c r="E87" s="193"/>
+      <c r="F87" s="193"/>
+      <c r="G87" s="193"/>
+      <c r="H87" s="193"/>
+      <c r="I87" s="193"/>
+      <c r="J87" s="193"/>
+      <c r="K87" s="194"/>
+      <c r="L87" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="M87" s="142" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="B88" s="62">
+        <v>193</v>
+      </c>
+      <c r="C88" s="114">
+        <v>155</v>
+      </c>
+      <c r="D88" s="114">
+        <v>0</v>
+      </c>
+      <c r="E88" s="114">
+        <v>0</v>
+      </c>
+      <c r="F88" s="114">
+        <v>14</v>
+      </c>
+      <c r="G88" s="114">
+        <v>155</v>
+      </c>
+      <c r="H88" s="114">
+        <v>0</v>
+      </c>
+      <c r="I88" s="114">
+        <v>0</v>
+      </c>
+      <c r="J88" s="114">
+        <v>0</v>
+      </c>
+      <c r="K88" s="188">
+        <v>129</v>
+      </c>
+      <c r="L88" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="M88" s="142" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="B89" s="114">
+        <v>310</v>
+      </c>
+      <c r="C89" s="114">
+        <v>40</v>
+      </c>
+      <c r="D89" s="114">
+        <v>0</v>
+      </c>
+      <c r="E89" s="114">
+        <v>17</v>
+      </c>
+      <c r="F89" s="114">
+        <v>0</v>
+      </c>
+      <c r="G89" s="7">
+        <v>87</v>
+      </c>
+      <c r="H89" s="114">
+        <v>0</v>
+      </c>
+      <c r="I89" s="114">
+        <v>0</v>
+      </c>
+      <c r="J89" s="114">
+        <v>0</v>
+      </c>
+      <c r="K89" s="200">
+        <v>92</v>
+      </c>
+      <c r="L89" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="M89" s="142" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="B90" s="195">
+        <v>4668</v>
+      </c>
+      <c r="C90" s="195">
+        <v>1088</v>
+      </c>
+      <c r="D90" s="114">
+        <v>616</v>
+      </c>
+      <c r="E90" s="114">
+        <v>267</v>
+      </c>
+      <c r="F90" s="114">
+        <v>424</v>
+      </c>
+      <c r="G90" s="195">
+        <v>1446</v>
+      </c>
+      <c r="H90" s="114">
+        <v>96</v>
+      </c>
+      <c r="I90" s="114">
+        <v>182</v>
+      </c>
+      <c r="J90" s="114">
+        <v>46</v>
+      </c>
+      <c r="K90" s="198">
+        <v>1268</v>
+      </c>
+      <c r="L90" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="M90" s="142" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="B91" s="117">
+        <v>217</v>
+      </c>
+      <c r="C91" s="117">
+        <v>92</v>
+      </c>
+      <c r="D91" s="117">
+        <v>8</v>
+      </c>
+      <c r="E91" s="117">
+        <v>0</v>
+      </c>
+      <c r="F91" s="117">
+        <v>0</v>
+      </c>
+      <c r="G91" s="69">
+        <v>78</v>
+      </c>
+      <c r="H91" s="117">
+        <v>13</v>
+      </c>
+      <c r="I91" s="117">
+        <v>0</v>
+      </c>
+      <c r="J91" s="117">
+        <v>0</v>
+      </c>
+      <c r="K91" s="63">
+        <v>44</v>
+      </c>
+      <c r="L91" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="M91" s="142" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="140" t="s">
+        <v>243</v>
+      </c>
+      <c r="B92" s="193"/>
+      <c r="C92" s="193"/>
+      <c r="D92" s="193"/>
+      <c r="E92" s="193"/>
+      <c r="F92" s="193"/>
+      <c r="G92" s="193"/>
+      <c r="H92" s="193"/>
+      <c r="I92" s="193"/>
+      <c r="J92" s="193"/>
+      <c r="K92" s="194"/>
+      <c r="L92" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="M92" s="142" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="B93" s="62">
+        <v>161</v>
+      </c>
+      <c r="C93" s="114">
+        <v>39</v>
+      </c>
+      <c r="D93" s="114">
+        <v>4</v>
+      </c>
+      <c r="E93" s="114">
+        <v>0</v>
+      </c>
+      <c r="F93" s="114">
+        <v>0</v>
+      </c>
+      <c r="G93" s="114">
+        <v>60</v>
+      </c>
+      <c r="H93" s="114">
+        <v>0</v>
+      </c>
+      <c r="I93" s="114">
+        <v>0</v>
+      </c>
+      <c r="J93" s="114">
+        <v>0</v>
+      </c>
+      <c r="K93" s="188">
+        <v>23</v>
+      </c>
+      <c r="L93" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="M93" s="142" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="72" t="s">
+        <v>245</v>
+      </c>
+      <c r="B94" s="196">
+        <v>5227</v>
+      </c>
+      <c r="C94" s="196">
+        <v>1336</v>
+      </c>
+      <c r="D94" s="117">
+        <v>619</v>
+      </c>
+      <c r="E94" s="117">
+        <v>284</v>
+      </c>
+      <c r="F94" s="117">
+        <v>438</v>
+      </c>
+      <c r="G94" s="196">
+        <v>1707</v>
+      </c>
+      <c r="H94" s="117">
+        <v>109</v>
+      </c>
+      <c r="I94" s="117">
+        <v>182</v>
+      </c>
+      <c r="J94" s="117">
+        <v>46</v>
+      </c>
+      <c r="K94" s="197">
+        <v>1511</v>
+      </c>
+      <c r="L94" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="M94" s="142" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Raw/Manually_Collected_Data.xlsx
+++ b/Data_Raw/Manually_Collected_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamesh\GIT\Benefish_Data_Collection\Data_Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA73669B-93BD-45CF-AACA-BB98D36C86E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83F70B1-6FF3-4932-AF63-46074587226A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="913" activeTab="6" xr2:uid="{DADAB8C2-813A-4B64-AE11-C65CAFCECFBF}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="25760" windowHeight="15560" tabRatio="913" activeTab="10" xr2:uid="{DADAB8C2-813A-4B64-AE11-C65CAFCECFBF}"/>
   </bookViews>
   <sheets>
     <sheet name="American_Samoa" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="398">
   <si>
     <t>Live fish</t>
   </si>
@@ -836,6 +836,698 @@
   </si>
   <si>
     <t>9-4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2018 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FFFFFEFD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2019 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FFFFFEFD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2020 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FFFFFEFD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <t>Informal sector fishing for cash sales</t>
+  </si>
+  <si>
+    <t>Seaweed growers</t>
+  </si>
+  <si>
+    <t>Informal sector fishing for subsistence</t>
+  </si>
+  <si>
+    <t>Formal sector fishing</t>
+  </si>
+  <si>
+    <t>Total fishing contribution</t>
+  </si>
+  <si>
+    <t>Kiribati GDP at market prices</t>
+  </si>
+  <si>
+    <t>Fishing contribution to GDP (A$ thousands)</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gross value  of production </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFFFEFD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(A$)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Value added </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFFFEFD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(A$)</t>
+    </r>
+  </si>
+  <si>
+    <t>----</t>
+  </si>
+  <si>
+    <t>9-6</t>
+  </si>
+  <si>
+    <t>9-7</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Total fishery exports</t>
+  </si>
+  <si>
+    <t>Total direct exports</t>
+  </si>
+  <si>
+    <t>Fishery exports as % of all direct exports</t>
+  </si>
+  <si>
+    <t>Fishery exports of Kiribati (thousands of A$)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strata </t>
+  </si>
+  <si>
+    <t>South Tarawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line Is. &amp; Phoenix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban/Rural </t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rural </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sex </t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age group </t>
+  </si>
+  <si>
+    <t>5–14 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15–17 years </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18–59 years </t>
+  </si>
+  <si>
+    <t xml:space="preserve">60+ years </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disability status </t>
+  </si>
+  <si>
+    <t>With disability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Without disability </t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>Handline</t>
+  </si>
+  <si>
+    <t>Trolling</t>
+  </si>
+  <si>
+    <t>Night Spear</t>
+  </si>
+  <si>
+    <t>Day Spear</t>
+  </si>
+  <si>
+    <t>Gleaning</t>
+  </si>
+  <si>
+    <t>Trap</t>
+  </si>
+  <si>
+    <t>Dive</t>
+  </si>
+  <si>
+    <t>Scuba</t>
+  </si>
+  <si>
+    <t>The number of people aged 5 and above participating in various types of fishing</t>
+  </si>
+  <si>
+    <t>9-8</t>
+  </si>
+  <si>
+    <t>Marshall Islands flagged purse seine catch (t)</t>
+  </si>
+  <si>
+    <t>Marshall Islands chartered longline catch (t)</t>
+  </si>
+  <si>
+    <t>Catches of the Majuro-based offshore vessels</t>
+  </si>
+  <si>
+    <t>10-1</t>
+  </si>
+  <si>
+    <t>Pole/line</t>
+  </si>
+  <si>
+    <t>Foreign-based vessels licensed to fish in the Marshall Islands exclusive economic zone (EEZ)</t>
+  </si>
+  <si>
+    <t>10-2</t>
+  </si>
+  <si>
+    <t>Foreign purse seine catch (t)</t>
+  </si>
+  <si>
+    <t>Foreign longline catch (t)</t>
+  </si>
+  <si>
+    <t>Foreign pole/line catch (t)</t>
+  </si>
+  <si>
+    <t>Catches of foreign-based offshore vessels</t>
+  </si>
+  <si>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>10-5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Volume </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFFFEFD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(t and pcs, where indicated)</t>
+    </r>
+  </si>
+  <si>
+    <t>2,3 t and 22,000 pcs</t>
+  </si>
+  <si>
+    <t>137,833 t and 22,000 pcs</t>
+  </si>
+  <si>
+    <t>Annual fisheries and aquaculture harvest in Marshall Islands in 2021</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nominal value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFFFEFD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(US$)</t>
+    </r>
+  </si>
+  <si>
+    <t>25,000 pcs</t>
+  </si>
+  <si>
+    <t>10,000 pcs</t>
+  </si>
+  <si>
+    <t>22,000 pcs and 2.3 t</t>
+  </si>
+  <si>
+    <t>FY 2019</t>
+  </si>
+  <si>
+    <t>FY 2020</t>
+  </si>
+  <si>
+    <t>FY 2021</t>
+  </si>
+  <si>
+    <t>Fishing contribution</t>
+  </si>
+  <si>
+    <t>Marshall Islands GDP at purchaser’s price</t>
+  </si>
+  <si>
+    <t>Fishing contribution to GDP (US$ millions)</t>
+  </si>
+  <si>
+    <t>10-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross value of production </t>
+  </si>
+  <si>
+    <t>(US$, from Table 10-4)</t>
+  </si>
+  <si>
+    <t>(US$)</t>
+  </si>
+  <si>
+    <t>10-7</t>
+  </si>
+  <si>
+    <t>Exports of goods</t>
+  </si>
+  <si>
+    <t>Exports of fish</t>
+  </si>
+  <si>
+    <t>Fish as a % of all exports</t>
+  </si>
+  <si>
+    <t>Fish exports of the Marshall Islands (US$ millions)</t>
+  </si>
+  <si>
+    <t>10-8</t>
+  </si>
+  <si>
+    <t>Live aquarium fish</t>
+  </si>
+  <si>
+    <t>Invertebrates</t>
+  </si>
+  <si>
+    <t>Giant clams</t>
+  </si>
+  <si>
+    <t>Corals</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Marshall Islands exports of aquarium products</t>
+  </si>
+  <si>
+    <t>10-9</t>
+  </si>
+  <si>
+    <t>VDS revenue</t>
+  </si>
+  <si>
+    <t>Fishing rights</t>
+  </si>
+  <si>
+    <t>Licensing/registration</t>
+  </si>
+  <si>
+    <t>Access fees received by MIMRA (US$)</t>
+  </si>
+  <si>
+    <t>10-10</t>
+  </si>
+  <si>
+    <t>Observer fees</t>
+  </si>
+  <si>
+    <t>Transshipment fees</t>
+  </si>
+  <si>
+    <t>Fishing violations</t>
+  </si>
+  <si>
+    <t>Boat charter fees</t>
+  </si>
+  <si>
+    <t>Non-access revenue received by MIMRA (US$)</t>
+  </si>
+  <si>
+    <t>10-11</t>
+  </si>
+  <si>
+    <t>Selling unit</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Estimated price  per kg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFFFEFD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(A$)</t>
+    </r>
+  </si>
+  <si>
+    <t>Finfish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per string </t>
+  </si>
+  <si>
+    <t>Tuna (to local people)</t>
+  </si>
+  <si>
+    <t>Per kg</t>
+  </si>
+  <si>
+    <t>Tuna (to Chinese restaurants)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All fish </t>
+  </si>
+  <si>
+    <t>Periwinkle</t>
+  </si>
+  <si>
+    <t>Per 10 kg sack</t>
+  </si>
+  <si>
+    <t>Crab</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>Lobster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individual </t>
+  </si>
+  <si>
+    <t>2021 fish prices in Nauru</t>
+  </si>
+  <si>
+    <t>11-1</t>
+  </si>
+  <si>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>11-5</t>
+  </si>
+  <si>
+    <t>Purse seiner</t>
+  </si>
+  <si>
+    <t>Tanker</t>
+  </si>
+  <si>
+    <t>0–500 GRT</t>
+  </si>
+  <si>
+    <t>501–1000 GRT</t>
+  </si>
+  <si>
+    <t>1001–1500 GRT</t>
+  </si>
+  <si>
+    <t>1500+  GRT</t>
+  </si>
+  <si>
+    <t>7 (PS) 2 (TK)</t>
+  </si>
+  <si>
+    <t>8 (PS)</t>
+  </si>
+  <si>
+    <t>4 (PS) 2 (TK)</t>
+  </si>
+  <si>
+    <t>11 (PS) 2 (TK)</t>
+  </si>
+  <si>
+    <t>National fleet structure in 2021</t>
+  </si>
+  <si>
+    <t>11-2</t>
+  </si>
+  <si>
+    <t>Vessels</t>
+  </si>
+  <si>
+    <t>Trips</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Species (t)</t>
+  </si>
+  <si>
+    <t>At sea</t>
+  </si>
+  <si>
+    <t>Fishing</t>
+  </si>
+  <si>
+    <t>Catch and effort of Nauru’s national fleet in the Convention Area</t>
+  </si>
+  <si>
+    <t>Foreign fleet catches in Nauru’s EEZ (t)</t>
+  </si>
+  <si>
+    <t>11-4</t>
+  </si>
+  <si>
+    <t>11-8</t>
+  </si>
+  <si>
+    <r>
+      <t>Volume</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFFFEFD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (t)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFFFEFD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(A$)</t>
+    </r>
+  </si>
+  <si>
+    <t>Annual fisheries and aquaculture harvest in Nauru in 2021</t>
+  </si>
+  <si>
+    <t>11-7</t>
+  </si>
+  <si>
+    <t>11-6</t>
+  </si>
+  <si>
+    <t>Fishing contribution to GDP  (millions of A$)</t>
+  </si>
+  <si>
+    <t>GDP at current prices  (millions of A$)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fishing contribution to GDP </t>
+  </si>
+  <si>
+    <t>(A$, from Table 11-5)</t>
+  </si>
+  <si>
+    <t>Total (A$)</t>
+  </si>
+  <si>
+    <t>Financial years</t>
+  </si>
+  <si>
+    <t>2017/18</t>
+  </si>
+  <si>
+    <t>2018/19</t>
+  </si>
+  <si>
+    <t>2019/20</t>
+  </si>
+  <si>
+    <t>2020/21</t>
+  </si>
+  <si>
+    <t>2021/22</t>
+  </si>
+  <si>
+    <t>1055 - Support  vessel charges</t>
+  </si>
+  <si>
+    <t>1071 - Purse seine  revenue - licensing</t>
+  </si>
+  <si>
+    <t>1072 - Purse seine  revenue - fishing days</t>
+  </si>
+  <si>
+    <t>Total access revenue</t>
+  </si>
+  <si>
+    <t>Total government revenue</t>
+  </si>
+  <si>
+    <t>Percent fisheries revenue  of total government revenue</t>
+  </si>
+  <si>
+    <t>Nauru’s access fees (A$)</t>
+  </si>
+  <si>
+    <t>11-9</t>
+  </si>
+  <si>
+    <t>Nauruan</t>
+  </si>
+  <si>
+    <t>I-Kiribati</t>
+  </si>
+  <si>
+    <t>Tuvaluan</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Fijian</t>
+  </si>
+  <si>
+    <t>Australian</t>
+  </si>
+  <si>
+    <t>Other  nationality</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Employment in the formal marine fishing sector in Nauru</t>
+  </si>
+  <si>
+    <t>11-10</t>
+  </si>
+  <si>
+    <t>Type of fish consumed</t>
+  </si>
+  <si>
+    <t>Number of households reported eating the fish</t>
+  </si>
+  <si>
+    <t>LOCAL: Reef fish (trevally, parrot, emperor, snapper, surgeon etc.;  fresh or frozen)</t>
+  </si>
+  <si>
+    <t>LOCAL: Pelagic fish and bottom fish (tuna, wahoo, mahi mahi, shark, snapper etc.; locally produced caught)</t>
+  </si>
+  <si>
+    <t>LOCAL: Other seafood (e.g. dried or smoked fish; locally produced)</t>
+  </si>
+  <si>
+    <t>LOCAL: Invertebrates (crabs, octopus, clams etc.; locally produced)</t>
+  </si>
+  <si>
+    <t>IMPORTED: Canned/tinned fish (tuna, mackerel, sardine etc.; imported)</t>
+  </si>
+  <si>
+    <t>IMPORTED: Frozen seafood (frozen fish, frozen seafood; produced overseas)</t>
+  </si>
+  <si>
+    <t>Consumption of fishery products on Nauru in 2019 according to the Nauru Bureau of Statistics</t>
+  </si>
+  <si>
+    <t>11-11</t>
   </si>
 </sst>
 </file>
@@ -931,7 +1623,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -950,8 +1642,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5E3E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="45">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -1491,11 +2189,246 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF8A8B8B"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF8A8B8B"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF6C6D6D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF6C6D6D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF009EE3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF6C6D6D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF6C6D6D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF009EE3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF009EE3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF009EE3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF6C6D6D"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF009EE3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF009EE3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF6C6D6D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF8A8B8B"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF8A8B8B"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF6C6D6D"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF6C6D6D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF009EE3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF8A8B8B"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF8A8B8B"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF8A8B8B"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF8A8B8B"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF8A8B8B"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF8A8B8B"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF8A8B8B"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF8A8B8B"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFEFD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFEFD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF181717"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF8A8B8B"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFEFD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF181717"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF8A8B8B"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF181717"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF8A8B8B"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFEFD"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF6C6D6D"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFEFD"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF8A8B8B"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFEFD"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF6C6D6D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF6C6D6D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFEFD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF6C6D6D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFEFD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF6C6D6D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFEFD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF6C6D6D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF6C6D6D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFEFD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1908,111 +2841,6 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -2026,6 +2854,163 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2036,6 +3021,144 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2398,7 +3521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85B7440-200D-4365-B478-6E82DD36A6D3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -2506,7 +3631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5974B58-0383-40AC-91F3-3DBA67089942}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E71" sqref="E71:F71"/>
     </sheetView>
   </sheetViews>
@@ -2833,7 +3958,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="177" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="7">
@@ -2853,7 +3978,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="155"/>
+      <c r="A15" s="178"/>
       <c r="B15" s="7">
         <v>2007</v>
       </c>
@@ -2871,7 +3996,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="155"/>
+      <c r="A16" s="178"/>
       <c r="B16" s="7">
         <v>2014</v>
       </c>
@@ -2889,7 +4014,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="156"/>
+      <c r="A17" s="179"/>
       <c r="B17" s="7">
         <v>2021</v>
       </c>
@@ -2907,7 +4032,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="157" t="s">
+      <c r="A18" s="180" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="20">
@@ -2927,7 +4052,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="158"/>
+      <c r="A19" s="181"/>
       <c r="B19" s="20">
         <v>2007</v>
       </c>
@@ -2945,7 +4070,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="158"/>
+      <c r="A20" s="181"/>
       <c r="B20" s="20">
         <v>2014</v>
       </c>
@@ -2963,7 +4088,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="159"/>
+      <c r="A21" s="182"/>
       <c r="B21" s="20">
         <v>2021</v>
       </c>
@@ -2981,7 +4106,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="144" t="s">
+      <c r="A22" s="167" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="7">
@@ -3001,7 +4126,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="145"/>
+      <c r="A23" s="168"/>
       <c r="B23" s="7">
         <v>2007</v>
       </c>
@@ -3019,7 +4144,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="145"/>
+      <c r="A24" s="168"/>
       <c r="B24" s="7">
         <v>2014</v>
       </c>
@@ -3037,7 +4162,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="146"/>
+      <c r="A25" s="169"/>
       <c r="B25" s="7">
         <v>2021</v>
       </c>
@@ -3055,7 +4180,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="157" t="s">
+      <c r="A26" s="180" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="20">
@@ -3075,7 +4200,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="158"/>
+      <c r="A27" s="181"/>
       <c r="B27" s="20">
         <v>2007</v>
       </c>
@@ -3093,7 +4218,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="158"/>
+      <c r="A28" s="181"/>
       <c r="B28" s="20">
         <v>2014</v>
       </c>
@@ -3111,7 +4236,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="159"/>
+      <c r="A29" s="182"/>
       <c r="B29" s="20">
         <v>2021</v>
       </c>
@@ -3129,7 +4254,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="144" t="s">
+      <c r="A30" s="167" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="7">
@@ -3149,7 +4274,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="145"/>
+      <c r="A31" s="168"/>
       <c r="B31" s="7">
         <v>2007</v>
       </c>
@@ -3167,7 +4292,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="145"/>
+      <c r="A32" s="168"/>
       <c r="B32" s="7">
         <v>2014</v>
       </c>
@@ -3185,7 +4310,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="146"/>
+      <c r="A33" s="169"/>
       <c r="B33" s="7">
         <v>2021</v>
       </c>
@@ -3203,7 +4328,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="147" t="s">
+      <c r="A34" s="170" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="20">
@@ -3223,7 +4348,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="148"/>
+      <c r="A35" s="171"/>
       <c r="B35" s="20">
         <v>2007</v>
       </c>
@@ -3241,7 +4366,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="148"/>
+      <c r="A36" s="171"/>
       <c r="B36" s="20">
         <v>2014</v>
       </c>
@@ -3259,7 +4384,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="149"/>
+      <c r="A37" s="172"/>
       <c r="B37" s="24">
         <v>2021</v>
       </c>
@@ -3301,7 +4426,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>9</v>
       </c>
@@ -3327,7 +4452,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>10</v>
       </c>
@@ -3351,7 +4476,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>11</v>
       </c>
@@ -3405,7 +4530,7 @@
       <c r="G44" s="30"/>
       <c r="H44" s="31"/>
     </row>
-    <row r="45" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="40" t="s">
         <v>38</v>
       </c>
@@ -3423,7 +4548,7 @@
       <c r="G45" s="30"/>
       <c r="H45" s="31"/>
     </row>
-    <row r="46" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="40" t="s">
         <v>39</v>
       </c>
@@ -3441,7 +4566,7 @@
       <c r="G46" s="30"/>
       <c r="H46" s="31"/>
     </row>
-    <row r="47" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="40" t="s">
         <v>40</v>
       </c>
@@ -3477,7 +4602,7 @@
       <c r="G48" s="30"/>
       <c r="H48" s="31"/>
     </row>
-    <row r="49" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="42" t="s">
         <v>41</v>
       </c>
@@ -3506,13 +4631,13 @@
       <c r="H50" s="31"/>
     </row>
     <row r="51" spans="1:10" ht="24" x14ac:dyDescent="0.25">
-      <c r="A51" s="150" t="s">
+      <c r="A51" s="173" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="152" t="s">
+      <c r="C51" s="175" t="s">
         <v>45</v>
       </c>
       <c r="D51" s="47" t="s">
@@ -3528,11 +4653,11 @@
       <c r="H51" s="31"/>
     </row>
     <row r="52" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="151"/>
+      <c r="A52" s="174"/>
       <c r="B52" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="153"/>
+      <c r="C52" s="176"/>
       <c r="D52" s="48" t="s">
         <v>47</v>
       </c>
@@ -3545,7 +4670,7 @@
       <c r="G52" s="30"/>
       <c r="H52" s="31"/>
     </row>
-    <row r="53" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="49" t="s">
         <v>16</v>
       </c>
@@ -3567,7 +4692,7 @@
       <c r="G53" s="30"/>
       <c r="H53" s="31"/>
     </row>
-    <row r="54" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="49" t="s">
         <v>48</v>
       </c>
@@ -3589,7 +4714,7 @@
       <c r="G54" s="30"/>
       <c r="H54" s="31"/>
     </row>
-    <row r="55" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="49" t="s">
         <v>18</v>
       </c>
@@ -3633,7 +4758,7 @@
       <c r="G56" s="30"/>
       <c r="H56" s="31"/>
     </row>
-    <row r="57" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="49" t="s">
         <v>49</v>
       </c>
@@ -4028,7 +5153,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>56</v>
       </c>
@@ -4048,7 +5173,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>57</v>
       </c>
@@ -4068,7 +5193,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>58</v>
       </c>
@@ -4139,7 +5264,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>65</v>
       </c>
@@ -4165,7 +5290,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>66</v>
       </c>
@@ -4191,7 +5316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>67</v>
       </c>
@@ -4221,19 +5346,19 @@
       <c r="A81" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B81" s="140">
+      <c r="B81" s="163">
         <v>0.248</v>
       </c>
-      <c r="C81" s="140">
+      <c r="C81" s="163">
         <v>0.08</v>
       </c>
-      <c r="D81" s="140">
+      <c r="D81" s="163">
         <v>0.152</v>
       </c>
-      <c r="E81" s="140">
+      <c r="E81" s="163">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F81" s="142">
+      <c r="F81" s="165">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G81" s="30" t="s">
@@ -4247,11 +5372,11 @@
       <c r="A82" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B82" s="141"/>
-      <c r="C82" s="141"/>
-      <c r="D82" s="141"/>
-      <c r="E82" s="141"/>
-      <c r="F82" s="143"/>
+      <c r="B82" s="164"/>
+      <c r="C82" s="164"/>
+      <c r="D82" s="164"/>
+      <c r="E82" s="164"/>
+      <c r="F82" s="166"/>
       <c r="G82" s="30" t="s">
         <v>70</v>
       </c>
@@ -4387,7 +5512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E629DCA-6F5D-43FC-A242-B121366FCBB1}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="I28" sqref="I27:I28"/>
     </sheetView>
   </sheetViews>
@@ -4471,7 +5596,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="36" x14ac:dyDescent="0.25">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="186" t="s">
         <v>156</v>
       </c>
       <c r="B5" s="46" t="s">
@@ -4488,7 +5613,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="164"/>
+      <c r="A6" s="187"/>
       <c r="B6" s="135" t="s">
         <v>158</v>
       </c>
@@ -4589,10 +5714,10 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="165" t="s">
+      <c r="A13" s="188" t="s">
         <v>172</v>
       </c>
-      <c r="B13" s="166"/>
+      <c r="B13" s="189"/>
       <c r="C13" s="75" t="s">
         <v>173</v>
       </c>
@@ -4607,7 +5732,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="167" t="s">
+      <c r="A14" s="190" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="7">
@@ -4627,7 +5752,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="168"/>
+      <c r="A15" s="191"/>
       <c r="B15" s="7">
         <v>2007</v>
       </c>
@@ -4645,7 +5770,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="168"/>
+      <c r="A16" s="191"/>
       <c r="B16" s="7">
         <v>2014</v>
       </c>
@@ -4663,7 +5788,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="169"/>
+      <c r="A17" s="192"/>
       <c r="B17" s="69">
         <v>2021</v>
       </c>
@@ -4681,7 +5806,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="161" t="s">
+      <c r="A18" s="184" t="s">
         <v>175</v>
       </c>
       <c r="B18" s="20">
@@ -4701,7 +5826,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="148"/>
+      <c r="A19" s="171"/>
       <c r="B19" s="20">
         <v>2007</v>
       </c>
@@ -4719,7 +5844,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="148"/>
+      <c r="A20" s="171"/>
       <c r="B20" s="20">
         <v>2014</v>
       </c>
@@ -4737,7 +5862,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="162"/>
+      <c r="A21" s="185"/>
       <c r="B21" s="20">
         <v>2021</v>
       </c>
@@ -4755,7 +5880,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="144" t="s">
+      <c r="A22" s="167" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="7">
@@ -4775,7 +5900,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="145"/>
+      <c r="A23" s="168"/>
       <c r="B23" s="7">
         <v>2007</v>
       </c>
@@ -4793,7 +5918,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="145"/>
+      <c r="A24" s="168"/>
       <c r="B24" s="7">
         <v>2014</v>
       </c>
@@ -4811,7 +5936,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="160"/>
+      <c r="A25" s="183"/>
       <c r="B25" s="69">
         <v>2021</v>
       </c>
@@ -4829,7 +5954,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="161" t="s">
+      <c r="A26" s="184" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="20">
@@ -4849,7 +5974,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="148"/>
+      <c r="A27" s="171"/>
       <c r="B27" s="20">
         <v>2007</v>
       </c>
@@ -4867,7 +5992,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="148"/>
+      <c r="A28" s="171"/>
       <c r="B28" s="20">
         <v>2014</v>
       </c>
@@ -4885,7 +6010,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="148"/>
+      <c r="A29" s="171"/>
       <c r="B29" s="20">
         <v>2021</v>
       </c>
@@ -4903,7 +6028,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="145" t="s">
+      <c r="A30" s="168" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="7">
@@ -4923,7 +6048,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="145"/>
+      <c r="A31" s="168"/>
       <c r="B31" s="7">
         <v>2007</v>
       </c>
@@ -4941,7 +6066,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="145"/>
+      <c r="A32" s="168"/>
       <c r="B32" s="7">
         <v>2014</v>
       </c>
@@ -4959,7 +6084,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="160"/>
+      <c r="A33" s="183"/>
       <c r="B33" s="69">
         <v>2021</v>
       </c>
@@ -4977,7 +6102,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="161" t="s">
+      <c r="A34" s="184" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="20">
@@ -4997,7 +6122,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="148"/>
+      <c r="A35" s="171"/>
       <c r="B35" s="20">
         <v>2007</v>
       </c>
@@ -5015,7 +6140,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="148"/>
+      <c r="A36" s="171"/>
       <c r="B36" s="20">
         <v>2014</v>
       </c>
@@ -5033,7 +6158,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="162"/>
+      <c r="A37" s="185"/>
       <c r="B37" s="20">
         <v>2021</v>
       </c>
@@ -5160,7 +6285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CD1421-3E15-4842-B5EE-2DE419B07451}">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
@@ -5713,7 +6838,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="144" t="s">
+      <c r="A26" s="167" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="69">
@@ -5733,7 +6858,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="145"/>
+      <c r="A27" s="168"/>
       <c r="B27" s="69">
         <v>2007</v>
       </c>
@@ -5751,7 +6876,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="145"/>
+      <c r="A28" s="168"/>
       <c r="B28" s="69">
         <v>2014</v>
       </c>
@@ -5769,7 +6894,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="160"/>
+      <c r="A29" s="183"/>
       <c r="B29" s="69">
         <v>2021</v>
       </c>
@@ -5787,7 +6912,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="161" t="s">
+      <c r="A30" s="184" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="20">
@@ -5807,7 +6932,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="148"/>
+      <c r="A31" s="171"/>
       <c r="B31" s="20">
         <v>2007</v>
       </c>
@@ -5825,7 +6950,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="148"/>
+      <c r="A32" s="171"/>
       <c r="B32" s="20">
         <v>2014</v>
       </c>
@@ -5843,7 +6968,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="162"/>
+      <c r="A33" s="185"/>
       <c r="B33" s="20">
         <v>2021</v>
       </c>
@@ -5861,7 +6986,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="144" t="s">
+      <c r="A34" s="167" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="69">
@@ -5881,7 +7006,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="145"/>
+      <c r="A35" s="168"/>
       <c r="B35" s="69">
         <v>2007</v>
       </c>
@@ -5899,7 +7024,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="145"/>
+      <c r="A36" s="168"/>
       <c r="B36" s="69">
         <v>2014</v>
       </c>
@@ -5917,7 +7042,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="160"/>
+      <c r="A37" s="183"/>
       <c r="B37" s="69">
         <v>2021</v>
       </c>
@@ -5935,7 +7060,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="161" t="s">
+      <c r="A38" s="184" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="20">
@@ -5955,7 +7080,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="148"/>
+      <c r="A39" s="171"/>
       <c r="B39" s="20">
         <v>2007</v>
       </c>
@@ -5973,7 +7098,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="148"/>
+      <c r="A40" s="171"/>
       <c r="B40" s="20">
         <v>2014</v>
       </c>
@@ -5991,7 +7116,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="149"/>
+      <c r="A41" s="172"/>
       <c r="B41" s="24">
         <v>2021</v>
       </c>
@@ -6009,7 +7134,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="174" t="s">
+      <c r="A42" s="197" t="s">
         <v>20</v>
       </c>
       <c r="B42" s="69">
@@ -6029,7 +7154,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="145"/>
+      <c r="A43" s="168"/>
       <c r="B43" s="69">
         <v>2007</v>
       </c>
@@ -6047,7 +7172,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="145"/>
+      <c r="A44" s="168"/>
       <c r="B44" s="69">
         <v>2014</v>
       </c>
@@ -6065,7 +7190,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="160"/>
+      <c r="A45" s="183"/>
       <c r="B45" s="69">
         <v>2021</v>
       </c>
@@ -6083,7 +7208,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="161" t="s">
+      <c r="A46" s="184" t="s">
         <v>22</v>
       </c>
       <c r="B46" s="20">
@@ -6103,7 +7228,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="148"/>
+      <c r="A47" s="171"/>
       <c r="B47" s="20">
         <v>2007</v>
       </c>
@@ -6121,7 +7246,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="148"/>
+      <c r="A48" s="171"/>
       <c r="B48" s="20">
         <v>2014</v>
       </c>
@@ -6139,7 +7264,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="149"/>
+      <c r="A49" s="172"/>
       <c r="B49" s="24">
         <v>2021</v>
       </c>
@@ -6415,7 +7540,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="170" t="s">
+      <c r="A65" s="193" t="s">
         <v>139</v>
       </c>
       <c r="B65" s="104" t="s">
@@ -6444,7 +7569,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="171"/>
+      <c r="A66" s="194"/>
       <c r="B66" s="104" t="s">
         <v>141</v>
       </c>
@@ -6471,7 +7596,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="172" t="s">
+      <c r="A67" s="195" t="s">
         <v>142</v>
       </c>
       <c r="B67" s="107" t="s">
@@ -6500,7 +7625,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="169"/>
+      <c r="A68" s="192"/>
       <c r="B68" s="107" t="s">
         <v>141</v>
       </c>
@@ -6527,7 +7652,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="170" t="s">
+      <c r="A69" s="193" t="s">
         <v>143</v>
       </c>
       <c r="B69" s="104" t="s">
@@ -6556,7 +7681,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="171"/>
+      <c r="A70" s="194"/>
       <c r="B70" s="104" t="s">
         <v>141</v>
       </c>
@@ -6583,7 +7708,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="172" t="s">
+      <c r="A71" s="195" t="s">
         <v>144</v>
       </c>
       <c r="B71" s="101" t="s">
@@ -6612,7 +7737,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="169"/>
+      <c r="A72" s="192"/>
       <c r="B72" s="107" t="s">
         <v>141</v>
       </c>
@@ -6639,7 +7764,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="170" t="s">
+      <c r="A73" s="193" t="s">
         <v>145</v>
       </c>
       <c r="B73" s="104" t="s">
@@ -6668,7 +7793,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="171"/>
+      <c r="A74" s="194"/>
       <c r="B74" s="104" t="s">
         <v>141</v>
       </c>
@@ -6695,7 +7820,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="172" t="s">
+      <c r="A75" s="195" t="s">
         <v>146</v>
       </c>
       <c r="B75" s="101" t="s">
@@ -6724,7 +7849,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="169"/>
+      <c r="A76" s="192"/>
       <c r="B76" s="107" t="s">
         <v>141</v>
       </c>
@@ -6751,7 +7876,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="170" t="s">
+      <c r="A77" s="193" t="s">
         <v>147</v>
       </c>
       <c r="B77" s="104" t="s">
@@ -6780,7 +7905,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="171"/>
+      <c r="A78" s="194"/>
       <c r="B78" s="104" t="s">
         <v>141</v>
       </c>
@@ -6807,7 +7932,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="172" t="s">
+      <c r="A79" s="195" t="s">
         <v>148</v>
       </c>
       <c r="B79" s="101" t="s">
@@ -6836,7 +7961,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="169"/>
+      <c r="A80" s="192"/>
       <c r="B80" s="107" t="s">
         <v>141</v>
       </c>
@@ -6863,7 +7988,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="170" t="s">
+      <c r="A81" s="193" t="s">
         <v>149</v>
       </c>
       <c r="B81" s="104" t="s">
@@ -6892,7 +8017,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="173"/>
+      <c r="A82" s="196"/>
       <c r="B82" s="128" t="s">
         <v>141</v>
       </c>
@@ -6954,10 +8079,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568532B4-8586-4B07-A82E-C3B89C9AD92E}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:F48"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="L74" sqref="L74:M75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7002,13 +8127,13 @@
       <c r="E2" s="9">
         <v>4768</v>
       </c>
-      <c r="F2" s="175">
+      <c r="F2" s="140">
         <v>2686</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="176" t="s">
+      <c r="H2" s="141" t="s">
         <v>190</v>
       </c>
     </row>
@@ -7034,7 +8159,7 @@
       <c r="G3" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="176" t="s">
+      <c r="H3" s="141" t="s">
         <v>190</v>
       </c>
     </row>
@@ -7060,7 +8185,7 @@
       <c r="G4" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="H4" s="176" t="s">
+      <c r="H4" s="141" t="s">
         <v>190</v>
       </c>
     </row>
@@ -7086,7 +8211,7 @@
       <c r="G5" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="H5" s="176" t="s">
+      <c r="H5" s="141" t="s">
         <v>190</v>
       </c>
     </row>
@@ -7137,7 +8262,7 @@
       <c r="G8" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="H8" s="176" t="s">
+      <c r="H8" s="141" t="s">
         <v>192</v>
       </c>
     </row>
@@ -7163,7 +8288,7 @@
       <c r="G9" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="H9" s="176" t="s">
+      <c r="H9" s="141" t="s">
         <v>192</v>
       </c>
     </row>
@@ -7189,7 +8314,7 @@
       <c r="G10" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="H10" s="176" t="s">
+      <c r="H10" s="141" t="s">
         <v>192</v>
       </c>
     </row>
@@ -7215,7 +8340,7 @@
       <c r="G11" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="H11" s="176" t="s">
+      <c r="H11" s="141" t="s">
         <v>192</v>
       </c>
     </row>
@@ -7250,7 +8375,7 @@
       <c r="D14" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E14" s="176" t="s">
+      <c r="E14" s="141" t="s">
         <v>196</v>
       </c>
     </row>
@@ -7267,7 +8392,7 @@
       <c r="D15" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E15" s="176" t="s">
+      <c r="E15" s="141" t="s">
         <v>196</v>
       </c>
     </row>
@@ -7284,7 +8409,7 @@
       <c r="D16" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E16" s="176" t="s">
+      <c r="E16" s="141" t="s">
         <v>196</v>
       </c>
     </row>
@@ -7301,7 +8426,7 @@
       <c r="D17" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E17" s="176" t="s">
+      <c r="E17" s="141" t="s">
         <v>196</v>
       </c>
     </row>
@@ -7318,7 +8443,7 @@
       <c r="D18" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E18" s="176" t="s">
+      <c r="E18" s="141" t="s">
         <v>196</v>
       </c>
     </row>
@@ -7335,7 +8460,7 @@
       <c r="D19" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E19" s="176" t="s">
+      <c r="E19" s="141" t="s">
         <v>196</v>
       </c>
     </row>
@@ -7352,22 +8477,22 @@
       <c r="D20" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E20" s="176" t="s">
+      <c r="E20" s="141" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="163" t="s">
+      <c r="A22" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="180" t="s">
+      <c r="B22" s="198" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="D22" s="182" t="s">
+      <c r="D22" s="200" t="s">
         <v>199</v>
       </c>
       <c r="E22" s="11" t="s">
@@ -7378,16 +8503,16 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="164"/>
-      <c r="B23" s="181"/>
+      <c r="A23" s="187"/>
+      <c r="B23" s="199"/>
       <c r="C23" s="135" t="s">
         <v>198</v>
       </c>
-      <c r="D23" s="183"/>
+      <c r="D23" s="201"/>
       <c r="E23" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="176" t="s">
+      <c r="F23" s="141" t="s">
         <v>204</v>
       </c>
     </row>
@@ -7407,7 +8532,7 @@
       <c r="E24" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="176" t="s">
+      <c r="F24" s="141" t="s">
         <v>204</v>
       </c>
     </row>
@@ -7427,12 +8552,12 @@
       <c r="E25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="176" t="s">
+      <c r="F25" s="141" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="177"/>
+      <c r="A26" s="142"/>
       <c r="B26" s="7">
         <v>2014</v>
       </c>
@@ -7445,12 +8570,12 @@
       <c r="E26" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="176" t="s">
+      <c r="F26" s="141" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="178"/>
+      <c r="A27" s="143"/>
       <c r="B27" s="69">
         <v>2021</v>
       </c>
@@ -7463,12 +8588,12 @@
       <c r="E27" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="176" t="s">
+      <c r="F27" s="141" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="161" t="s">
+      <c r="A28" s="184" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="20">
@@ -7483,12 +8608,12 @@
       <c r="E28" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="176" t="s">
+      <c r="F28" s="141" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="148"/>
+      <c r="A29" s="171"/>
       <c r="B29" s="20">
         <v>2007</v>
       </c>
@@ -7501,12 +8626,12 @@
       <c r="E29" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="176" t="s">
+      <c r="F29" s="141" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="148"/>
+      <c r="A30" s="171"/>
       <c r="B30" s="20">
         <v>2014</v>
       </c>
@@ -7519,12 +8644,12 @@
       <c r="E30" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="176" t="s">
+      <c r="F30" s="141" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="162"/>
+      <c r="A31" s="185"/>
       <c r="B31" s="20">
         <v>2021</v>
       </c>
@@ -7537,12 +8662,12 @@
       <c r="E31" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="176" t="s">
+      <c r="F31" s="141" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="144" t="s">
+      <c r="A32" s="167" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="7">
@@ -7557,12 +8682,12 @@
       <c r="E32" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="176" t="s">
+      <c r="F32" s="141" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="145"/>
+      <c r="A33" s="168"/>
       <c r="B33" s="7">
         <v>2007</v>
       </c>
@@ -7575,12 +8700,12 @@
       <c r="E33" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="176" t="s">
+      <c r="F33" s="141" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="145"/>
+      <c r="A34" s="168"/>
       <c r="B34" s="7">
         <v>2014</v>
       </c>
@@ -7593,12 +8718,12 @@
       <c r="E34" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="176" t="s">
+      <c r="F34" s="141" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="160"/>
+      <c r="A35" s="183"/>
       <c r="B35" s="69">
         <v>2021</v>
       </c>
@@ -7611,12 +8736,12 @@
       <c r="E35" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="176" t="s">
+      <c r="F35" s="141" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="161" t="s">
+      <c r="A36" s="184" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="20">
@@ -7631,12 +8756,12 @@
       <c r="E36" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="176" t="s">
+      <c r="F36" s="141" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="148"/>
+      <c r="A37" s="171"/>
       <c r="B37" s="20">
         <v>2007</v>
       </c>
@@ -7649,12 +8774,12 @@
       <c r="E37" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="176" t="s">
+      <c r="F37" s="141" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="148"/>
+      <c r="A38" s="171"/>
       <c r="B38" s="20">
         <v>2014</v>
       </c>
@@ -7667,12 +8792,12 @@
       <c r="E38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="176" t="s">
+      <c r="F38" s="141" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="162"/>
+      <c r="A39" s="185"/>
       <c r="B39" s="20">
         <v>2021</v>
       </c>
@@ -7685,12 +8810,12 @@
       <c r="E39" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="176" t="s">
+      <c r="F39" s="141" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="144" t="s">
+      <c r="A40" s="167" t="s">
         <v>20</v>
       </c>
       <c r="B40" s="7">
@@ -7705,12 +8830,12 @@
       <c r="E40" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="176" t="s">
+      <c r="F40" s="141" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="145"/>
+      <c r="A41" s="168"/>
       <c r="B41" s="7">
         <v>2007</v>
       </c>
@@ -7723,12 +8848,12 @@
       <c r="E41" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="176" t="s">
+      <c r="F41" s="141" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="145"/>
+      <c r="A42" s="168"/>
       <c r="B42" s="7">
         <v>2014</v>
       </c>
@@ -7741,12 +8866,12 @@
       <c r="E42" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="176" t="s">
+      <c r="F42" s="141" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="145"/>
+      <c r="A43" s="168"/>
       <c r="B43" s="7">
         <v>2016</v>
       </c>
@@ -7759,12 +8884,12 @@
       <c r="E43" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="176" t="s">
+      <c r="F43" s="141" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="160"/>
+      <c r="A44" s="183"/>
       <c r="B44" s="69">
         <v>2021</v>
       </c>
@@ -7777,12 +8902,12 @@
       <c r="E44" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="176" t="s">
+      <c r="F44" s="141" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="161" t="s">
+      <c r="A45" s="184" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="20">
@@ -7797,16 +8922,16 @@
       <c r="E45" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="176" t="s">
+      <c r="F45" s="141" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="148"/>
+      <c r="A46" s="171"/>
       <c r="B46" s="20">
         <v>2007</v>
       </c>
-      <c r="C46" s="179" t="s">
+      <c r="C46" s="144" t="s">
         <v>202</v>
       </c>
       <c r="D46" s="21">
@@ -7815,16 +8940,16 @@
       <c r="E46" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="176" t="s">
+      <c r="F46" s="141" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="148"/>
+      <c r="A47" s="171"/>
       <c r="B47" s="20">
         <v>2014</v>
       </c>
-      <c r="C47" s="179" t="s">
+      <c r="C47" s="144" t="s">
         <v>203</v>
       </c>
       <c r="D47" s="21">
@@ -7833,12 +8958,12 @@
       <c r="E47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="176" t="s">
+      <c r="F47" s="141" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="149"/>
+      <c r="A48" s="172"/>
       <c r="B48" s="24">
         <v>2021</v>
       </c>
@@ -7851,8 +8976,1219 @@
       <c r="E48" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="176" t="s">
+      <c r="F48" s="141" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" s="119">
+        <v>5678</v>
+      </c>
+      <c r="C51" s="119">
+        <v>6183</v>
+      </c>
+      <c r="D51" s="119">
+        <v>5924</v>
+      </c>
+      <c r="E51" s="84">
+        <v>6403</v>
+      </c>
+      <c r="F51" s="120">
+        <v>5959</v>
+      </c>
+      <c r="G51" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H51" s="141" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="B52" s="147">
+        <v>75</v>
+      </c>
+      <c r="C52" s="86">
+        <v>75</v>
+      </c>
+      <c r="D52" s="86">
+        <v>75</v>
+      </c>
+      <c r="E52" s="86">
+        <v>75</v>
+      </c>
+      <c r="F52" s="137">
+        <v>75</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H52" s="141" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B53" s="119">
+        <v>9464</v>
+      </c>
+      <c r="C53" s="119">
+        <v>10305</v>
+      </c>
+      <c r="D53" s="119">
+        <v>9874</v>
+      </c>
+      <c r="E53" s="119">
+        <v>10672</v>
+      </c>
+      <c r="F53" s="120">
+        <v>9932</v>
+      </c>
+      <c r="G53" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H53" s="141" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="B54" s="119">
+        <v>4973</v>
+      </c>
+      <c r="C54" s="119">
+        <v>10229</v>
+      </c>
+      <c r="D54" s="119">
+        <v>9306</v>
+      </c>
+      <c r="E54" s="84">
+        <v>6223</v>
+      </c>
+      <c r="F54" s="120">
+        <v>8226</v>
+      </c>
+      <c r="G54" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H54" s="141" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="B55" s="8">
+        <v>22207</v>
+      </c>
+      <c r="C55" s="119">
+        <v>26792</v>
+      </c>
+      <c r="D55" s="119">
+        <v>25179</v>
+      </c>
+      <c r="E55" s="119">
+        <v>23373</v>
+      </c>
+      <c r="F55" s="68">
+        <v>24192</v>
+      </c>
+      <c r="G55" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H55" s="141" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56" s="121">
+        <v>245532</v>
+      </c>
+      <c r="C56" s="8">
+        <v>262640</v>
+      </c>
+      <c r="D56" s="8">
+        <v>252344</v>
+      </c>
+      <c r="E56" s="119">
+        <v>258139</v>
+      </c>
+      <c r="F56" s="68">
+        <v>302793</v>
+      </c>
+      <c r="G56" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H56" s="141" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="148">
+        <v>0.09</v>
+      </c>
+      <c r="C57" s="148">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D57" s="148">
+        <v>0.1</v>
+      </c>
+      <c r="E57" s="149">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F57" s="139">
+        <v>0.08</v>
+      </c>
+      <c r="G57" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H57" s="141" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:8" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="8">
+        <v>31000000</v>
+      </c>
+      <c r="C60" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="D60" s="19">
+        <v>20150000</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="141" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="8">
+        <v>30000000</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="D61" s="19">
+        <v>27000000</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="141" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="8">
+        <v>131789</v>
+      </c>
+      <c r="C62" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="D62" s="19">
+        <v>26358</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="141" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="7">
+        <v>0</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" s="12">
+        <v>0</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" s="141" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="8">
+        <v>10000</v>
+      </c>
+      <c r="C64" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="D64" s="19">
+        <v>7200</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F64" s="141" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="B65" s="80">
+        <v>61141789</v>
+      </c>
+      <c r="C65" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="D65" s="50">
+        <v>47183558</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" s="141" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
+      <c r="B67" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C67" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E67" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F67" s="5">
+        <v>2021</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B68" s="119">
+        <v>4395</v>
+      </c>
+      <c r="C68" s="119">
+        <v>4704</v>
+      </c>
+      <c r="D68" s="119">
+        <v>9882</v>
+      </c>
+      <c r="E68" s="119">
+        <v>6633</v>
+      </c>
+      <c r="F68" s="68">
+        <v>3537</v>
+      </c>
+      <c r="G68" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="H68" s="141" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="B69" s="114">
+        <v>96</v>
+      </c>
+      <c r="C69" s="114">
+        <v>0</v>
+      </c>
+      <c r="D69" s="114">
+        <v>0</v>
+      </c>
+      <c r="E69" s="114">
+        <v>0</v>
+      </c>
+      <c r="F69" s="150">
+        <v>0</v>
+      </c>
+      <c r="G69" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="H69" s="141" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="B70" s="119">
+        <v>4491</v>
+      </c>
+      <c r="C70" s="119">
+        <v>4704</v>
+      </c>
+      <c r="D70" s="119">
+        <v>9882</v>
+      </c>
+      <c r="E70" s="119">
+        <v>6633</v>
+      </c>
+      <c r="F70" s="68">
+        <v>3537</v>
+      </c>
+      <c r="G70" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="H70" s="141" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="B71" s="119">
+        <v>15935</v>
+      </c>
+      <c r="C71" s="119">
+        <v>8915</v>
+      </c>
+      <c r="D71" s="119">
+        <v>12901</v>
+      </c>
+      <c r="E71" s="119">
+        <v>11359</v>
+      </c>
+      <c r="F71" s="68">
+        <v>11512</v>
+      </c>
+      <c r="G71" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="H71" s="141" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="B72" s="148">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="C72" s="148">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="D72" s="148">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="E72" s="148">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="F72" s="151">
+        <v>0.307</v>
+      </c>
+      <c r="G72" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="H72" s="141" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>246</v>
+      </c>
+      <c r="C74" t="s">
+        <v>247</v>
+      </c>
+      <c r="D74" t="s">
+        <v>248</v>
+      </c>
+      <c r="E74" t="s">
+        <v>249</v>
+      </c>
+      <c r="F74" t="s">
+        <v>250</v>
+      </c>
+      <c r="G74" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="H74" t="s">
+        <v>252</v>
+      </c>
+      <c r="I74" t="s">
+        <v>253</v>
+      </c>
+      <c r="J74" t="s">
+        <v>254</v>
+      </c>
+      <c r="K74" t="s">
+        <v>76</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>226</v>
+      </c>
+      <c r="L75" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M75" s="141" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>227</v>
+      </c>
+      <c r="B76" s="146">
+        <v>1226</v>
+      </c>
+      <c r="C76">
+        <v>451</v>
+      </c>
+      <c r="D76">
+        <v>195</v>
+      </c>
+      <c r="E76">
+        <v>130</v>
+      </c>
+      <c r="F76">
+        <v>77</v>
+      </c>
+      <c r="G76">
+        <v>332</v>
+      </c>
+      <c r="H76">
+        <v>22</v>
+      </c>
+      <c r="I76">
+        <v>37</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>514</v>
+      </c>
+      <c r="L76" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M76" s="141" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>228</v>
+      </c>
+      <c r="B77" s="146">
+        <v>1399</v>
+      </c>
+      <c r="C77">
+        <v>463</v>
+      </c>
+      <c r="D77">
+        <v>150</v>
+      </c>
+      <c r="E77">
+        <v>65</v>
+      </c>
+      <c r="F77">
+        <v>102</v>
+      </c>
+      <c r="G77">
+        <v>580</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>63</v>
+      </c>
+      <c r="J77">
+        <v>17</v>
+      </c>
+      <c r="K77">
+        <v>321</v>
+      </c>
+      <c r="L77" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M77" s="141" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>229</v>
+      </c>
+      <c r="B78">
+        <v>879</v>
+      </c>
+      <c r="C78">
+        <v>170</v>
+      </c>
+      <c r="D78">
+        <v>92</v>
+      </c>
+      <c r="E78">
+        <v>10</v>
+      </c>
+      <c r="F78">
+        <v>127</v>
+      </c>
+      <c r="G78">
+        <v>366</v>
+      </c>
+      <c r="H78">
+        <v>6</v>
+      </c>
+      <c r="I78">
+        <v>19</v>
+      </c>
+      <c r="J78">
+        <v>13</v>
+      </c>
+      <c r="K78">
+        <v>289</v>
+      </c>
+      <c r="L78" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M78" s="141" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>230</v>
+      </c>
+      <c r="B79" s="146">
+        <v>1366</v>
+      </c>
+      <c r="C79">
+        <v>202</v>
+      </c>
+      <c r="D79">
+        <v>169</v>
+      </c>
+      <c r="E79">
+        <v>73</v>
+      </c>
+      <c r="F79">
+        <v>119</v>
+      </c>
+      <c r="G79">
+        <v>478</v>
+      </c>
+      <c r="H79">
+        <v>80</v>
+      </c>
+      <c r="I79">
+        <v>64</v>
+      </c>
+      <c r="J79">
+        <v>7</v>
+      </c>
+      <c r="K79">
+        <v>370</v>
+      </c>
+      <c r="L79" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M79" s="141" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>231</v>
+      </c>
+      <c r="B80">
+        <v>519</v>
+      </c>
+      <c r="C80">
+        <v>88</v>
+      </c>
+      <c r="D80">
+        <v>18</v>
+      </c>
+      <c r="E80">
+        <v>5</v>
+      </c>
+      <c r="F80">
+        <v>13</v>
+      </c>
+      <c r="G80">
+        <v>11</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>9</v>
+      </c>
+      <c r="K80">
+        <v>39</v>
+      </c>
+      <c r="L80" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M80" s="141" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>232</v>
+      </c>
+      <c r="L81" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M81" s="141" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>233</v>
+      </c>
+      <c r="B82" s="146">
+        <v>1226</v>
+      </c>
+      <c r="C82">
+        <v>451</v>
+      </c>
+      <c r="D82">
+        <v>195</v>
+      </c>
+      <c r="E82">
+        <v>130</v>
+      </c>
+      <c r="F82">
+        <v>77</v>
+      </c>
+      <c r="G82">
+        <v>332</v>
+      </c>
+      <c r="H82">
+        <v>22</v>
+      </c>
+      <c r="I82">
+        <v>37</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>514</v>
+      </c>
+      <c r="L82" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M82" s="141" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>234</v>
+      </c>
+      <c r="B83" s="146">
+        <v>4162</v>
+      </c>
+      <c r="C83">
+        <v>923</v>
+      </c>
+      <c r="D83">
+        <v>429</v>
+      </c>
+      <c r="E83">
+        <v>154</v>
+      </c>
+      <c r="F83">
+        <v>361</v>
+      </c>
+      <c r="G83" s="146">
+        <v>1435</v>
+      </c>
+      <c r="H83">
+        <v>87</v>
+      </c>
+      <c r="I83">
+        <v>145</v>
+      </c>
+      <c r="J83">
+        <v>46</v>
+      </c>
+      <c r="K83" s="146">
+        <v>1019</v>
+      </c>
+      <c r="L83" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M83" s="141" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>235</v>
+      </c>
+      <c r="L84" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M84" s="141" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>236</v>
+      </c>
+      <c r="B85" s="146">
+        <v>5254</v>
+      </c>
+      <c r="C85" s="146">
+        <v>1353</v>
+      </c>
+      <c r="D85">
+        <v>610</v>
+      </c>
+      <c r="E85">
+        <v>284</v>
+      </c>
+      <c r="F85">
+        <v>438</v>
+      </c>
+      <c r="G85">
+        <v>673</v>
+      </c>
+      <c r="H85">
+        <v>109</v>
+      </c>
+      <c r="I85">
+        <v>182</v>
+      </c>
+      <c r="J85">
+        <v>46</v>
+      </c>
+      <c r="K85" s="146">
+        <v>1277</v>
+      </c>
+      <c r="L85" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M85" s="141" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>237</v>
+      </c>
+      <c r="B86">
+        <v>135</v>
+      </c>
+      <c r="C86">
+        <v>21</v>
+      </c>
+      <c r="D86">
+        <v>14</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" s="146">
+        <v>1094</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>256</v>
+      </c>
+      <c r="L86" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M86" s="141" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>238</v>
+      </c>
+      <c r="L87" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M87" s="141" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>239</v>
+      </c>
+      <c r="B88">
+        <v>193</v>
+      </c>
+      <c r="C88">
+        <v>155</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>14</v>
+      </c>
+      <c r="G88">
+        <v>155</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>129</v>
+      </c>
+      <c r="L88" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M88" s="141" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>240</v>
+      </c>
+      <c r="B89">
+        <v>310</v>
+      </c>
+      <c r="C89">
+        <v>40</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>17</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>87</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>92</v>
+      </c>
+      <c r="L89" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M89" s="141" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>241</v>
+      </c>
+      <c r="B90" s="146">
+        <v>4668</v>
+      </c>
+      <c r="C90" s="146">
+        <v>1088</v>
+      </c>
+      <c r="D90">
+        <v>616</v>
+      </c>
+      <c r="E90">
+        <v>267</v>
+      </c>
+      <c r="F90">
+        <v>424</v>
+      </c>
+      <c r="G90" s="146">
+        <v>1446</v>
+      </c>
+      <c r="H90">
+        <v>96</v>
+      </c>
+      <c r="I90">
+        <v>182</v>
+      </c>
+      <c r="J90">
+        <v>46</v>
+      </c>
+      <c r="K90" s="146">
+        <v>1268</v>
+      </c>
+      <c r="L90" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M90" s="141" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>242</v>
+      </c>
+      <c r="B91">
+        <v>217</v>
+      </c>
+      <c r="C91">
+        <v>92</v>
+      </c>
+      <c r="D91">
+        <v>8</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>78</v>
+      </c>
+      <c r="H91">
+        <v>13</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>44</v>
+      </c>
+      <c r="L91" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M91" s="141" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>243</v>
+      </c>
+      <c r="L92" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M92" s="141" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>244</v>
+      </c>
+      <c r="B93">
+        <v>161</v>
+      </c>
+      <c r="C93">
+        <v>39</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>60</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>23</v>
+      </c>
+      <c r="L93" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M93" s="141" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>245</v>
+      </c>
+      <c r="B94" s="146">
+        <v>5227</v>
+      </c>
+      <c r="C94" s="146">
+        <v>1336</v>
+      </c>
+      <c r="D94">
+        <v>619</v>
+      </c>
+      <c r="E94">
+        <v>284</v>
+      </c>
+      <c r="F94">
+        <v>438</v>
+      </c>
+      <c r="G94" s="146">
+        <v>1707</v>
+      </c>
+      <c r="H94">
+        <v>109</v>
+      </c>
+      <c r="I94">
+        <v>182</v>
+      </c>
+      <c r="J94">
+        <v>46</v>
+      </c>
+      <c r="K94" s="146">
+        <v>1511</v>
+      </c>
+      <c r="L94" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M94" s="141" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -7867,31 +10203,3772 @@
     <mergeCell ref="A36:A39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71A5AB2-74E5-4BAB-B518-C0BA9E135C7E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83:F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D1" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E1" s="5">
+        <v>2021</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="8">
+        <v>72688</v>
+      </c>
+      <c r="C2" s="8">
+        <v>95533</v>
+      </c>
+      <c r="D2" s="8">
+        <v>81945</v>
+      </c>
+      <c r="E2" s="19">
+        <v>89434</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" s="141" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" s="80">
+        <v>1922</v>
+      </c>
+      <c r="C3" s="69">
+        <v>2890</v>
+      </c>
+      <c r="D3" s="80">
+        <v>1599</v>
+      </c>
+      <c r="E3" s="50">
+        <v>1733</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="G3" s="141" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="59">
+        <v>2017</v>
+      </c>
+      <c r="C5" s="59">
+        <v>2018</v>
+      </c>
+      <c r="D5" s="59">
+        <v>2019</v>
+      </c>
+      <c r="E5" s="59">
+        <v>2020</v>
+      </c>
+      <c r="F5" s="66">
+        <v>2021</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="7">
+        <v>49</v>
+      </c>
+      <c r="C6" s="7">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7">
+        <v>41</v>
+      </c>
+      <c r="E6" s="7">
+        <v>32</v>
+      </c>
+      <c r="F6" s="12">
+        <v>32</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="H6" s="141" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="7">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7">
+        <v>20</v>
+      </c>
+      <c r="E7" s="7">
+        <v>21</v>
+      </c>
+      <c r="F7" s="12">
+        <v>25</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="H7" s="141" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="69">
+        <v>192</v>
+      </c>
+      <c r="C8" s="69">
+        <v>179</v>
+      </c>
+      <c r="D8" s="69">
+        <v>162</v>
+      </c>
+      <c r="E8" s="69">
+        <v>190</v>
+      </c>
+      <c r="F8" s="51">
+        <v>183</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="H8" s="141" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2021</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="8">
+        <v>22654</v>
+      </c>
+      <c r="C11" s="8">
+        <v>3732</v>
+      </c>
+      <c r="D11" s="8">
+        <v>27171</v>
+      </c>
+      <c r="E11" s="19">
+        <v>40213</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="G11" s="141" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1635</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1673</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1684</v>
+      </c>
+      <c r="E12" s="19">
+        <v>1524</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="G12" s="141" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" s="80">
+        <v>1018</v>
+      </c>
+      <c r="C13" s="80">
+        <v>1024</v>
+      </c>
+      <c r="D13" s="80">
+        <v>2619</v>
+      </c>
+      <c r="E13" s="51">
+        <v>777</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="G13" s="141" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1200</v>
+      </c>
+      <c r="C16" s="19">
+        <v>3400000</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="E16" s="141" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3000</v>
+      </c>
+      <c r="C17" s="19">
+        <v>6000000</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="E17" s="141" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="8">
+        <v>91167</v>
+      </c>
+      <c r="C18" s="19">
+        <v>121000000</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="E18" s="141" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="8">
+        <v>42514</v>
+      </c>
+      <c r="C19" s="19">
+        <v>60966870</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="E19" s="141" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="E20" s="141" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C21" s="19">
+        <v>85500</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="E21" s="141" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>273</v>
+      </c>
+      <c r="C22" s="50">
+        <v>191452370</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="E22" s="141" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="186" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="198" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="200" t="s">
+        <v>275</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="187"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="152" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="201"/>
+      <c r="E25" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="210" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1999</v>
+      </c>
+      <c r="C26" s="7">
+        <v>444</v>
+      </c>
+      <c r="D26" s="8">
+        <v>973000</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="211"/>
+      <c r="B27" s="7">
+        <v>2007</v>
+      </c>
+      <c r="C27" s="7">
+        <v>950</v>
+      </c>
+      <c r="D27" s="8">
+        <v>2900000</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="211"/>
+      <c r="B28" s="7">
+        <v>2014</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1500</v>
+      </c>
+      <c r="D28" s="8">
+        <v>4350000</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="212"/>
+      <c r="B29" s="69">
+        <v>2021</v>
+      </c>
+      <c r="C29" s="80">
+        <v>1200</v>
+      </c>
+      <c r="D29" s="80">
+        <v>3400000</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="202" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="20">
+        <v>1999</v>
+      </c>
+      <c r="C30" s="23">
+        <v>2800</v>
+      </c>
+      <c r="D30" s="23">
+        <v>3836000</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="203"/>
+      <c r="B31" s="20">
+        <v>2007</v>
+      </c>
+      <c r="C31" s="23">
+        <v>2800</v>
+      </c>
+      <c r="D31" s="23">
+        <v>4312000</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="203"/>
+      <c r="B32" s="20">
+        <v>2014</v>
+      </c>
+      <c r="C32" s="23">
+        <v>3000</v>
+      </c>
+      <c r="D32" s="23">
+        <v>6000000</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="204"/>
+      <c r="B33" s="20">
+        <v>2021</v>
+      </c>
+      <c r="C33" s="23">
+        <v>3000</v>
+      </c>
+      <c r="D33" s="23">
+        <v>6000000</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="213" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="7">
+        <v>1999</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="214"/>
+      <c r="B35" s="7">
+        <v>2007</v>
+      </c>
+      <c r="C35" s="8">
+        <v>63569</v>
+      </c>
+      <c r="D35" s="8">
+        <v>81210390</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="214"/>
+      <c r="B36" s="7">
+        <v>2014</v>
+      </c>
+      <c r="C36" s="8">
+        <v>85918</v>
+      </c>
+      <c r="D36" s="8">
+        <v>133530000</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="215"/>
+      <c r="B37" s="69">
+        <v>2021</v>
+      </c>
+      <c r="C37" s="80">
+        <v>91167</v>
+      </c>
+      <c r="D37" s="80">
+        <v>121000000</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="202" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="20">
+        <v>1999</v>
+      </c>
+      <c r="C38" s="23">
+        <v>33217</v>
+      </c>
+      <c r="D38" s="23">
+        <v>50000000</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="203"/>
+      <c r="B39" s="20">
+        <v>2007</v>
+      </c>
+      <c r="C39" s="23">
+        <v>12727</v>
+      </c>
+      <c r="D39" s="23">
+        <v>19572712</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="203"/>
+      <c r="B40" s="20">
+        <v>2014</v>
+      </c>
+      <c r="C40" s="23">
+        <v>29754</v>
+      </c>
+      <c r="D40" s="23">
+        <v>38700638</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="204"/>
+      <c r="B41" s="20">
+        <v>2021</v>
+      </c>
+      <c r="C41" s="23">
+        <v>42514</v>
+      </c>
+      <c r="D41" s="23">
+        <v>60966870</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="205" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="153">
+        <v>1999</v>
+      </c>
+      <c r="C42" s="153" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="154" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="206"/>
+      <c r="B43" s="153">
+        <v>2007</v>
+      </c>
+      <c r="C43" s="153">
+        <v>0</v>
+      </c>
+      <c r="D43" s="154">
+        <v>0</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="206"/>
+      <c r="B44" s="153">
+        <v>2014</v>
+      </c>
+      <c r="C44" s="153">
+        <v>0</v>
+      </c>
+      <c r="D44" s="154">
+        <v>0</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="207"/>
+      <c r="B45" s="155">
+        <v>2021</v>
+      </c>
+      <c r="C45" s="155">
+        <v>0</v>
+      </c>
+      <c r="D45" s="51">
+        <v>0</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="156" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="20">
+        <v>1999</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="157">
+        <v>2007</v>
+      </c>
+      <c r="C47" s="158" t="s">
+        <v>276</v>
+      </c>
+      <c r="D47" s="159">
+        <v>130000</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="156">
+        <v>2014</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D48" s="23">
+        <v>50000</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="156">
+        <v>2021</v>
+      </c>
+      <c r="C49" s="104" t="s">
+        <v>278</v>
+      </c>
+      <c r="D49" s="23">
+        <v>85500</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="160"/>
+      <c r="B51" s="161" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="161" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="161" t="s">
+        <v>279</v>
+      </c>
+      <c r="E51" s="161" t="s">
+        <v>280</v>
+      </c>
+      <c r="F51" s="162" t="s">
+        <v>281</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="B52" s="7">
+        <v>27.1</v>
+      </c>
+      <c r="C52" s="7">
+        <v>26.9</v>
+      </c>
+      <c r="D52" s="7">
+        <v>31.8</v>
+      </c>
+      <c r="E52" s="7">
+        <v>38</v>
+      </c>
+      <c r="F52" s="12">
+        <v>54.5</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="H52" s="141" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="B53" s="7">
+        <v>212.7</v>
+      </c>
+      <c r="C53" s="7">
+        <v>219.3</v>
+      </c>
+      <c r="D53" s="7">
+        <v>232.1</v>
+      </c>
+      <c r="E53" s="7">
+        <v>241.7</v>
+      </c>
+      <c r="F53" s="12">
+        <v>259.5</v>
+      </c>
+      <c r="G53" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="H53" s="141" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="14">
+        <v>0.127</v>
+      </c>
+      <c r="C54" s="14">
+        <v>0.123</v>
+      </c>
+      <c r="D54" s="14">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="E54" s="14">
+        <v>0.157</v>
+      </c>
+      <c r="F54" s="15">
+        <v>0.21</v>
+      </c>
+      <c r="G54" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="H54" s="141" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+      <c r="A56" s="186" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="C56" s="208" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="187"/>
+      <c r="B57" s="135" t="s">
+        <v>287</v>
+      </c>
+      <c r="C57" s="209"/>
+      <c r="D57" s="136" t="s">
+        <v>288</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57" s="141" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="8">
+        <v>3400000</v>
+      </c>
+      <c r="C58" s="147">
+        <v>0.75</v>
+      </c>
+      <c r="D58" s="19">
+        <v>2550000</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F58" s="141" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="8">
+        <v>6000000</v>
+      </c>
+      <c r="C59" s="147">
+        <v>0.85</v>
+      </c>
+      <c r="D59" s="19">
+        <v>5100000</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="141" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="7">
+        <v>0</v>
+      </c>
+      <c r="C60" s="7">
+        <v>0</v>
+      </c>
+      <c r="D60" s="12">
+        <v>0</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="141" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="7">
+        <v>0</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0</v>
+      </c>
+      <c r="D61" s="12">
+        <v>0</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="141" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="8">
+        <v>85500</v>
+      </c>
+      <c r="C62" s="147">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D62" s="19">
+        <v>47025</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="141" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="80">
+        <v>9485500</v>
+      </c>
+      <c r="C63" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" s="50">
+        <v>7697025</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" s="141" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2"/>
+      <c r="B66" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="B67" s="7">
+        <v>61.9</v>
+      </c>
+      <c r="C67" s="7">
+        <v>64.3</v>
+      </c>
+      <c r="D67" s="7">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="E67" s="7">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="F67" s="12">
+        <v>108.7</v>
+      </c>
+      <c r="G67" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="H67" s="141" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="B68" s="7">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="C68" s="7">
+        <v>38</v>
+      </c>
+      <c r="D68" s="7">
+        <v>42.3</v>
+      </c>
+      <c r="E68" s="7">
+        <v>55.5</v>
+      </c>
+      <c r="F68" s="12">
+        <v>85</v>
+      </c>
+      <c r="G68" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="H68" s="141" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="B69" s="14">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="C69" s="14">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="D69" s="14">
+        <v>0.66</v>
+      </c>
+      <c r="E69" s="14">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="F69" s="15">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="G69" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="H69" s="141" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="219" t="s">
+        <v>295</v>
+      </c>
+      <c r="B72" s="220"/>
+      <c r="C72" s="221" t="s">
+        <v>296</v>
+      </c>
+      <c r="D72" s="220"/>
+      <c r="E72" s="221" t="s">
+        <v>297</v>
+      </c>
+      <c r="F72" s="220"/>
+      <c r="G72" s="221" t="s">
+        <v>298</v>
+      </c>
+      <c r="H72" s="222"/>
+      <c r="I72" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="216" t="s">
+        <v>299</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="C73" s="217" t="s">
+        <v>299</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E73" s="217" t="s">
+        <v>299</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="G73" s="217" t="s">
+        <v>299</v>
+      </c>
+      <c r="H73" s="218" t="s">
+        <v>300</v>
+      </c>
+      <c r="I73" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="J73" s="141" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="145">
+        <v>2015</v>
+      </c>
+      <c r="B74" s="119">
+        <v>95082</v>
+      </c>
+      <c r="C74" s="7">
+        <v>2015</v>
+      </c>
+      <c r="D74" s="119">
+        <v>12905</v>
+      </c>
+      <c r="E74" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F74" s="119">
+        <v>3011</v>
+      </c>
+      <c r="G74" s="7">
+        <v>2015</v>
+      </c>
+      <c r="H74" s="68">
+        <v>5874</v>
+      </c>
+      <c r="I74" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="J74" s="141" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="145">
+        <v>2016</v>
+      </c>
+      <c r="B75" s="119">
+        <v>92607</v>
+      </c>
+      <c r="C75" s="7">
+        <v>2016</v>
+      </c>
+      <c r="D75" s="119">
+        <v>15200</v>
+      </c>
+      <c r="E75" s="7">
+        <v>2016</v>
+      </c>
+      <c r="F75" s="119">
+        <v>12734</v>
+      </c>
+      <c r="G75" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H75" s="19">
+        <v>26888</v>
+      </c>
+      <c r="I75" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="J75" s="141" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="145">
+        <v>2017</v>
+      </c>
+      <c r="B76" s="119">
+        <v>83697</v>
+      </c>
+      <c r="C76" s="7">
+        <v>2017</v>
+      </c>
+      <c r="D76" s="119">
+        <v>67243</v>
+      </c>
+      <c r="E76" s="7">
+        <v>2017</v>
+      </c>
+      <c r="F76" s="119">
+        <v>10055</v>
+      </c>
+      <c r="G76" s="7">
+        <v>2017</v>
+      </c>
+      <c r="H76" s="19">
+        <v>16984</v>
+      </c>
+      <c r="I76" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="J76" s="141" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="145">
+        <v>2018</v>
+      </c>
+      <c r="B77" s="119">
+        <v>83264</v>
+      </c>
+      <c r="C77" s="7">
+        <v>2018</v>
+      </c>
+      <c r="D77" s="119">
+        <v>76552</v>
+      </c>
+      <c r="E77" s="7">
+        <v>2018</v>
+      </c>
+      <c r="F77" s="119">
+        <v>15251</v>
+      </c>
+      <c r="G77" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H77" s="19">
+        <v>22606</v>
+      </c>
+      <c r="I77" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="J77" s="141" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="145">
+        <v>2019</v>
+      </c>
+      <c r="B78" s="119">
+        <v>73632</v>
+      </c>
+      <c r="C78" s="7">
+        <v>2019</v>
+      </c>
+      <c r="D78" s="119">
+        <v>25200</v>
+      </c>
+      <c r="E78" s="7">
+        <v>2019</v>
+      </c>
+      <c r="F78" s="119">
+        <v>11281</v>
+      </c>
+      <c r="G78" s="7">
+        <v>2019</v>
+      </c>
+      <c r="H78" s="19">
+        <v>26983</v>
+      </c>
+      <c r="I78" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="J78" s="141" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="145">
+        <v>2020</v>
+      </c>
+      <c r="B79" s="119">
+        <v>58418</v>
+      </c>
+      <c r="C79" s="7">
+        <v>2020</v>
+      </c>
+      <c r="D79" s="119">
+        <v>24400</v>
+      </c>
+      <c r="E79" s="7">
+        <v>2020</v>
+      </c>
+      <c r="F79" s="119">
+        <v>8384</v>
+      </c>
+      <c r="G79" s="7">
+        <v>2020</v>
+      </c>
+      <c r="H79" s="19">
+        <v>21108</v>
+      </c>
+      <c r="I79" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="J79" s="141" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="72">
+        <v>2021</v>
+      </c>
+      <c r="B80" s="80">
+        <v>106045</v>
+      </c>
+      <c r="C80" s="69">
+        <v>2021</v>
+      </c>
+      <c r="D80" s="81">
+        <v>18501</v>
+      </c>
+      <c r="E80" s="69">
+        <v>2021</v>
+      </c>
+      <c r="F80" s="81">
+        <v>5095</v>
+      </c>
+      <c r="G80" s="69">
+        <v>2021</v>
+      </c>
+      <c r="H80" s="50">
+        <v>24489</v>
+      </c>
+      <c r="I80" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="J80" s="141" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2"/>
+      <c r="B83" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C83" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D83" s="5">
+        <v>2021</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="B84" s="8">
+        <v>26027040</v>
+      </c>
+      <c r="C84" s="8">
+        <v>28112074</v>
+      </c>
+      <c r="D84" s="19">
+        <v>28143896</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="F84" s="141" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="B85" s="8">
+        <v>3629878</v>
+      </c>
+      <c r="C85" s="8">
+        <v>3579787</v>
+      </c>
+      <c r="D85" s="19">
+        <v>2314357</v>
+      </c>
+      <c r="E85" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="F85" s="141" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="B86" s="8">
+        <v>2164000</v>
+      </c>
+      <c r="C86" s="8">
+        <v>2300800</v>
+      </c>
+      <c r="D86" s="19">
+        <v>2573000</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="F86" s="141" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" s="80">
+        <v>31820918</v>
+      </c>
+      <c r="C87" s="81">
+        <v>33992661</v>
+      </c>
+      <c r="D87" s="70">
+        <v>33031253</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="F87" s="141" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="160"/>
+      <c r="B89" s="161">
+        <v>2019</v>
+      </c>
+      <c r="C89" s="161">
+        <v>2020</v>
+      </c>
+      <c r="D89" s="162">
+        <v>2021</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B90" s="8">
+        <v>610450</v>
+      </c>
+      <c r="C90" s="8">
+        <v>660594</v>
+      </c>
+      <c r="D90" s="8">
+        <v>766760</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="F90" s="141" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B91" s="8">
+        <v>347000</v>
+      </c>
+      <c r="C91" s="8">
+        <v>319000</v>
+      </c>
+      <c r="D91" s="8">
+        <v>538000</v>
+      </c>
+      <c r="E91" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="F91" s="141" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B92" s="8">
+        <v>600000</v>
+      </c>
+      <c r="C92" s="8">
+        <v>100000</v>
+      </c>
+      <c r="D92" s="8">
+        <v>200000</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="F92" s="141" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B93" s="7">
+        <v>0</v>
+      </c>
+      <c r="C93" s="7">
+        <v>0</v>
+      </c>
+      <c r="D93" s="7">
+        <v>0</v>
+      </c>
+      <c r="E93" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="F93" s="141" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B94" s="8">
+        <v>39113</v>
+      </c>
+      <c r="C94" s="8">
+        <v>127584</v>
+      </c>
+      <c r="D94" s="8">
+        <v>73253</v>
+      </c>
+      <c r="E94" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="F94" s="141" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B95" s="8">
+        <v>1598582</v>
+      </c>
+      <c r="C95" s="8">
+        <v>1209198</v>
+      </c>
+      <c r="D95" s="8">
+        <v>1580034</v>
+      </c>
+      <c r="E95" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="F95" s="141" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBBC0CE-D650-4544-AD96-5FEDEB51DACA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103:D108"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2" s="12">
+        <v>12.5</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2" s="141" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="223"/>
+      <c r="B3" s="101" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" s="12">
+        <v>9</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="F3" s="141" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="223"/>
+      <c r="B4" s="101" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" s="12">
+        <v>15</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="F4" s="141" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="223"/>
+      <c r="B5" s="101" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D5" s="12">
+        <v>11</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="F5" s="141" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="101" t="s">
+        <v>322</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" s="12">
+        <v>17.5</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="F6" s="141" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="223"/>
+      <c r="B7" s="101" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D7" s="12">
+        <v>3</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="F7" s="141" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="224"/>
+      <c r="B8" s="107" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" s="51">
+        <v>50</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="F8" s="141" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="240"/>
+      <c r="B9" s="239"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="238"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="141"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11" s="225" t="s">
+        <v>333</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="145">
+        <v>2018</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="85">
+        <v>2</v>
+      </c>
+      <c r="H12" s="12">
+        <v>2</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="J12" s="141" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="145">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="7">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H13" s="12">
+        <v>9</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="J13" s="141" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="145">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="7">
+        <v>14</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H14" s="226">
+        <v>16</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="J14" s="141" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="72">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="69">
+        <v>19</v>
+      </c>
+      <c r="C15" s="69">
+        <v>2</v>
+      </c>
+      <c r="D15" s="69">
+        <v>0</v>
+      </c>
+      <c r="E15" s="69">
+        <v>0</v>
+      </c>
+      <c r="F15" s="69" t="s">
+        <v>339</v>
+      </c>
+      <c r="G15" s="107" t="s">
+        <v>341</v>
+      </c>
+      <c r="H15" s="227">
+        <v>21</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="J15" s="141" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="238"/>
+      <c r="B16" s="238"/>
+      <c r="C16" s="238"/>
+      <c r="D16" s="238"/>
+      <c r="E16" s="238"/>
+      <c r="F16" s="238"/>
+      <c r="G16" s="239"/>
+      <c r="H16" s="239"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="141"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="231"/>
+      <c r="B18" s="233" t="s">
+        <v>344</v>
+      </c>
+      <c r="C18" s="208" t="s">
+        <v>345</v>
+      </c>
+      <c r="D18" s="235" t="s">
+        <v>346</v>
+      </c>
+      <c r="E18" s="236"/>
+      <c r="F18" s="228"/>
+      <c r="G18" s="237" t="s">
+        <v>347</v>
+      </c>
+      <c r="H18" s="237"/>
+      <c r="I18" s="228"/>
+      <c r="J18" s="229"/>
+      <c r="K18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="232"/>
+      <c r="B19" s="234"/>
+      <c r="C19" s="209"/>
+      <c r="D19" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="E19" s="230" t="s">
+        <v>349</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="230" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="230" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="230" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="L19" s="141" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="40">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="114">
+        <v>2</v>
+      </c>
+      <c r="C20" s="62">
+        <v>9</v>
+      </c>
+      <c r="D20" s="62">
+        <v>275</v>
+      </c>
+      <c r="E20" s="62">
+        <v>165</v>
+      </c>
+      <c r="F20" s="119">
+        <v>7079</v>
+      </c>
+      <c r="G20" s="119">
+        <v>1711</v>
+      </c>
+      <c r="H20" s="114">
+        <v>40</v>
+      </c>
+      <c r="I20" s="114">
+        <v>1</v>
+      </c>
+      <c r="J20" s="68">
+        <v>8831</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="L20" s="141" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="40">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="114">
+        <v>9</v>
+      </c>
+      <c r="C21" s="62">
+        <v>45</v>
+      </c>
+      <c r="D21" s="119">
+        <v>1120</v>
+      </c>
+      <c r="E21" s="62">
+        <v>743</v>
+      </c>
+      <c r="F21" s="119">
+        <v>29555</v>
+      </c>
+      <c r="G21" s="119">
+        <v>3450</v>
+      </c>
+      <c r="H21" s="62">
+        <v>349</v>
+      </c>
+      <c r="I21" s="62">
+        <v>89</v>
+      </c>
+      <c r="J21" s="68">
+        <v>33443</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="L21" s="141" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="40">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="62">
+        <v>14</v>
+      </c>
+      <c r="C22" s="101">
+        <v>125</v>
+      </c>
+      <c r="D22" s="119">
+        <v>3834</v>
+      </c>
+      <c r="E22" s="121">
+        <v>2427</v>
+      </c>
+      <c r="F22" s="119">
+        <v>81473</v>
+      </c>
+      <c r="G22" s="119">
+        <v>11940</v>
+      </c>
+      <c r="H22" s="119">
+        <v>2264</v>
+      </c>
+      <c r="I22" s="62">
+        <v>193</v>
+      </c>
+      <c r="J22" s="68">
+        <v>95870</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="L22" s="141" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="42">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="134">
+        <v>19</v>
+      </c>
+      <c r="C23" s="107">
+        <v>160</v>
+      </c>
+      <c r="D23" s="81">
+        <v>4533</v>
+      </c>
+      <c r="E23" s="123">
+        <v>2699</v>
+      </c>
+      <c r="F23" s="81">
+        <v>84787</v>
+      </c>
+      <c r="G23" s="81">
+        <v>24577</v>
+      </c>
+      <c r="H23" s="81">
+        <v>2330</v>
+      </c>
+      <c r="I23" s="134">
+        <v>127</v>
+      </c>
+      <c r="J23" s="50">
+        <v>111821</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="L23" s="141" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="145">
+        <v>2017</v>
+      </c>
+      <c r="B27" s="8">
+        <v>48543</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D27" s="8">
+        <v>19040</v>
+      </c>
+      <c r="E27" s="19">
+        <v>69162</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="G27" s="141" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="145">
+        <v>2018</v>
+      </c>
+      <c r="B28" s="8">
+        <v>142428</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1569</v>
+      </c>
+      <c r="D28" s="8">
+        <v>17159</v>
+      </c>
+      <c r="E28" s="19">
+        <v>161495</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="G28" s="141" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="145">
+        <v>2019</v>
+      </c>
+      <c r="B29" s="8">
+        <v>57185</v>
+      </c>
+      <c r="C29" s="7">
+        <v>774</v>
+      </c>
+      <c r="D29" s="8">
+        <v>7457</v>
+      </c>
+      <c r="E29" s="19">
+        <v>65688</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="G29" s="141" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="145">
+        <v>2020</v>
+      </c>
+      <c r="B30" s="8">
+        <v>81612</v>
+      </c>
+      <c r="C30" s="8">
+        <v>3494</v>
+      </c>
+      <c r="D30" s="8">
+        <v>14408</v>
+      </c>
+      <c r="E30" s="19">
+        <v>99644</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="G30" s="141" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="72">
+        <v>2021</v>
+      </c>
+      <c r="B31" s="80">
+        <v>108179</v>
+      </c>
+      <c r="C31" s="80">
+        <v>3256</v>
+      </c>
+      <c r="D31" s="80">
+        <v>25458</v>
+      </c>
+      <c r="E31" s="50">
+        <v>136893</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="G31" s="141" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="7">
+        <v>140</v>
+      </c>
+      <c r="C35" s="19">
+        <v>1540000</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="E35" s="141" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="7">
+        <v>100</v>
+      </c>
+      <c r="C36" s="19">
+        <v>770000</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="E36" s="141" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="8">
+        <v>111821</v>
+      </c>
+      <c r="C37" s="19">
+        <v>186718705</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="E37" s="141" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="8">
+        <v>136893</v>
+      </c>
+      <c r="C38" s="19">
+        <v>228583931</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="E38" s="141" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0</v>
+      </c>
+      <c r="C39" s="12">
+        <v>0</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="E39" s="141" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C40" s="19">
+        <v>1000</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="E40" s="141" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="241">
+        <v>248954.1</v>
+      </c>
+      <c r="C41" s="50">
+        <v>417613636</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="E41" s="141" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="167" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="7">
+        <v>1999</v>
+      </c>
+      <c r="C45" s="7">
+        <v>315</v>
+      </c>
+      <c r="D45" s="19">
+        <v>1732500</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="168"/>
+      <c r="B46" s="7">
+        <v>2007</v>
+      </c>
+      <c r="C46" s="7">
+        <v>200</v>
+      </c>
+      <c r="D46" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="168"/>
+      <c r="B47" s="7">
+        <v>2014</v>
+      </c>
+      <c r="C47" s="7">
+        <v>163</v>
+      </c>
+      <c r="D47" s="19">
+        <v>1306955</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="183"/>
+      <c r="B48" s="69">
+        <v>2021</v>
+      </c>
+      <c r="C48" s="69">
+        <v>140</v>
+      </c>
+      <c r="D48" s="50">
+        <v>1540000</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="184" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="20">
+        <v>1999</v>
+      </c>
+      <c r="C49" s="20">
+        <v>110</v>
+      </c>
+      <c r="D49" s="21">
+        <v>514250</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="171"/>
+      <c r="B50" s="20">
+        <v>2007</v>
+      </c>
+      <c r="C50" s="20">
+        <v>450</v>
+      </c>
+      <c r="D50" s="21">
+        <v>787000</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="171"/>
+      <c r="B51" s="20">
+        <v>2014</v>
+      </c>
+      <c r="C51" s="20">
+        <v>210</v>
+      </c>
+      <c r="D51" s="21">
+        <v>1177834</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="185"/>
+      <c r="B52" s="20">
+        <v>2021</v>
+      </c>
+      <c r="C52" s="20">
+        <v>100</v>
+      </c>
+      <c r="D52" s="21">
+        <v>770000</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="7">
+        <v>1999</v>
+      </c>
+      <c r="C53" s="7">
+        <v>50</v>
+      </c>
+      <c r="D53" s="19">
+        <v>387000</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="168"/>
+      <c r="B54" s="7">
+        <v>2007</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0</v>
+      </c>
+      <c r="D54" s="12">
+        <v>0</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="168"/>
+      <c r="B55" s="7">
+        <v>2014</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0</v>
+      </c>
+      <c r="D55" s="12">
+        <v>0</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" s="141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="183"/>
+      <c r="B56" s="69">
+        <v>2021</v>
+      </c>
+      <c r="C56" s="80">
+        <v>111821</v>
+      </c>
+      <c r="D56" s="50">
+        <v>186718705</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="184" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="20">
+        <v>1999</v>
+      </c>
+      <c r="C57" s="23">
+        <v>41000</v>
+      </c>
+      <c r="D57" s="21">
+        <v>57000000</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="171"/>
+      <c r="B58" s="20">
+        <v>2007</v>
+      </c>
+      <c r="C58" s="23">
+        <v>69236</v>
+      </c>
+      <c r="D58" s="21">
+        <v>95201620</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" s="141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="171"/>
+      <c r="B59" s="20">
+        <v>2014</v>
+      </c>
+      <c r="C59" s="23">
+        <v>177315</v>
+      </c>
+      <c r="D59" s="21">
+        <v>282100000</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" s="141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="185"/>
+      <c r="B60" s="20">
+        <v>2021</v>
+      </c>
+      <c r="C60" s="23">
+        <v>136893</v>
+      </c>
+      <c r="D60" s="21">
+        <v>228583931</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="167" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="7">
+        <v>1999</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="168"/>
+      <c r="B62" s="7">
+        <v>2007</v>
+      </c>
+      <c r="C62" s="7">
+        <v>0</v>
+      </c>
+      <c r="D62" s="12">
+        <v>0</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="168"/>
+      <c r="B63" s="7">
+        <v>2014</v>
+      </c>
+      <c r="C63" s="7">
+        <v>0</v>
+      </c>
+      <c r="D63" s="12">
+        <v>0</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63" s="141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="183"/>
+      <c r="B64" s="69">
+        <v>2021</v>
+      </c>
+      <c r="C64" s="69">
+        <v>0</v>
+      </c>
+      <c r="D64" s="51">
+        <v>0</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="184" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="20">
+        <v>1999</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="171"/>
+      <c r="B66" s="20">
+        <v>2007</v>
+      </c>
+      <c r="C66" s="20">
+        <v>8</v>
+      </c>
+      <c r="D66" s="21">
+        <v>18000</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" s="141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="171"/>
+      <c r="B67" s="20">
+        <v>2014</v>
+      </c>
+      <c r="C67" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="D67" s="21">
+        <v>1000</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" s="141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="172"/>
+      <c r="B68" s="24">
+        <v>2021</v>
+      </c>
+      <c r="C68" s="24">
+        <v>0</v>
+      </c>
+      <c r="D68" s="242">
+        <v>0</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" s="141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2"/>
+      <c r="B71" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="40" t="s">
+        <v>359</v>
+      </c>
+      <c r="B72" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="C72" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="D72" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="E72" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="F72" s="12">
+        <v>3.7</v>
+      </c>
+      <c r="G72" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="H72" s="141" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="B73" s="7">
+        <v>133.80000000000001</v>
+      </c>
+      <c r="C73" s="7">
+        <v>144.5</v>
+      </c>
+      <c r="D73" s="7">
+        <v>169.1</v>
+      </c>
+      <c r="E73" s="7">
+        <v>169.1</v>
+      </c>
+      <c r="F73" s="12">
+        <v>186</v>
+      </c>
+      <c r="G73" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="H73" s="141" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" s="14">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C74" s="14">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D74" s="14">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E74" s="14">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F74" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="G74" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="H74" s="141" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+      <c r="A77" s="186" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="C77" s="175" t="s">
+        <v>45</v>
+      </c>
+      <c r="D77" s="200" t="s">
+        <v>217</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="187"/>
+      <c r="B78" s="243" t="s">
+        <v>362</v>
+      </c>
+      <c r="C78" s="244"/>
+      <c r="D78" s="201"/>
+      <c r="E78" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F78" s="141" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="8">
+        <v>1540000</v>
+      </c>
+      <c r="C79" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="D79" s="19">
+        <v>1001000</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F79" s="141" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" s="8">
+        <v>770000</v>
+      </c>
+      <c r="C80" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="D80" s="19">
+        <v>616000</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F80" s="141" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="7">
+        <v>0</v>
+      </c>
+      <c r="C81" s="7">
+        <v>0</v>
+      </c>
+      <c r="D81" s="12">
+        <v>0</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F81" s="141" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" s="7">
+        <v>0</v>
+      </c>
+      <c r="C82" s="7">
+        <v>0</v>
+      </c>
+      <c r="D82" s="12">
+        <v>0</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F82" s="141" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B83" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C83" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="D83" s="12">
+        <v>850</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F83" s="141" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="B84" s="80">
+        <v>2311000</v>
+      </c>
+      <c r="C84" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84" s="50">
+        <v>1617850</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F84" s="141" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="71" t="s">
+        <v>364</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="B88" s="245">
+        <v>185546</v>
+      </c>
+      <c r="C88" s="245">
+        <v>278483</v>
+      </c>
+      <c r="D88" s="245">
+        <v>326526</v>
+      </c>
+      <c r="E88" s="245">
+        <v>426855</v>
+      </c>
+      <c r="F88" s="68">
+        <v>566692</v>
+      </c>
+      <c r="G88" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="H88" s="141" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="B89" s="245">
+        <v>536980</v>
+      </c>
+      <c r="C89" s="119">
+        <v>1437904</v>
+      </c>
+      <c r="D89" s="119">
+        <v>1745909</v>
+      </c>
+      <c r="E89" s="119">
+        <v>1393798</v>
+      </c>
+      <c r="F89" s="68">
+        <v>1098032</v>
+      </c>
+      <c r="G89" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="H89" s="141" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="40" t="s">
+        <v>372</v>
+      </c>
+      <c r="B90" s="121">
+        <v>45640517</v>
+      </c>
+      <c r="C90" s="119">
+        <v>70278915</v>
+      </c>
+      <c r="D90" s="121">
+        <v>71206717</v>
+      </c>
+      <c r="E90" s="121">
+        <v>57977121</v>
+      </c>
+      <c r="F90" s="19">
+        <v>56524277</v>
+      </c>
+      <c r="G90" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="H90" s="141" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="40" t="s">
+        <v>373</v>
+      </c>
+      <c r="B91" s="121">
+        <v>46363043</v>
+      </c>
+      <c r="C91" s="119">
+        <v>71995303</v>
+      </c>
+      <c r="D91" s="121">
+        <v>73279152</v>
+      </c>
+      <c r="E91" s="121">
+        <v>59797774</v>
+      </c>
+      <c r="F91" s="19">
+        <v>58189001</v>
+      </c>
+      <c r="G91" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="H91" s="141" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="B92" s="8">
+        <v>180905330</v>
+      </c>
+      <c r="C92" s="8">
+        <v>240017786</v>
+      </c>
+      <c r="D92" s="8">
+        <v>269996331</v>
+      </c>
+      <c r="E92" s="8">
+        <v>265880056</v>
+      </c>
+      <c r="F92" s="122">
+        <v>319174555</v>
+      </c>
+      <c r="G92" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="H92" s="141" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="B93" s="246">
+        <v>0.26</v>
+      </c>
+      <c r="C93" s="246">
+        <v>0.3</v>
+      </c>
+      <c r="D93" s="246">
+        <v>0.27</v>
+      </c>
+      <c r="E93" s="246">
+        <v>0.22</v>
+      </c>
+      <c r="F93" s="247">
+        <v>0.18</v>
+      </c>
+      <c r="G93" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="H93" s="141" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="100"/>
+      <c r="B96" s="55" t="s">
+        <v>378</v>
+      </c>
+      <c r="C96" s="55" t="s">
+        <v>379</v>
+      </c>
+      <c r="D96" s="55" t="s">
+        <v>380</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="G96" s="225" t="s">
+        <v>383</v>
+      </c>
+      <c r="H96" s="66" t="s">
+        <v>384</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="B97" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C97" s="7">
+        <v>57</v>
+      </c>
+      <c r="D97" s="7">
+        <v>12</v>
+      </c>
+      <c r="E97" s="7">
+        <v>16</v>
+      </c>
+      <c r="F97" s="7">
+        <v>31</v>
+      </c>
+      <c r="G97" s="7">
+        <v>12</v>
+      </c>
+      <c r="H97" s="12">
+        <v>39</v>
+      </c>
+      <c r="I97" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="J97" s="141" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="B98" s="8">
+        <v>1445</v>
+      </c>
+      <c r="C98" s="7">
+        <v>38</v>
+      </c>
+      <c r="D98" s="7">
+        <v>4</v>
+      </c>
+      <c r="E98" s="7">
+        <v>8</v>
+      </c>
+      <c r="F98" s="7">
+        <v>15</v>
+      </c>
+      <c r="G98" s="7">
+        <v>4</v>
+      </c>
+      <c r="H98" s="12">
+        <v>14</v>
+      </c>
+      <c r="I98" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="J98" s="141" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B99" s="80">
+        <v>3469</v>
+      </c>
+      <c r="C99" s="69">
+        <v>95</v>
+      </c>
+      <c r="D99" s="69">
+        <v>16</v>
+      </c>
+      <c r="E99" s="69">
+        <v>24</v>
+      </c>
+      <c r="F99" s="69">
+        <v>46</v>
+      </c>
+      <c r="G99" s="69">
+        <v>16</v>
+      </c>
+      <c r="H99" s="51">
+        <v>53</v>
+      </c>
+      <c r="I99" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="J99" s="141" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="1:10" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="71" t="s">
+        <v>388</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="B103" s="12">
+        <v>121</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="D103" s="141" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="168.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="40" t="s">
+        <v>391</v>
+      </c>
+      <c r="B104" s="12">
+        <v>87</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="D104" s="141" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="B105" s="12">
+        <v>21</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="D105" s="141" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="B106" s="12">
+        <v>19</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="D106" s="141" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="40" t="s">
+        <v>394</v>
+      </c>
+      <c r="B107" s="12">
+        <v>54</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="D107" s="141" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="B108" s="51">
+        <v>22</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="D108" s="141" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A45:A48"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data_Raw/Manually_Collected_Data.xlsx
+++ b/Data_Raw/Manually_Collected_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamesh\GIT\Benefish_Data_Collection\Data_Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83F70B1-6FF3-4932-AF63-46074587226A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECB4E2F-FCA3-4A40-9A46-1471A237C4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="25760" windowHeight="15560" tabRatio="913" activeTab="10" xr2:uid="{DADAB8C2-813A-4B64-AE11-C65CAFCECFBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="913" activeTab="12" xr2:uid="{DADAB8C2-813A-4B64-AE11-C65CAFCECFBF}"/>
   </bookViews>
   <sheets>
     <sheet name="American_Samoa" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,12 @@
     <sheet name="Vanuatu" sheetId="21" r:id="rId21"/>
     <sheet name="Wallis_and_Futuna" sheetId="22" r:id="rId22"/>
   </sheets>
+  <definedNames>
+    <definedName name="_ftn1" localSheetId="12">Palau!#REF!</definedName>
+    <definedName name="_ftn2" localSheetId="12">Palau!#REF!</definedName>
+    <definedName name="_ftnref1" localSheetId="12">Palau!$D$69</definedName>
+    <definedName name="_ftnref2" localSheetId="12">Palau!$E$69</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -57,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="509">
   <si>
     <t>Live fish</t>
   </si>
@@ -1529,6 +1535,443 @@
   <si>
     <t>11-11</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFFFEFD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NZ$)</t>
+    </r>
+  </si>
+  <si>
+    <t>Annual fisheries and aquaculture harvest in Niue in 2021</t>
+  </si>
+  <si>
+    <t>12-1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nominal value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFFFEFD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NZ$)</t>
+    </r>
+  </si>
+  <si>
+    <t>12-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niue GDP (current prices) </t>
+  </si>
+  <si>
+    <t>Agriculture, hunting, fishing and forestry contribution</t>
+  </si>
+  <si>
+    <t>Agriculture, hunting, fishing and forestry as a % of GDP</t>
+  </si>
+  <si>
+    <t>The agriculture and fisheries contribution to the Niue GDP (current prices, NZ$ thousands)</t>
+  </si>
+  <si>
+    <t>12-3</t>
+  </si>
+  <si>
+    <t>(NZ$, from Table 12-1)</t>
+  </si>
+  <si>
+    <r>
+      <t>Value added</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFFFEFD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (NZ$)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFFFEFD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Fishing contribution to GDP 2021 using an alternative approach</t>
+  </si>
+  <si>
+    <t>12-4</t>
+  </si>
+  <si>
+    <r>
+      <t>Fisheries revenue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFFFEFD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (NZ$)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total government  revenue </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFFFEFD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NZ$)</t>
+    </r>
+  </si>
+  <si>
+    <t>Fisheries revenue as a % of total government revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fisheries access revenue </t>
+  </si>
+  <si>
+    <t>12-5</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>Number of households catching fish</t>
+  </si>
+  <si>
+    <t>Number of fishing trips made</t>
+  </si>
+  <si>
+    <t>Average number of fishing trips</t>
+  </si>
+  <si>
+    <t>Quantity of fish captured (kg)</t>
+  </si>
+  <si>
+    <t>Average quantity of fish captured (kg)</t>
+  </si>
+  <si>
+    <t>Proportion of households fishing only for home consumption</t>
+  </si>
+  <si>
+    <t>Proportions of households fishing mainly for home consumption and some sale</t>
+  </si>
+  <si>
+    <t>Proportion of households fishing mainly for sale and some home consumption</t>
+  </si>
+  <si>
+    <t>Proportion of households fishing only for sale</t>
+  </si>
+  <si>
+    <t>Proportion of households fishing for other purposes</t>
+  </si>
+  <si>
+    <t>Number of households selling fish</t>
+  </si>
+  <si>
+    <t>The number of fishing trips made, quantity of fish captured, purposes of fishing and proportion sold by month</t>
+  </si>
+  <si>
+    <t>12-6</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Estimated annual volumes</t>
+  </si>
+  <si>
+    <t>Local fisher to residents (i.e. direct sales)</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Local fisher to export</t>
+  </si>
+  <si>
+    <t>31–33 t</t>
+  </si>
+  <si>
+    <t>Local fisher to fish market</t>
+  </si>
+  <si>
+    <t>150 t</t>
+  </si>
+  <si>
+    <t>Local fishers to fishing cooperative</t>
+  </si>
+  <si>
+    <t>1.3 t</t>
+  </si>
+  <si>
+    <t>Local fishers to prepared food stores</t>
+  </si>
+  <si>
+    <t>10.7 t</t>
+  </si>
+  <si>
+    <t>Local fishers to entrepreneurs</t>
+  </si>
+  <si>
+    <t>Unknown, but at least 19.4 t</t>
+  </si>
+  <si>
+    <t>Local fishers to supermarkets</t>
+  </si>
+  <si>
+    <t>9.8 t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local fishers to restaurants </t>
+  </si>
+  <si>
+    <t>13.6 t</t>
+  </si>
+  <si>
+    <t>Local fishers to caterers</t>
+  </si>
+  <si>
+    <t>71.1 t</t>
+  </si>
+  <si>
+    <t>Catch of local small-scale offshore fishers</t>
+  </si>
+  <si>
+    <t>45 t</t>
+  </si>
+  <si>
+    <t>Reef Fish</t>
+  </si>
+  <si>
+    <t>Pelagic Fish</t>
+  </si>
+  <si>
+    <t>Estimates of the primary components of the coastal commercial fisheries production  and distribution in Palau</t>
+  </si>
+  <si>
+    <t>13-1</t>
+  </si>
+  <si>
+    <t>Number longliners</t>
+  </si>
+  <si>
+    <t>Number purse seiners</t>
+  </si>
+  <si>
+    <t>Number total vessels</t>
+  </si>
+  <si>
+    <t>Number of foreign-based offshore fishing vessels in the Palau EEZ</t>
+  </si>
+  <si>
+    <t>13-2</t>
+  </si>
+  <si>
+    <t>Total catches</t>
+  </si>
+  <si>
+    <t>Catches by foreign-based longliners in the Palau EEZ (t)</t>
+  </si>
+  <si>
+    <t>13-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bigeye tuna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellowfin tuna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL </t>
+  </si>
+  <si>
+    <t>Catches by foreign-based purse seiners in the Palau EEZ (t)</t>
+  </si>
+  <si>
+    <t>13-4</t>
+  </si>
+  <si>
+    <t>Aquaculture (pcs and t)</t>
+  </si>
+  <si>
+    <t>11 t and 4,419 pcs</t>
+  </si>
+  <si>
+    <t>3,768 t and 4,419 pcs</t>
+  </si>
+  <si>
+    <t>Annual fisheries and aquaculture harvest in Palau in 2021</t>
+  </si>
+  <si>
+    <t>13-5</t>
+  </si>
+  <si>
+    <t>13-9</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Estimate year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFFFEFD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(t and pcs, where indicated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFFFEFD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Volume  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFFFEFD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Nominal value </t>
+  </si>
+  <si>
+    <t>3,100 pcs and 2 t</t>
+  </si>
+  <si>
+    <t>343,800 pcs and 22 t</t>
+  </si>
+  <si>
+    <t>4,419 pcs and 11 t</t>
+  </si>
+  <si>
+    <t>13-6</t>
+  </si>
+  <si>
+    <t>FY 2020 [1]</t>
+  </si>
+  <si>
+    <t>FY 2021 [2]</t>
+  </si>
+  <si>
+    <t>Fishing contribution to GDP</t>
+  </si>
+  <si>
+    <t>Palau GDP (purchaser price)</t>
+  </si>
+  <si>
+    <t>% fishing of Palau GPD</t>
+  </si>
+  <si>
+    <t>The fishing contribution to GDP (US$ millions)</t>
+  </si>
+  <si>
+    <t>13-7</t>
+  </si>
+  <si>
+    <t>(US$, from Table 13-5)</t>
+  </si>
+  <si>
+    <t>13-8</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Non-commercial</t>
+  </si>
+  <si>
+    <t>Volume of fishery exports of Palau (pounds)</t>
+  </si>
+  <si>
+    <t>HS 03 exports</t>
+  </si>
+  <si>
+    <t>HS 03 as % of total exports</t>
+  </si>
+  <si>
+    <t>Value of the fishery exports of Palau (thousands of US$)</t>
+  </si>
+  <si>
+    <t>13-10</t>
+  </si>
+  <si>
+    <t>Fees from longlining</t>
+  </si>
+  <si>
+    <t>Fees from purse seining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total fees  </t>
+  </si>
+  <si>
+    <t>(for calendar year)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total government revenue </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FFFFFEFD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(for FY)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Access fees as % of total </t>
+  </si>
+  <si>
+    <t>government revenue</t>
+  </si>
+  <si>
+    <t>Access fees (US$ millions) compared to total government revenue (%)</t>
+  </si>
+  <si>
+    <t>13-11</t>
+  </si>
 </sst>
 </file>
 
@@ -1537,7 +1980,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1622,8 +2065,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FFFFFEFD"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1648,8 +2097,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="64">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -2424,11 +2879,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF6C6D6D"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF8A8B8B"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2906,6 +3372,90 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2918,15 +3468,6 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2948,24 +3489,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2996,21 +3519,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3023,6 +3546,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3032,6 +3573,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3047,119 +3600,189 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3519,14 +4142,1271 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85B7440-200D-4365-B478-6E82DD36A6D3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57:G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="7">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8">
+        <v>135000</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="E2" s="141" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7">
+        <v>160</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1680000</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="E3" s="141" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="E4" s="141" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="E5" s="141" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="E6" s="141" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="E7" s="141" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="7">
+        <v>169</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1815000</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="E8" s="141" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1999</v>
+      </c>
+      <c r="C11" s="7">
+        <v>12</v>
+      </c>
+      <c r="D11" s="19">
+        <v>96000</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="141" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="189"/>
+      <c r="B12" s="7">
+        <v>2007</v>
+      </c>
+      <c r="C12" s="7">
+        <v>10</v>
+      </c>
+      <c r="D12" s="19">
+        <v>80000</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="141" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="189"/>
+      <c r="B13" s="7">
+        <v>2014</v>
+      </c>
+      <c r="C13" s="7">
+        <v>11</v>
+      </c>
+      <c r="D13" s="19">
+        <v>148500</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="141" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="202"/>
+      <c r="B14" s="69">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="69">
+        <v>9</v>
+      </c>
+      <c r="D14" s="50">
+        <v>135000</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="141" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="203" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="20">
+        <v>1999</v>
+      </c>
+      <c r="C15" s="20">
+        <v>194</v>
+      </c>
+      <c r="D15" s="21">
+        <v>315640</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="141" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="196"/>
+      <c r="B16" s="20">
+        <v>2007</v>
+      </c>
+      <c r="C16" s="20">
+        <v>140</v>
+      </c>
+      <c r="D16" s="21">
+        <v>840000</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="141" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="196"/>
+      <c r="B17" s="20">
+        <v>2014</v>
+      </c>
+      <c r="C17" s="20">
+        <v>154</v>
+      </c>
+      <c r="D17" s="21">
+        <v>1455300</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="141" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="204"/>
+      <c r="B18" s="20">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="20">
+        <v>160</v>
+      </c>
+      <c r="D18" s="21">
+        <v>1680000</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="141" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="248" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1999</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="141" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="247"/>
+      <c r="B20" s="7">
+        <v>2007</v>
+      </c>
+      <c r="C20" s="7">
+        <v>640</v>
+      </c>
+      <c r="D20" s="19">
+        <v>2508000</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="141" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="247"/>
+      <c r="B21" s="7">
+        <v>2014</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="141" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="249"/>
+      <c r="B22" s="69">
+        <v>2021</v>
+      </c>
+      <c r="C22" s="69">
+        <v>0</v>
+      </c>
+      <c r="D22" s="51">
+        <v>0</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="141" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="203" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="20">
+        <v>1999</v>
+      </c>
+      <c r="C23" s="20">
+        <v>2</v>
+      </c>
+      <c r="D23" s="21">
+        <v>8000</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="141" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="196"/>
+      <c r="B24" s="20">
+        <v>2007</v>
+      </c>
+      <c r="C24" s="20">
+        <v>0</v>
+      </c>
+      <c r="D24" s="22">
+        <v>0</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="141" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="196"/>
+      <c r="B25" s="20">
+        <v>2014</v>
+      </c>
+      <c r="C25" s="20">
+        <v>547</v>
+      </c>
+      <c r="D25" s="21">
+        <v>1944943</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="141" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="204"/>
+      <c r="B26" s="20">
+        <v>2021</v>
+      </c>
+      <c r="C26" s="20">
+        <v>0</v>
+      </c>
+      <c r="D26" s="22">
+        <v>0</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="141" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="188" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1999</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="141" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="189"/>
+      <c r="B28" s="7">
+        <v>2007</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="141" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="189"/>
+      <c r="B29" s="7">
+        <v>2014</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="141" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="202"/>
+      <c r="B30" s="69">
+        <v>2021</v>
+      </c>
+      <c r="C30" s="69">
+        <v>0</v>
+      </c>
+      <c r="D30" s="51">
+        <v>0</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="141" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="203" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="20">
+        <v>1999</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="141" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="196"/>
+      <c r="B32" s="20">
+        <v>2007</v>
+      </c>
+      <c r="C32" s="20">
+        <v>0</v>
+      </c>
+      <c r="D32" s="22">
+        <v>0</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="141" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="196"/>
+      <c r="B33" s="20">
+        <v>2014</v>
+      </c>
+      <c r="C33" s="20">
+        <v>0</v>
+      </c>
+      <c r="D33" s="22">
+        <v>0</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="141" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="197"/>
+      <c r="B34" s="24">
+        <v>2021</v>
+      </c>
+      <c r="C34" s="24">
+        <v>0</v>
+      </c>
+      <c r="D34" s="177">
+        <v>0</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="141" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C36" s="4">
+        <v>2016</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E36" s="5">
+        <v>2018</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="B37" s="119">
+        <v>33749</v>
+      </c>
+      <c r="C37" s="8">
+        <v>35066</v>
+      </c>
+      <c r="D37" s="8">
+        <v>36536</v>
+      </c>
+      <c r="E37" s="68">
+        <v>43536</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="G37" s="141" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="B38" s="119">
+        <v>5200</v>
+      </c>
+      <c r="C38" s="119">
+        <v>5262</v>
+      </c>
+      <c r="D38" s="119">
+        <v>5448</v>
+      </c>
+      <c r="E38" s="68">
+        <v>5538</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="G38" s="141" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="42" t="s">
+        <v>405</v>
+      </c>
+      <c r="B39" s="148">
+        <v>0.154</v>
+      </c>
+      <c r="C39" s="250">
+        <v>0.15</v>
+      </c>
+      <c r="D39" s="14">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="E39" s="151">
+        <v>0.127</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="G39" s="141" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:7" ht="48" x14ac:dyDescent="0.25">
+      <c r="A41" s="205" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="217" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="219" t="s">
+        <v>409</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="206"/>
+      <c r="B42" s="135" t="s">
+        <v>408</v>
+      </c>
+      <c r="C42" s="218"/>
+      <c r="D42" s="220"/>
+      <c r="E42" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="F42" s="141" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="251" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="8">
+        <v>135000</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="D43" s="8">
+        <v>87750</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="F43" s="141" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="251" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="8">
+        <v>1680000</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1428000</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="F44" s="141" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="251" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="7">
+        <v>0</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="F45" s="141" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="251" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="F46" s="141" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="251" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="7">
+        <v>0</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="F47" s="141" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="251" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="8">
+        <v>1815000</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="8">
+        <v>1515750</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="F48" s="141" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:7" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="145" t="s">
+        <v>365</v>
+      </c>
+      <c r="B51" s="8">
+        <v>1191956</v>
+      </c>
+      <c r="C51" s="8">
+        <v>29518085</v>
+      </c>
+      <c r="D51" s="252">
+        <v>0.04</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="F51" s="141" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="145" t="s">
+        <v>366</v>
+      </c>
+      <c r="B52" s="8">
+        <v>1524624</v>
+      </c>
+      <c r="C52" s="8">
+        <v>28056598</v>
+      </c>
+      <c r="D52" s="252">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="F52" s="141" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="145" t="s">
+        <v>367</v>
+      </c>
+      <c r="B53" s="8">
+        <v>1487130</v>
+      </c>
+      <c r="C53" s="8">
+        <v>27294277</v>
+      </c>
+      <c r="D53" s="252">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="F53" s="141" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="145" t="s">
+        <v>368</v>
+      </c>
+      <c r="B54" s="8">
+        <v>868065</v>
+      </c>
+      <c r="C54" s="8">
+        <v>25125223</v>
+      </c>
+      <c r="D54" s="252">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="F54" s="141" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="B55" s="80">
+        <v>1298136</v>
+      </c>
+      <c r="C55" s="80">
+        <v>29920073</v>
+      </c>
+      <c r="D55" s="15">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="F55" s="141" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="71" t="s">
+        <v>349</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="B58" s="114">
+        <v>264</v>
+      </c>
+      <c r="C58" s="114">
+        <v>264</v>
+      </c>
+      <c r="D58" s="62">
+        <v>264</v>
+      </c>
+      <c r="E58" s="150">
+        <v>792</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="G58" s="141" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="B59" s="119">
+        <v>1137</v>
+      </c>
+      <c r="C59" s="114">
+        <v>982</v>
+      </c>
+      <c r="D59" s="62">
+        <v>968</v>
+      </c>
+      <c r="E59" s="68">
+        <v>3087</v>
+      </c>
+      <c r="F59" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="G59" s="141" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="B60" s="114">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="C60" s="114">
+        <v>3.72</v>
+      </c>
+      <c r="D60" s="62">
+        <v>3.67</v>
+      </c>
+      <c r="E60" s="150">
+        <v>3.9</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="G60" s="141" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="40" t="s">
+        <v>423</v>
+      </c>
+      <c r="B61" s="253">
+        <v>5051.5</v>
+      </c>
+      <c r="C61" s="132">
+        <v>4404.5</v>
+      </c>
+      <c r="D61" s="132">
+        <v>4725.7</v>
+      </c>
+      <c r="E61" s="133">
+        <v>14181.7</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="G61" s="141" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="40" t="s">
+        <v>424</v>
+      </c>
+      <c r="B62" s="62">
+        <v>19.13</v>
+      </c>
+      <c r="C62" s="62">
+        <v>16.68</v>
+      </c>
+      <c r="D62" s="62">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E62" s="254">
+        <v>17.91</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="G62" s="141" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="B63" s="255">
+        <v>0.72140000000000004</v>
+      </c>
+      <c r="C63" s="10">
+        <v>0.74809999999999999</v>
+      </c>
+      <c r="D63" s="256">
+        <v>0.72540000000000004</v>
+      </c>
+      <c r="E63" s="252">
+        <v>0.73119999999999996</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="G63" s="141" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="40" t="s">
+        <v>426</v>
+      </c>
+      <c r="B64" s="255">
+        <v>0.19289999999999999</v>
+      </c>
+      <c r="C64" s="10">
+        <v>0.1221</v>
+      </c>
+      <c r="D64" s="256">
+        <v>0.17610000000000001</v>
+      </c>
+      <c r="E64" s="252">
+        <v>0.1646</v>
+      </c>
+      <c r="F64" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="G64" s="141" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="B65" s="255">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="C65" s="255">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="D65" s="10">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="E65" s="257">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="G65" s="141" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="B66" s="258">
+        <v>0</v>
+      </c>
+      <c r="C66" s="258">
+        <v>0</v>
+      </c>
+      <c r="D66" s="258">
+        <v>0</v>
+      </c>
+      <c r="E66" s="259">
+        <v>0</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="G66" s="141" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="B67" s="255">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="C67" s="255">
+        <v>6.1100000000000002E-2</v>
+      </c>
+      <c r="D67" s="10">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="E67" s="257">
+        <v>3.39E-2</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="G67" s="141" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="42" t="s">
+        <v>430</v>
+      </c>
+      <c r="B68" s="117">
+        <v>39</v>
+      </c>
+      <c r="C68" s="117">
+        <v>33</v>
+      </c>
+      <c r="D68" s="117">
+        <v>39</v>
+      </c>
+      <c r="E68" s="260">
+        <v>111</v>
+      </c>
+      <c r="F68" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="G68" s="141" t="s">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3545,12 +5425,1929 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32232856-7AED-4718-8829-164EB775B642}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96:H103"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B2" s="101" t="s">
+        <v>435</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="E2" s="141" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="E3" s="141" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4" s="101" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="E4" s="141" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B5" s="101" t="s">
+        <v>441</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="E5" s="141" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B6" s="101" t="s">
+        <v>443</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="E6" s="141" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B7" s="101" t="s">
+        <v>445</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="E7" s="141" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B8" s="101" t="s">
+        <v>447</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="E8" s="141" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B9" s="101" t="s">
+        <v>449</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="E9" s="141" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B10" s="101" t="s">
+        <v>451</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="E10" s="141" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>456</v>
+      </c>
+      <c r="B11" s="107" t="s">
+        <v>453</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>454</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="E11" s="141" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="145">
+        <v>2021</v>
+      </c>
+      <c r="B14" s="7">
+        <v>27</v>
+      </c>
+      <c r="C14" s="7">
+        <v>39</v>
+      </c>
+      <c r="D14" s="12">
+        <v>66</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="F14" s="141" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="145">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="7">
+        <v>34</v>
+      </c>
+      <c r="C15" s="7">
+        <v>49</v>
+      </c>
+      <c r="D15" s="12">
+        <v>83</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="F15" s="141" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="145">
+        <v>2019</v>
+      </c>
+      <c r="B16" s="7">
+        <v>34</v>
+      </c>
+      <c r="C16" s="7">
+        <v>61</v>
+      </c>
+      <c r="D16" s="12">
+        <v>95</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="F16" s="141" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="145">
+        <v>2018</v>
+      </c>
+      <c r="B17" s="7">
+        <v>35</v>
+      </c>
+      <c r="C17" s="7">
+        <v>47</v>
+      </c>
+      <c r="D17" s="12">
+        <v>82</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="F17" s="141" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="72">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="69">
+        <v>23</v>
+      </c>
+      <c r="C18" s="69">
+        <v>32</v>
+      </c>
+      <c r="D18" s="51">
+        <v>55</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="F18" s="141" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="145">
+        <v>2021</v>
+      </c>
+      <c r="B21" s="86">
+        <v>3.36</v>
+      </c>
+      <c r="C21" s="147">
+        <v>897.06</v>
+      </c>
+      <c r="D21" s="147">
+        <v>314.52999999999997</v>
+      </c>
+      <c r="E21" s="86">
+        <v>99.97</v>
+      </c>
+      <c r="F21" s="261">
+        <v>1314.92</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="H21" s="141" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="145">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="86">
+        <v>0.61</v>
+      </c>
+      <c r="C22" s="147">
+        <v>454.68</v>
+      </c>
+      <c r="D22" s="147">
+        <v>105.53</v>
+      </c>
+      <c r="E22" s="86">
+        <v>51.07</v>
+      </c>
+      <c r="F22" s="262">
+        <v>611.89</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="H22" s="141" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="145">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="86">
+        <v>3.44</v>
+      </c>
+      <c r="C23" s="86">
+        <v>54.34</v>
+      </c>
+      <c r="D23" s="86">
+        <v>30.47</v>
+      </c>
+      <c r="E23" s="86">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="F23" s="137">
+        <v>93.19</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="H23" s="141" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="145">
+        <v>2018</v>
+      </c>
+      <c r="B24" s="114">
+        <v>0</v>
+      </c>
+      <c r="C24" s="86">
+        <v>19.05</v>
+      </c>
+      <c r="D24" s="86">
+        <v>5.88</v>
+      </c>
+      <c r="E24" s="86">
+        <v>1.06</v>
+      </c>
+      <c r="F24" s="137">
+        <v>25.99</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="H24" s="141" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="72">
+        <v>2017</v>
+      </c>
+      <c r="B25" s="263">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="C25" s="264">
+        <v>1211.1400000000001</v>
+      </c>
+      <c r="D25" s="263">
+        <v>504.9</v>
+      </c>
+      <c r="E25" s="265">
+        <v>105.62</v>
+      </c>
+      <c r="F25" s="266">
+        <v>1824.13</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="H25" s="141" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="55" t="s">
+        <v>467</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="145">
+        <v>2021</v>
+      </c>
+      <c r="B28" s="85">
+        <v>0</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="H28" s="141" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="145">
+        <v>2020</v>
+      </c>
+      <c r="B29" s="85">
+        <v>0</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="12">
+        <v>0</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="H29" s="141" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="145">
+        <v>2019</v>
+      </c>
+      <c r="B30" s="85">
+        <v>0</v>
+      </c>
+      <c r="C30" s="53">
+        <v>1918.99</v>
+      </c>
+      <c r="D30" s="7">
+        <v>382.92</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="F30" s="133">
+        <v>2302.69</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="H30" s="141" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="145">
+        <v>2018</v>
+      </c>
+      <c r="B31" s="86">
+        <v>24</v>
+      </c>
+      <c r="C31" s="8">
+        <v>3131</v>
+      </c>
+      <c r="D31" s="7">
+        <v>710</v>
+      </c>
+      <c r="E31" s="7">
+        <v>3</v>
+      </c>
+      <c r="F31" s="133">
+        <v>3868</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="H31" s="141" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="72">
+        <v>2017</v>
+      </c>
+      <c r="B32" s="267">
+        <v>0</v>
+      </c>
+      <c r="C32" s="80">
+        <v>3270</v>
+      </c>
+      <c r="D32" s="80">
+        <v>1648</v>
+      </c>
+      <c r="E32" s="69">
+        <v>4</v>
+      </c>
+      <c r="F32" s="268">
+        <v>4928</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="H32" s="141" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C35" s="19">
+        <v>5510000</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="E35" s="141" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="8">
+        <v>1400</v>
+      </c>
+      <c r="C36" s="19">
+        <v>5399800</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="E36" s="141" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="7">
+        <v>41</v>
+      </c>
+      <c r="C37" s="19">
+        <v>395250</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="E37" s="141" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="8">
+        <v>1315</v>
+      </c>
+      <c r="C38" s="19">
+        <v>10968872</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="E38" s="141" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="7">
+        <v>1</v>
+      </c>
+      <c r="C39" s="19">
+        <v>10000</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="E39" s="141" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C40" s="19">
+        <v>89000</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="E40" s="141" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="69" t="s">
+        <v>474</v>
+      </c>
+      <c r="C41" s="50">
+        <v>22372922</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="E41" s="141" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="A43" s="205" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="275" t="s">
+        <v>478</v>
+      </c>
+      <c r="C43" s="276"/>
+      <c r="D43" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="206"/>
+      <c r="B44" s="277"/>
+      <c r="C44" s="278"/>
+      <c r="D44" s="136" t="s">
+        <v>288</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="141" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="7">
+        <v>1999</v>
+      </c>
+      <c r="C45" s="7">
+        <v>865</v>
+      </c>
+      <c r="D45" s="120">
+        <v>2595000</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="141" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="189"/>
+      <c r="B46" s="7">
+        <v>2007</v>
+      </c>
+      <c r="C46" s="7">
+        <v>865</v>
+      </c>
+      <c r="D46" s="120">
+        <v>2843000</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="141" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="189"/>
+      <c r="B47" s="7">
+        <v>2014</v>
+      </c>
+      <c r="C47" s="7">
+        <v>865</v>
+      </c>
+      <c r="D47" s="120">
+        <v>3200000</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="141" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="202"/>
+      <c r="B48" s="69">
+        <v>2021</v>
+      </c>
+      <c r="C48" s="80">
+        <v>1000</v>
+      </c>
+      <c r="D48" s="108">
+        <v>5510000</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="141" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="203" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="20">
+        <v>1999</v>
+      </c>
+      <c r="C49" s="23">
+        <v>1250</v>
+      </c>
+      <c r="D49" s="111">
+        <v>2500000</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="141" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="196"/>
+      <c r="B50" s="20">
+        <v>2007</v>
+      </c>
+      <c r="C50" s="23">
+        <v>1250</v>
+      </c>
+      <c r="D50" s="111">
+        <v>2511000</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="141" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="196"/>
+      <c r="B51" s="20">
+        <v>2014</v>
+      </c>
+      <c r="C51" s="23">
+        <v>1250</v>
+      </c>
+      <c r="D51" s="111">
+        <v>3300000</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="141" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="204"/>
+      <c r="B52" s="20">
+        <v>2021</v>
+      </c>
+      <c r="C52" s="23">
+        <v>1400</v>
+      </c>
+      <c r="D52" s="111">
+        <v>5399800</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="141" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="188" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="7">
+        <v>1999</v>
+      </c>
+      <c r="C53" s="8">
+        <v>2500</v>
+      </c>
+      <c r="D53" s="120">
+        <v>12500000</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="141" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="189"/>
+      <c r="B54" s="7">
+        <v>2007</v>
+      </c>
+      <c r="C54" s="8">
+        <v>3030</v>
+      </c>
+      <c r="D54" s="120">
+        <v>13779656</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="141" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="189"/>
+      <c r="B55" s="7">
+        <v>2014</v>
+      </c>
+      <c r="C55" s="8">
+        <v>3987</v>
+      </c>
+      <c r="D55" s="120">
+        <v>31471000</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" s="141" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="202"/>
+      <c r="B56" s="69">
+        <v>2021</v>
+      </c>
+      <c r="C56" s="69">
+        <v>41</v>
+      </c>
+      <c r="D56" s="269">
+        <v>395250</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="141" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="203" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="20">
+        <v>1999</v>
+      </c>
+      <c r="C57" s="20">
+        <v>124</v>
+      </c>
+      <c r="D57" s="270">
+        <v>270000</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="141" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="196"/>
+      <c r="B58" s="20">
+        <v>2007</v>
+      </c>
+      <c r="C58" s="23">
+        <v>1464</v>
+      </c>
+      <c r="D58" s="111">
+        <v>4947496</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" s="141" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="196"/>
+      <c r="B59" s="20">
+        <v>2014</v>
+      </c>
+      <c r="C59" s="23">
+        <v>4017</v>
+      </c>
+      <c r="D59" s="111">
+        <v>18555070</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" s="141" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="204"/>
+      <c r="B60" s="20">
+        <v>2021</v>
+      </c>
+      <c r="C60" s="23">
+        <v>1315</v>
+      </c>
+      <c r="D60" s="111">
+        <v>10968872</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="141" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="188" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="7">
+        <v>1999</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="271" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="141" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="189"/>
+      <c r="B62" s="7">
+        <v>2007</v>
+      </c>
+      <c r="C62" s="7">
+        <v>1</v>
+      </c>
+      <c r="D62" s="272">
+        <v>8000</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="141" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="202"/>
+      <c r="B63" s="69">
+        <v>2014</v>
+      </c>
+      <c r="C63" s="69">
+        <v>1</v>
+      </c>
+      <c r="D63" s="269">
+        <v>10000</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63" s="141" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="203" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="20">
+        <v>1999</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="273" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="141" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="196"/>
+      <c r="B65" s="20">
+        <v>2007</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="D65" s="270">
+        <v>50000</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="141" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="196"/>
+      <c r="B66" s="20">
+        <v>2014</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="D66" s="270">
+        <v>285000</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" s="141" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="197"/>
+      <c r="B67" s="24">
+        <v>2021</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="D67" s="274">
+        <v>89000</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" s="141" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2"/>
+      <c r="B69" s="279" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="279" t="s">
+        <v>279</v>
+      </c>
+      <c r="D69" s="280" t="s">
+        <v>484</v>
+      </c>
+      <c r="E69" s="280" t="s">
+        <v>485</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="B70" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="C70" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D70" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E70" s="12">
+        <v>4.3</v>
+      </c>
+      <c r="F70" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="G70" s="141" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="40" t="s">
+        <v>487</v>
+      </c>
+      <c r="B71" s="7">
+        <v>284.89999999999998</v>
+      </c>
+      <c r="C71" s="7">
+        <v>278.89999999999998</v>
+      </c>
+      <c r="D71" s="7">
+        <v>251.9</v>
+      </c>
+      <c r="E71" s="12">
+        <v>217.8</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="G71" s="141" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="B72" s="14">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C72" s="14">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D72" s="14">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E72" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F72" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="G72" s="141" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:7" ht="48" x14ac:dyDescent="0.25">
+      <c r="A74" s="281" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="217" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="282"/>
+      <c r="B75" s="135" t="s">
+        <v>491</v>
+      </c>
+      <c r="C75" s="218"/>
+      <c r="D75" s="136" t="s">
+        <v>288</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F75" s="141" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" s="8">
+        <v>5510000</v>
+      </c>
+      <c r="C76" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D76" s="19">
+        <v>3857000</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F76" s="141" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" s="8">
+        <v>5399800</v>
+      </c>
+      <c r="C77" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="D77" s="19">
+        <v>4319840</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F77" s="141" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="8">
+        <v>395250</v>
+      </c>
+      <c r="C78" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="D78" s="19">
+        <v>79050</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F78" s="141" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" s="8">
+        <v>10000</v>
+      </c>
+      <c r="C79" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="D79" s="19">
+        <v>9500</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F79" s="141" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" s="8">
+        <v>89000</v>
+      </c>
+      <c r="C80" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D80" s="19">
+        <v>53400</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F80" s="141" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="80">
+        <v>11404050</v>
+      </c>
+      <c r="C81" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="D81" s="50">
+        <v>8318790</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F81" s="141" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2"/>
+      <c r="B83" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C83" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D83" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E83" s="5">
+        <v>2021</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="40" t="s">
+        <v>493</v>
+      </c>
+      <c r="B84" s="179">
+        <v>24685</v>
+      </c>
+      <c r="C84" s="179">
+        <v>21696</v>
+      </c>
+      <c r="D84" s="179">
+        <v>4158</v>
+      </c>
+      <c r="E84" s="150">
+        <v>0</v>
+      </c>
+      <c r="F84" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="G84" s="141" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="B85" s="179">
+        <v>200000</v>
+      </c>
+      <c r="C85" s="179">
+        <v>202491</v>
+      </c>
+      <c r="D85" s="179">
+        <v>40000</v>
+      </c>
+      <c r="E85" s="283">
+        <v>21135</v>
+      </c>
+      <c r="F85" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="G85" s="141" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" s="284">
+        <v>224685</v>
+      </c>
+      <c r="C86" s="284">
+        <v>224187</v>
+      </c>
+      <c r="D86" s="284">
+        <v>44158</v>
+      </c>
+      <c r="E86" s="285">
+        <v>21135</v>
+      </c>
+      <c r="F86" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="G86" s="141" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2"/>
+      <c r="B88" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="286">
+        <v>2017</v>
+      </c>
+      <c r="B89" s="287">
+        <v>1291</v>
+      </c>
+      <c r="C89" s="287">
+        <v>6420</v>
+      </c>
+      <c r="D89" s="288">
+        <v>20.11</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="F89" s="141" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="286">
+        <v>2018</v>
+      </c>
+      <c r="B90" s="289">
+        <v>813</v>
+      </c>
+      <c r="C90" s="287">
+        <v>4481</v>
+      </c>
+      <c r="D90" s="288">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="F90" s="141" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="286">
+        <v>2019</v>
+      </c>
+      <c r="B91" s="289">
+        <v>139</v>
+      </c>
+      <c r="C91" s="287">
+        <v>4292</v>
+      </c>
+      <c r="D91" s="288">
+        <v>3.23</v>
+      </c>
+      <c r="E91" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="F91" s="141" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="286">
+        <v>2020</v>
+      </c>
+      <c r="B92" s="289">
+        <v>340</v>
+      </c>
+      <c r="C92" s="287">
+        <v>6747</v>
+      </c>
+      <c r="D92" s="288">
+        <v>5.04</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="F92" s="141" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="290">
+        <v>2021</v>
+      </c>
+      <c r="B93" s="291">
+        <v>319</v>
+      </c>
+      <c r="C93" s="292">
+        <v>1951</v>
+      </c>
+      <c r="D93" s="293">
+        <v>16.34</v>
+      </c>
+      <c r="E93" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="F93" s="141" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A95" s="295"/>
+      <c r="B95" s="297" t="s">
+        <v>500</v>
+      </c>
+      <c r="C95" s="299" t="s">
+        <v>501</v>
+      </c>
+      <c r="D95" s="46" t="s">
+        <v>502</v>
+      </c>
+      <c r="E95" s="242" t="s">
+        <v>504</v>
+      </c>
+      <c r="F95" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="296"/>
+      <c r="B96" s="298"/>
+      <c r="C96" s="300"/>
+      <c r="D96" s="294" t="s">
+        <v>503</v>
+      </c>
+      <c r="E96" s="243"/>
+      <c r="F96" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="G96" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="H96" s="141" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="40">
+        <v>2015</v>
+      </c>
+      <c r="B97" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="C97" s="7">
+        <v>6.72</v>
+      </c>
+      <c r="D97" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="E97" s="7">
+        <v>114.864</v>
+      </c>
+      <c r="F97" s="252">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G97" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="H97" s="141" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="40">
+        <v>2016</v>
+      </c>
+      <c r="B98" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="C98" s="7">
+        <v>5.79</v>
+      </c>
+      <c r="D98" s="7">
+        <v>6.77</v>
+      </c>
+      <c r="E98" s="7">
+        <v>124.70099999999999</v>
+      </c>
+      <c r="F98" s="252">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="G98" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="H98" s="141" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="40">
+        <v>2017</v>
+      </c>
+      <c r="B99" s="7">
+        <v>1.43</v>
+      </c>
+      <c r="C99" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D99" s="7">
+        <v>10.63</v>
+      </c>
+      <c r="E99" s="7">
+        <v>114.962</v>
+      </c>
+      <c r="F99" s="252">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="G99" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="H99" s="141" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="40">
+        <v>2018</v>
+      </c>
+      <c r="B100" s="7">
+        <v>1.31</v>
+      </c>
+      <c r="C100" s="7">
+        <v>8.84</v>
+      </c>
+      <c r="D100" s="7">
+        <v>10.16</v>
+      </c>
+      <c r="E100" s="7">
+        <v>126.733</v>
+      </c>
+      <c r="F100" s="252">
+        <v>0.08</v>
+      </c>
+      <c r="G100" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="H100" s="141" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="40">
+        <v>2019</v>
+      </c>
+      <c r="B101" s="7">
+        <v>1.26</v>
+      </c>
+      <c r="C101" s="7">
+        <v>9.09</v>
+      </c>
+      <c r="D101" s="7">
+        <v>10.36</v>
+      </c>
+      <c r="E101" s="7">
+        <v>119.42100000000001</v>
+      </c>
+      <c r="F101" s="252">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="G101" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="H101" s="141" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="40">
+        <v>2020</v>
+      </c>
+      <c r="B102" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="C102" s="7">
+        <v>8.06</v>
+      </c>
+      <c r="D102" s="7">
+        <v>8.57</v>
+      </c>
+      <c r="E102" s="7">
+        <v>127.75700000000001</v>
+      </c>
+      <c r="F102" s="252">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G102" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="H102" s="141" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="42">
+        <v>2021</v>
+      </c>
+      <c r="B103" s="69">
+        <v>0.25</v>
+      </c>
+      <c r="C103" s="69">
+        <v>7.61</v>
+      </c>
+      <c r="D103" s="69">
+        <v>7.87</v>
+      </c>
+      <c r="E103" s="69">
+        <v>112.89400000000001</v>
+      </c>
+      <c r="F103" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G103" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="H103" s="141" t="s">
+        <v>508</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:C44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A56"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3958,7 +7755,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="177" t="s">
+      <c r="A14" s="182" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="7">
@@ -3978,7 +7775,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="178"/>
+      <c r="A15" s="183"/>
       <c r="B15" s="7">
         <v>2007</v>
       </c>
@@ -3996,7 +7793,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="178"/>
+      <c r="A16" s="183"/>
       <c r="B16" s="7">
         <v>2014</v>
       </c>
@@ -4014,7 +7811,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="179"/>
+      <c r="A17" s="184"/>
       <c r="B17" s="7">
         <v>2021</v>
       </c>
@@ -4032,7 +7829,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="180" t="s">
+      <c r="A18" s="185" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="20">
@@ -4052,7 +7849,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="181"/>
+      <c r="A19" s="186"/>
       <c r="B19" s="20">
         <v>2007</v>
       </c>
@@ -4070,7 +7867,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="181"/>
+      <c r="A20" s="186"/>
       <c r="B20" s="20">
         <v>2014</v>
       </c>
@@ -4088,7 +7885,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="182"/>
+      <c r="A21" s="187"/>
       <c r="B21" s="20">
         <v>2021</v>
       </c>
@@ -4106,7 +7903,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="167" t="s">
+      <c r="A22" s="188" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="7">
@@ -4126,7 +7923,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="168"/>
+      <c r="A23" s="189"/>
       <c r="B23" s="7">
         <v>2007</v>
       </c>
@@ -4144,7 +7941,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="168"/>
+      <c r="A24" s="189"/>
       <c r="B24" s="7">
         <v>2014</v>
       </c>
@@ -4162,7 +7959,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="169"/>
+      <c r="A25" s="190"/>
       <c r="B25" s="7">
         <v>2021</v>
       </c>
@@ -4180,7 +7977,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="180" t="s">
+      <c r="A26" s="185" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="20">
@@ -4200,7 +7997,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="181"/>
+      <c r="A27" s="186"/>
       <c r="B27" s="20">
         <v>2007</v>
       </c>
@@ -4218,7 +8015,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="181"/>
+      <c r="A28" s="186"/>
       <c r="B28" s="20">
         <v>2014</v>
       </c>
@@ -4236,7 +8033,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="182"/>
+      <c r="A29" s="187"/>
       <c r="B29" s="20">
         <v>2021</v>
       </c>
@@ -4254,7 +8051,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="167" t="s">
+      <c r="A30" s="188" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="7">
@@ -4274,7 +8071,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="168"/>
+      <c r="A31" s="189"/>
       <c r="B31" s="7">
         <v>2007</v>
       </c>
@@ -4292,7 +8089,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="168"/>
+      <c r="A32" s="189"/>
       <c r="B32" s="7">
         <v>2014</v>
       </c>
@@ -4310,7 +8107,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="169"/>
+      <c r="A33" s="190"/>
       <c r="B33" s="7">
         <v>2021</v>
       </c>
@@ -4328,7 +8125,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="170" t="s">
+      <c r="A34" s="195" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="20">
@@ -4348,7 +8145,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="171"/>
+      <c r="A35" s="196"/>
       <c r="B35" s="20">
         <v>2007</v>
       </c>
@@ -4366,7 +8163,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="171"/>
+      <c r="A36" s="196"/>
       <c r="B36" s="20">
         <v>2014</v>
       </c>
@@ -4384,7 +8181,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="172"/>
+      <c r="A37" s="197"/>
       <c r="B37" s="24">
         <v>2021</v>
       </c>
@@ -4631,13 +8428,13 @@
       <c r="H50" s="31"/>
     </row>
     <row r="51" spans="1:10" ht="24" x14ac:dyDescent="0.25">
-      <c r="A51" s="173" t="s">
+      <c r="A51" s="198" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="175" t="s">
+      <c r="C51" s="200" t="s">
         <v>45</v>
       </c>
       <c r="D51" s="47" t="s">
@@ -4653,11 +8450,11 @@
       <c r="H51" s="31"/>
     </row>
     <row r="52" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="174"/>
+      <c r="A52" s="199"/>
       <c r="B52" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="176"/>
+      <c r="C52" s="201"/>
       <c r="D52" s="48" t="s">
         <v>47</v>
       </c>
@@ -5346,19 +9143,19 @@
       <c r="A81" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B81" s="163">
+      <c r="B81" s="191">
         <v>0.248</v>
       </c>
-      <c r="C81" s="163">
+      <c r="C81" s="191">
         <v>0.08</v>
       </c>
-      <c r="D81" s="163">
+      <c r="D81" s="191">
         <v>0.152</v>
       </c>
-      <c r="E81" s="163">
+      <c r="E81" s="191">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F81" s="165">
+      <c r="F81" s="193">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G81" s="30" t="s">
@@ -5372,11 +9169,11 @@
       <c r="A82" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B82" s="164"/>
-      <c r="C82" s="164"/>
-      <c r="D82" s="164"/>
-      <c r="E82" s="164"/>
-      <c r="F82" s="166"/>
+      <c r="B82" s="192"/>
+      <c r="C82" s="192"/>
+      <c r="D82" s="192"/>
+      <c r="E82" s="192"/>
+      <c r="F82" s="194"/>
       <c r="G82" s="30" t="s">
         <v>70</v>
       </c>
@@ -5451,11 +9248,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="D81:D82"/>
     <mergeCell ref="E81:E82"/>
     <mergeCell ref="F81:F82"/>
     <mergeCell ref="A30:A33"/>
@@ -5464,6 +9256,11 @@
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="B81:B82"/>
     <mergeCell ref="C81:C82"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="D81:D82"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5596,7 +9393,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="36" x14ac:dyDescent="0.25">
-      <c r="A5" s="186" t="s">
+      <c r="A5" s="205" t="s">
         <v>156</v>
       </c>
       <c r="B5" s="46" t="s">
@@ -5613,7 +9410,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="187"/>
+      <c r="A6" s="206"/>
       <c r="B6" s="135" t="s">
         <v>158</v>
       </c>
@@ -5714,10 +9511,10 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="207" t="s">
         <v>172</v>
       </c>
-      <c r="B13" s="189"/>
+      <c r="B13" s="208"/>
       <c r="C13" s="75" t="s">
         <v>173</v>
       </c>
@@ -5732,7 +9529,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="190" t="s">
+      <c r="A14" s="209" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="7">
@@ -5752,7 +9549,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="191"/>
+      <c r="A15" s="210"/>
       <c r="B15" s="7">
         <v>2007</v>
       </c>
@@ -5770,7 +9567,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="191"/>
+      <c r="A16" s="210"/>
       <c r="B16" s="7">
         <v>2014</v>
       </c>
@@ -5788,7 +9585,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="192"/>
+      <c r="A17" s="211"/>
       <c r="B17" s="69">
         <v>2021</v>
       </c>
@@ -5806,7 +9603,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="184" t="s">
+      <c r="A18" s="203" t="s">
         <v>175</v>
       </c>
       <c r="B18" s="20">
@@ -5826,7 +9623,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="171"/>
+      <c r="A19" s="196"/>
       <c r="B19" s="20">
         <v>2007</v>
       </c>
@@ -5844,7 +9641,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="171"/>
+      <c r="A20" s="196"/>
       <c r="B20" s="20">
         <v>2014</v>
       </c>
@@ -5862,7 +9659,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="185"/>
+      <c r="A21" s="204"/>
       <c r="B21" s="20">
         <v>2021</v>
       </c>
@@ -5880,7 +9677,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="167" t="s">
+      <c r="A22" s="188" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="7">
@@ -5900,7 +9697,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="168"/>
+      <c r="A23" s="189"/>
       <c r="B23" s="7">
         <v>2007</v>
       </c>
@@ -5918,7 +9715,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="168"/>
+      <c r="A24" s="189"/>
       <c r="B24" s="7">
         <v>2014</v>
       </c>
@@ -5936,7 +9733,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="183"/>
+      <c r="A25" s="202"/>
       <c r="B25" s="69">
         <v>2021</v>
       </c>
@@ -5954,7 +9751,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="184" t="s">
+      <c r="A26" s="203" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="20">
@@ -5974,7 +9771,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="171"/>
+      <c r="A27" s="196"/>
       <c r="B27" s="20">
         <v>2007</v>
       </c>
@@ -5992,7 +9789,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="171"/>
+      <c r="A28" s="196"/>
       <c r="B28" s="20">
         <v>2014</v>
       </c>
@@ -6010,7 +9807,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="171"/>
+      <c r="A29" s="196"/>
       <c r="B29" s="20">
         <v>2021</v>
       </c>
@@ -6028,7 +9825,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="189" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="7">
@@ -6048,7 +9845,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="168"/>
+      <c r="A31" s="189"/>
       <c r="B31" s="7">
         <v>2007</v>
       </c>
@@ -6066,7 +9863,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="168"/>
+      <c r="A32" s="189"/>
       <c r="B32" s="7">
         <v>2014</v>
       </c>
@@ -6084,7 +9881,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="183"/>
+      <c r="A33" s="202"/>
       <c r="B33" s="69">
         <v>2021</v>
       </c>
@@ -6102,7 +9899,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="184" t="s">
+      <c r="A34" s="203" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="20">
@@ -6122,7 +9919,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="171"/>
+      <c r="A35" s="196"/>
       <c r="B35" s="20">
         <v>2007</v>
       </c>
@@ -6140,7 +9937,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="171"/>
+      <c r="A36" s="196"/>
       <c r="B36" s="20">
         <v>2014</v>
       </c>
@@ -6158,7 +9955,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="185"/>
+      <c r="A37" s="204"/>
       <c r="B37" s="20">
         <v>2021</v>
       </c>
@@ -6838,7 +10635,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="167" t="s">
+      <c r="A26" s="188" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="69">
@@ -6858,7 +10655,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="168"/>
+      <c r="A27" s="189"/>
       <c r="B27" s="69">
         <v>2007</v>
       </c>
@@ -6876,7 +10673,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="168"/>
+      <c r="A28" s="189"/>
       <c r="B28" s="69">
         <v>2014</v>
       </c>
@@ -6894,7 +10691,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="183"/>
+      <c r="A29" s="202"/>
       <c r="B29" s="69">
         <v>2021</v>
       </c>
@@ -6912,7 +10709,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="184" t="s">
+      <c r="A30" s="203" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="20">
@@ -6932,7 +10729,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="171"/>
+      <c r="A31" s="196"/>
       <c r="B31" s="20">
         <v>2007</v>
       </c>
@@ -6950,7 +10747,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="171"/>
+      <c r="A32" s="196"/>
       <c r="B32" s="20">
         <v>2014</v>
       </c>
@@ -6968,7 +10765,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="185"/>
+      <c r="A33" s="204"/>
       <c r="B33" s="20">
         <v>2021</v>
       </c>
@@ -6986,7 +10783,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="167" t="s">
+      <c r="A34" s="188" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="69">
@@ -7006,7 +10803,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="168"/>
+      <c r="A35" s="189"/>
       <c r="B35" s="69">
         <v>2007</v>
       </c>
@@ -7024,7 +10821,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="168"/>
+      <c r="A36" s="189"/>
       <c r="B36" s="69">
         <v>2014</v>
       </c>
@@ -7042,7 +10839,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="183"/>
+      <c r="A37" s="202"/>
       <c r="B37" s="69">
         <v>2021</v>
       </c>
@@ -7060,7 +10857,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="184" t="s">
+      <c r="A38" s="203" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="20">
@@ -7080,7 +10877,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="171"/>
+      <c r="A39" s="196"/>
       <c r="B39" s="20">
         <v>2007</v>
       </c>
@@ -7098,7 +10895,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="171"/>
+      <c r="A40" s="196"/>
       <c r="B40" s="20">
         <v>2014</v>
       </c>
@@ -7116,7 +10913,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="172"/>
+      <c r="A41" s="197"/>
       <c r="B41" s="24">
         <v>2021</v>
       </c>
@@ -7134,7 +10931,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="197" t="s">
+      <c r="A42" s="213" t="s">
         <v>20</v>
       </c>
       <c r="B42" s="69">
@@ -7154,7 +10951,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="168"/>
+      <c r="A43" s="189"/>
       <c r="B43" s="69">
         <v>2007</v>
       </c>
@@ -7172,7 +10969,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="168"/>
+      <c r="A44" s="189"/>
       <c r="B44" s="69">
         <v>2014</v>
       </c>
@@ -7190,7 +10987,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="183"/>
+      <c r="A45" s="202"/>
       <c r="B45" s="69">
         <v>2021</v>
       </c>
@@ -7208,7 +11005,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="184" t="s">
+      <c r="A46" s="203" t="s">
         <v>22</v>
       </c>
       <c r="B46" s="20">
@@ -7228,7 +11025,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="171"/>
+      <c r="A47" s="196"/>
       <c r="B47" s="20">
         <v>2007</v>
       </c>
@@ -7246,7 +11043,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="171"/>
+      <c r="A48" s="196"/>
       <c r="B48" s="20">
         <v>2014</v>
       </c>
@@ -7264,7 +11061,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="172"/>
+      <c r="A49" s="197"/>
       <c r="B49" s="24">
         <v>2021</v>
       </c>
@@ -7540,7 +11337,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="193" t="s">
+      <c r="A65" s="214" t="s">
         <v>139</v>
       </c>
       <c r="B65" s="104" t="s">
@@ -7569,7 +11366,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="194"/>
+      <c r="A66" s="215"/>
       <c r="B66" s="104" t="s">
         <v>141</v>
       </c>
@@ -7596,7 +11393,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="195" t="s">
+      <c r="A67" s="212" t="s">
         <v>142</v>
       </c>
       <c r="B67" s="107" t="s">
@@ -7625,7 +11422,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="192"/>
+      <c r="A68" s="211"/>
       <c r="B68" s="107" t="s">
         <v>141</v>
       </c>
@@ -7652,7 +11449,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="193" t="s">
+      <c r="A69" s="214" t="s">
         <v>143</v>
       </c>
       <c r="B69" s="104" t="s">
@@ -7681,7 +11478,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="194"/>
+      <c r="A70" s="215"/>
       <c r="B70" s="104" t="s">
         <v>141</v>
       </c>
@@ -7708,7 +11505,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="195" t="s">
+      <c r="A71" s="212" t="s">
         <v>144</v>
       </c>
       <c r="B71" s="101" t="s">
@@ -7737,7 +11534,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="192"/>
+      <c r="A72" s="211"/>
       <c r="B72" s="107" t="s">
         <v>141</v>
       </c>
@@ -7764,7 +11561,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="193" t="s">
+      <c r="A73" s="214" t="s">
         <v>145</v>
       </c>
       <c r="B73" s="104" t="s">
@@ -7793,7 +11590,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="194"/>
+      <c r="A74" s="215"/>
       <c r="B74" s="104" t="s">
         <v>141</v>
       </c>
@@ -7820,7 +11617,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="195" t="s">
+      <c r="A75" s="212" t="s">
         <v>146</v>
       </c>
       <c r="B75" s="101" t="s">
@@ -7849,7 +11646,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="192"/>
+      <c r="A76" s="211"/>
       <c r="B76" s="107" t="s">
         <v>141</v>
       </c>
@@ -7876,7 +11673,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="193" t="s">
+      <c r="A77" s="214" t="s">
         <v>147</v>
       </c>
       <c r="B77" s="104" t="s">
@@ -7905,7 +11702,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="194"/>
+      <c r="A78" s="215"/>
       <c r="B78" s="104" t="s">
         <v>141</v>
       </c>
@@ -7932,7 +11729,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="195" t="s">
+      <c r="A79" s="212" t="s">
         <v>148</v>
       </c>
       <c r="B79" s="101" t="s">
@@ -7961,7 +11758,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="192"/>
+      <c r="A80" s="211"/>
       <c r="B80" s="107" t="s">
         <v>141</v>
       </c>
@@ -7988,7 +11785,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="193" t="s">
+      <c r="A81" s="214" t="s">
         <v>149</v>
       </c>
       <c r="B81" s="104" t="s">
@@ -8017,7 +11814,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="196"/>
+      <c r="A82" s="216"/>
       <c r="B82" s="128" t="s">
         <v>141</v>
       </c>
@@ -8045,6 +11842,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A82"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -8055,11 +11857,6 @@
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A81:A82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8081,7 +11878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568532B4-8586-4B07-A82E-C3B89C9AD92E}">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A72" workbookViewId="0">
       <selection activeCell="L74" sqref="L74:M75"/>
     </sheetView>
   </sheetViews>
@@ -8483,16 +12280,16 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="186" t="s">
+      <c r="A22" s="205" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="198" t="s">
+      <c r="B22" s="217" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="D22" s="200" t="s">
+      <c r="D22" s="219" t="s">
         <v>199</v>
       </c>
       <c r="E22" s="11" t="s">
@@ -8503,12 +12300,12 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="187"/>
-      <c r="B23" s="199"/>
+      <c r="A23" s="206"/>
+      <c r="B23" s="218"/>
       <c r="C23" s="135" t="s">
         <v>198</v>
       </c>
-      <c r="D23" s="201"/>
+      <c r="D23" s="220"/>
       <c r="E23" s="30" t="s">
         <v>26</v>
       </c>
@@ -8593,7 +12390,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="184" t="s">
+      <c r="A28" s="203" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="20">
@@ -8613,7 +12410,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="171"/>
+      <c r="A29" s="196"/>
       <c r="B29" s="20">
         <v>2007</v>
       </c>
@@ -8631,7 +12428,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="171"/>
+      <c r="A30" s="196"/>
       <c r="B30" s="20">
         <v>2014</v>
       </c>
@@ -8649,7 +12446,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="185"/>
+      <c r="A31" s="204"/>
       <c r="B31" s="20">
         <v>2021</v>
       </c>
@@ -8667,7 +12464,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="167" t="s">
+      <c r="A32" s="188" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="7">
@@ -8687,7 +12484,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="168"/>
+      <c r="A33" s="189"/>
       <c r="B33" s="7">
         <v>2007</v>
       </c>
@@ -8705,7 +12502,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="168"/>
+      <c r="A34" s="189"/>
       <c r="B34" s="7">
         <v>2014</v>
       </c>
@@ -8723,7 +12520,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="183"/>
+      <c r="A35" s="202"/>
       <c r="B35" s="69">
         <v>2021</v>
       </c>
@@ -8741,7 +12538,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="184" t="s">
+      <c r="A36" s="203" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="20">
@@ -8761,7 +12558,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="171"/>
+      <c r="A37" s="196"/>
       <c r="B37" s="20">
         <v>2007</v>
       </c>
@@ -8779,7 +12576,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="171"/>
+      <c r="A38" s="196"/>
       <c r="B38" s="20">
         <v>2014</v>
       </c>
@@ -8797,7 +12594,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="185"/>
+      <c r="A39" s="204"/>
       <c r="B39" s="20">
         <v>2021</v>
       </c>
@@ -8815,7 +12612,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="167" t="s">
+      <c r="A40" s="188" t="s">
         <v>20</v>
       </c>
       <c r="B40" s="7">
@@ -8835,7 +12632,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="168"/>
+      <c r="A41" s="189"/>
       <c r="B41" s="7">
         <v>2007</v>
       </c>
@@ -8853,7 +12650,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="168"/>
+      <c r="A42" s="189"/>
       <c r="B42" s="7">
         <v>2014</v>
       </c>
@@ -8871,7 +12668,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="168"/>
+      <c r="A43" s="189"/>
       <c r="B43" s="7">
         <v>2016</v>
       </c>
@@ -8889,7 +12686,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="183"/>
+      <c r="A44" s="202"/>
       <c r="B44" s="69">
         <v>2021</v>
       </c>
@@ -8907,7 +12704,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="184" t="s">
+      <c r="A45" s="203" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="20">
@@ -8927,7 +12724,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="171"/>
+      <c r="A46" s="196"/>
       <c r="B46" s="20">
         <v>2007</v>
       </c>
@@ -8945,7 +12742,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="171"/>
+      <c r="A47" s="196"/>
       <c r="B47" s="20">
         <v>2014</v>
       </c>
@@ -8963,7 +12760,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="172"/>
+      <c r="A48" s="197"/>
       <c r="B48" s="24">
         <v>2021</v>
       </c>
@@ -10212,7 +14009,7 @@
   <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83:F84"/>
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10617,16 +14414,16 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="186" t="s">
+      <c r="A24" s="205" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="198" t="s">
+      <c r="B24" s="217" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="D24" s="200" t="s">
+      <c r="D24" s="219" t="s">
         <v>275</v>
       </c>
       <c r="E24" s="11" t="s">
@@ -10637,12 +14434,12 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="187"/>
-      <c r="B25" s="199"/>
+      <c r="A25" s="206"/>
+      <c r="B25" s="218"/>
       <c r="C25" s="152" t="s">
         <v>198</v>
       </c>
-      <c r="D25" s="201"/>
+      <c r="D25" s="220"/>
       <c r="E25" s="30" t="s">
         <v>26</v>
       </c>
@@ -10651,7 +14448,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="210" t="s">
+      <c r="A26" s="224" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="7">
@@ -10671,7 +14468,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="211"/>
+      <c r="A27" s="225"/>
       <c r="B27" s="7">
         <v>2007</v>
       </c>
@@ -10689,7 +14486,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="211"/>
+      <c r="A28" s="225"/>
       <c r="B28" s="7">
         <v>2014</v>
       </c>
@@ -10707,7 +14504,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="212"/>
+      <c r="A29" s="226"/>
       <c r="B29" s="69">
         <v>2021</v>
       </c>
@@ -10725,7 +14522,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="202" t="s">
+      <c r="A30" s="227" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="20">
@@ -10745,7 +14542,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="203"/>
+      <c r="A31" s="228"/>
       <c r="B31" s="20">
         <v>2007</v>
       </c>
@@ -10763,7 +14560,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="203"/>
+      <c r="A32" s="228"/>
       <c r="B32" s="20">
         <v>2014</v>
       </c>
@@ -10781,7 +14578,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="204"/>
+      <c r="A33" s="229"/>
       <c r="B33" s="20">
         <v>2021</v>
       </c>
@@ -10799,7 +14596,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="213" t="s">
+      <c r="A34" s="230" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="7">
@@ -10819,7 +14616,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="214"/>
+      <c r="A35" s="231"/>
       <c r="B35" s="7">
         <v>2007</v>
       </c>
@@ -10837,7 +14634,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="214"/>
+      <c r="A36" s="231"/>
       <c r="B36" s="7">
         <v>2014</v>
       </c>
@@ -10855,7 +14652,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="215"/>
+      <c r="A37" s="232"/>
       <c r="B37" s="69">
         <v>2021</v>
       </c>
@@ -10873,7 +14670,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="202" t="s">
+      <c r="A38" s="227" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="20">
@@ -10893,7 +14690,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="203"/>
+      <c r="A39" s="228"/>
       <c r="B39" s="20">
         <v>2007</v>
       </c>
@@ -10911,7 +14708,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="203"/>
+      <c r="A40" s="228"/>
       <c r="B40" s="20">
         <v>2014</v>
       </c>
@@ -10929,7 +14726,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="204"/>
+      <c r="A41" s="229"/>
       <c r="B41" s="20">
         <v>2021</v>
       </c>
@@ -10947,7 +14744,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="205" t="s">
+      <c r="A42" s="234" t="s">
         <v>20</v>
       </c>
       <c r="B42" s="153">
@@ -10967,7 +14764,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="206"/>
+      <c r="A43" s="235"/>
       <c r="B43" s="153">
         <v>2007</v>
       </c>
@@ -10985,7 +14782,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="206"/>
+      <c r="A44" s="235"/>
       <c r="B44" s="153">
         <v>2014</v>
       </c>
@@ -11003,7 +14800,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="207"/>
+      <c r="A45" s="236"/>
       <c r="B45" s="155">
         <v>2021</v>
       </c>
@@ -11196,13 +14993,13 @@
     </row>
     <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:8" ht="48" x14ac:dyDescent="0.25">
-      <c r="A56" s="186" t="s">
+      <c r="A56" s="205" t="s">
         <v>12</v>
       </c>
       <c r="B56" s="46" t="s">
         <v>286</v>
       </c>
-      <c r="C56" s="208" t="s">
+      <c r="C56" s="237" t="s">
         <v>45</v>
       </c>
       <c r="D56" s="47" t="s">
@@ -11216,11 +15013,11 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="187"/>
+      <c r="A57" s="206"/>
       <c r="B57" s="135" t="s">
         <v>287</v>
       </c>
-      <c r="C57" s="209"/>
+      <c r="C57" s="238"/>
       <c r="D57" s="136" t="s">
         <v>288</v>
       </c>
@@ -11456,22 +15253,22 @@
     </row>
     <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="219" t="s">
+      <c r="A72" s="233" t="s">
         <v>295</v>
       </c>
-      <c r="B72" s="220"/>
+      <c r="B72" s="222"/>
       <c r="C72" s="221" t="s">
         <v>296</v>
       </c>
-      <c r="D72" s="220"/>
+      <c r="D72" s="222"/>
       <c r="E72" s="221" t="s">
         <v>297</v>
       </c>
-      <c r="F72" s="220"/>
+      <c r="F72" s="222"/>
       <c r="G72" s="221" t="s">
         <v>298</v>
       </c>
-      <c r="H72" s="222"/>
+      <c r="H72" s="223"/>
       <c r="I72" s="11" t="s">
         <v>8</v>
       </c>
@@ -11480,28 +15277,28 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="216" t="s">
+      <c r="A73" s="163" t="s">
         <v>299</v>
       </c>
       <c r="B73" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="C73" s="217" t="s">
+      <c r="C73" s="164" t="s">
         <v>299</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="E73" s="217" t="s">
+      <c r="E73" s="164" t="s">
         <v>299</v>
       </c>
       <c r="F73" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="G73" s="217" t="s">
+      <c r="G73" s="164" t="s">
         <v>299</v>
       </c>
-      <c r="H73" s="218" t="s">
+      <c r="H73" s="165" t="s">
         <v>300</v>
       </c>
       <c r="I73" s="54" t="s">
@@ -12001,7 +15798,7 @@
   <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103:D108"/>
+      <selection activeCell="I96" sqref="I96:J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12045,7 +15842,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="223"/>
+      <c r="A3" s="166"/>
       <c r="B3" s="101" t="s">
         <v>318</v>
       </c>
@@ -12063,7 +15860,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="223"/>
+      <c r="A4" s="166"/>
       <c r="B4" s="101" t="s">
         <v>320</v>
       </c>
@@ -12081,7 +15878,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="223"/>
+      <c r="A5" s="166"/>
       <c r="B5" s="101" t="s">
         <v>321</v>
       </c>
@@ -12119,7 +15916,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="223"/>
+      <c r="A7" s="166"/>
       <c r="B7" s="101" t="s">
         <v>324</v>
       </c>
@@ -12137,7 +15934,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="224"/>
+      <c r="A8" s="167"/>
       <c r="B8" s="107" t="s">
         <v>326</v>
       </c>
@@ -12155,10 +15952,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="240"/>
-      <c r="B9" s="239"/>
-      <c r="C9" s="238"/>
-      <c r="D9" s="238"/>
+      <c r="A9" s="175"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
       <c r="E9" s="30"/>
       <c r="F9" s="141"/>
     </row>
@@ -12168,7 +15965,7 @@
       <c r="B11" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="225" t="s">
+      <c r="C11" s="168" t="s">
         <v>333</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -12279,7 +16076,7 @@
       <c r="G14" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="H14" s="226">
+      <c r="H14" s="169">
         <v>16</v>
       </c>
       <c r="I14" s="30" t="s">
@@ -12311,7 +16108,7 @@
       <c r="G15" s="107" t="s">
         <v>341</v>
       </c>
-      <c r="H15" s="227">
+      <c r="H15" s="170">
         <v>21</v>
       </c>
       <c r="I15" s="30" t="s">
@@ -12322,37 +16119,37 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="238"/>
-      <c r="B16" s="238"/>
-      <c r="C16" s="238"/>
-      <c r="D16" s="238"/>
-      <c r="E16" s="238"/>
-      <c r="F16" s="238"/>
-      <c r="G16" s="239"/>
-      <c r="H16" s="239"/>
+      <c r="A16" s="174"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
       <c r="I16" s="30"/>
       <c r="J16" s="141"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="231"/>
-      <c r="B18" s="233" t="s">
+      <c r="A18" s="240"/>
+      <c r="B18" s="242" t="s">
         <v>344</v>
       </c>
-      <c r="C18" s="208" t="s">
+      <c r="C18" s="237" t="s">
         <v>345</v>
       </c>
-      <c r="D18" s="235" t="s">
+      <c r="D18" s="244" t="s">
         <v>346</v>
       </c>
-      <c r="E18" s="236"/>
-      <c r="F18" s="228"/>
-      <c r="G18" s="237" t="s">
+      <c r="E18" s="245"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="246" t="s">
         <v>347</v>
       </c>
-      <c r="H18" s="237"/>
-      <c r="I18" s="228"/>
-      <c r="J18" s="229"/>
+      <c r="H18" s="246"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="172"/>
       <c r="K18" s="11" t="s">
         <v>8</v>
       </c>
@@ -12361,25 +16158,25 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="232"/>
-      <c r="B19" s="234"/>
-      <c r="C19" s="209"/>
+      <c r="A19" s="241"/>
+      <c r="B19" s="243"/>
+      <c r="C19" s="238"/>
       <c r="D19" s="36" t="s">
         <v>348</v>
       </c>
-      <c r="E19" s="230" t="s">
+      <c r="E19" s="173" t="s">
         <v>349</v>
       </c>
       <c r="F19" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="230" t="s">
+      <c r="G19" s="173" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="230" t="s">
+      <c r="H19" s="173" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="230" t="s">
+      <c r="I19" s="173" t="s">
         <v>76</v>
       </c>
       <c r="J19" s="38" t="s">
@@ -12807,7 +16604,7 @@
       <c r="A41" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="241">
+      <c r="B41" s="176">
         <v>248954.1</v>
       </c>
       <c r="C41" s="50">
@@ -12842,7 +16639,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="167" t="s">
+      <c r="A45" s="188" t="s">
         <v>16</v>
       </c>
       <c r="B45" s="7">
@@ -12862,7 +16659,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="168"/>
+      <c r="A46" s="189"/>
       <c r="B46" s="7">
         <v>2007</v>
       </c>
@@ -12880,7 +16677,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="168"/>
+      <c r="A47" s="189"/>
       <c r="B47" s="7">
         <v>2014</v>
       </c>
@@ -12898,7 +16695,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="183"/>
+      <c r="A48" s="202"/>
       <c r="B48" s="69">
         <v>2021</v>
       </c>
@@ -12916,7 +16713,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="184" t="s">
+      <c r="A49" s="203" t="s">
         <v>17</v>
       </c>
       <c r="B49" s="20">
@@ -12936,7 +16733,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="171"/>
+      <c r="A50" s="196"/>
       <c r="B50" s="20">
         <v>2007</v>
       </c>
@@ -12954,7 +16751,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="171"/>
+      <c r="A51" s="196"/>
       <c r="B51" s="20">
         <v>2014</v>
       </c>
@@ -12972,7 +16769,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="185"/>
+      <c r="A52" s="204"/>
       <c r="B52" s="20">
         <v>2021</v>
       </c>
@@ -12990,7 +16787,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="167" t="s">
+      <c r="A53" s="188" t="s">
         <v>18</v>
       </c>
       <c r="B53" s="7">
@@ -13010,7 +16807,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="168"/>
+      <c r="A54" s="189"/>
       <c r="B54" s="7">
         <v>2007</v>
       </c>
@@ -13028,7 +16825,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="168"/>
+      <c r="A55" s="189"/>
       <c r="B55" s="7">
         <v>2014</v>
       </c>
@@ -13046,7 +16843,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="183"/>
+      <c r="A56" s="202"/>
       <c r="B56" s="69">
         <v>2021</v>
       </c>
@@ -13064,7 +16861,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="184" t="s">
+      <c r="A57" s="203" t="s">
         <v>19</v>
       </c>
       <c r="B57" s="20">
@@ -13084,7 +16881,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="171"/>
+      <c r="A58" s="196"/>
       <c r="B58" s="20">
         <v>2007</v>
       </c>
@@ -13102,7 +16899,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="171"/>
+      <c r="A59" s="196"/>
       <c r="B59" s="20">
         <v>2014</v>
       </c>
@@ -13120,7 +16917,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="185"/>
+      <c r="A60" s="204"/>
       <c r="B60" s="20">
         <v>2021</v>
       </c>
@@ -13138,7 +16935,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="167" t="s">
+      <c r="A61" s="188" t="s">
         <v>20</v>
       </c>
       <c r="B61" s="7">
@@ -13158,7 +16955,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="168"/>
+      <c r="A62" s="189"/>
       <c r="B62" s="7">
         <v>2007</v>
       </c>
@@ -13176,7 +16973,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="168"/>
+      <c r="A63" s="189"/>
       <c r="B63" s="7">
         <v>2014</v>
       </c>
@@ -13194,7 +16991,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="183"/>
+      <c r="A64" s="202"/>
       <c r="B64" s="69">
         <v>2021</v>
       </c>
@@ -13212,7 +17009,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="184" t="s">
+      <c r="A65" s="203" t="s">
         <v>22</v>
       </c>
       <c r="B65" s="20">
@@ -13232,7 +17029,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="171"/>
+      <c r="A66" s="196"/>
       <c r="B66" s="20">
         <v>2007</v>
       </c>
@@ -13250,7 +17047,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="171"/>
+      <c r="A67" s="196"/>
       <c r="B67" s="20">
         <v>2014</v>
       </c>
@@ -13268,14 +17065,14 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="172"/>
+      <c r="A68" s="197"/>
       <c r="B68" s="24">
         <v>2021</v>
       </c>
       <c r="C68" s="24">
         <v>0</v>
       </c>
-      <c r="D68" s="242">
+      <c r="D68" s="177">
         <v>0</v>
       </c>
       <c r="E68" s="30" t="s">
@@ -13390,16 +17187,16 @@
     </row>
     <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="1:8" ht="48" x14ac:dyDescent="0.25">
-      <c r="A77" s="186" t="s">
+      <c r="A77" s="205" t="s">
         <v>12</v>
       </c>
       <c r="B77" s="44" t="s">
         <v>286</v>
       </c>
-      <c r="C77" s="175" t="s">
+      <c r="C77" s="200" t="s">
         <v>45</v>
       </c>
-      <c r="D77" s="200" t="s">
+      <c r="D77" s="219" t="s">
         <v>217</v>
       </c>
       <c r="E77" s="11" t="s">
@@ -13410,12 +17207,12 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="187"/>
-      <c r="B78" s="243" t="s">
+      <c r="A78" s="206"/>
+      <c r="B78" s="178" t="s">
         <v>362</v>
       </c>
-      <c r="C78" s="244"/>
-      <c r="D78" s="201"/>
+      <c r="C78" s="239"/>
+      <c r="D78" s="220"/>
       <c r="E78" s="30" t="s">
         <v>52</v>
       </c>
@@ -13574,16 +17371,16 @@
       <c r="A88" s="40" t="s">
         <v>370</v>
       </c>
-      <c r="B88" s="245">
+      <c r="B88" s="179">
         <v>185546</v>
       </c>
-      <c r="C88" s="245">
+      <c r="C88" s="179">
         <v>278483</v>
       </c>
-      <c r="D88" s="245">
+      <c r="D88" s="179">
         <v>326526</v>
       </c>
-      <c r="E88" s="245">
+      <c r="E88" s="179">
         <v>426855</v>
       </c>
       <c r="F88" s="68">
@@ -13600,7 +17397,7 @@
       <c r="A89" s="40" t="s">
         <v>371</v>
       </c>
-      <c r="B89" s="245">
+      <c r="B89" s="179">
         <v>536980</v>
       </c>
       <c r="C89" s="119">
@@ -13704,19 +17501,19 @@
       <c r="A93" s="42" t="s">
         <v>375</v>
       </c>
-      <c r="B93" s="246">
+      <c r="B93" s="180">
         <v>0.26</v>
       </c>
-      <c r="C93" s="246">
+      <c r="C93" s="180">
         <v>0.3</v>
       </c>
-      <c r="D93" s="246">
+      <c r="D93" s="180">
         <v>0.27</v>
       </c>
-      <c r="E93" s="246">
+      <c r="E93" s="180">
         <v>0.22</v>
       </c>
-      <c r="F93" s="247">
+      <c r="F93" s="181">
         <v>0.18</v>
       </c>
       <c r="G93" s="30" t="s">
@@ -13744,7 +17541,7 @@
       <c r="F96" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="G96" s="225" t="s">
+      <c r="G96" s="168" t="s">
         <v>383</v>
       </c>
       <c r="H96" s="66" t="s">
@@ -13954,6 +17751,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="C77:C78"/>
     <mergeCell ref="D77:D78"/>
     <mergeCell ref="A49:A52"/>
@@ -13962,12 +17765,6 @@
     <mergeCell ref="A61:A64"/>
     <mergeCell ref="A65:A68"/>
     <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A45:A48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
